--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,52 +789,52 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X2" t="n">
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
       </c>
       <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH2" t="n">
         <v>29</v>
       </c>
-      <c r="AC2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>26</v>
-      </c>
       <c r="AI2" t="n">
         <v>51</v>
       </c>
       <c r="AJ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>151</v>
@@ -843,7 +843,7 @@
         <v>67</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
         <v>3.25</v>
@@ -855,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
@@ -867,7 +867,7 @@
         <v>3.75</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>51</v>
@@ -879,22 +879,22 @@
         <v>151</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
       </c>
       <c r="BB2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
         <v>201</v>
       </c>
       <c r="BD2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -929,94 +929,94 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>29</v>
@@ -1031,22 +1031,22 @@
         <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ3" t="n">
         <v>41</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7</v>
@@ -1058,7 +1058,7 @@
         <v>301</v>
       </c>
       <c r="AX3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
@@ -1120,10 +1120,10 @@
         <v>7.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>6.5</v>
@@ -1135,70 +1135,70 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.8</v>
       </c>
-      <c r="V4" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
         <v>8.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>41</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1210,28 +1210,28 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1249,16 +1249,16 @@
         <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1341,25 +1341,25 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y5" t="n">
         <v>10</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1374,40 +1374,40 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1425,16 +1425,16 @@
         <v>151</v>
       </c>
       <c r="AY5" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1475,10 +1475,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.55</v>
@@ -1487,43 +1487,43 @@
         <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
         <v>3.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="V6" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1535,37 +1535,37 @@
         <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>21</v>
@@ -1580,7 +1580,7 @@
         <v>15</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>51</v>
@@ -1592,10 +1592,10 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1610,13 +1610,13 @@
         <v>4.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC6" t="n">
         <v>67</v>
@@ -1848,7 +1848,7 @@
         <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.27</v>
@@ -1866,7 +1866,7 @@
         <v>1.21</v>
       </c>
       <c r="P8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
         <v>1.65</v>
@@ -1875,31 +1875,31 @@
         <v>2.15</v>
       </c>
       <c r="S8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="n">
         <v>21</v>
@@ -1938,28 +1938,28 @@
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO8" t="n">
         <v>9.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>35</v>
       </c>
       <c r="AR8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS8" t="n">
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV8" t="n">
         <v>50</v>
@@ -1974,7 +1974,7 @@
         <v>5.4</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA8" t="n">
         <v>22</v>
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H9" t="n">
         <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
         <v>2.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L9" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2051,10 +2051,10 @@
         <v>3.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R9" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.34</v>
@@ -2063,16 +2063,16 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.25</v>
@@ -2090,7 +2090,7 @@
         <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE9" t="n">
         <v>13.5</v>
@@ -2102,16 +2102,16 @@
         <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ9" t="n">
         <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
         <v>35</v>
@@ -2123,16 +2123,16 @@
         <v>3.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS9" t="n">
         <v>175</v>
@@ -2159,13 +2159,13 @@
         <v>22</v>
       </c>
       <c r="BA9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC9" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD9" t="n">
         <v>300</v>
@@ -2206,7 +2206,7 @@
         <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
         <v>4.2</v>
@@ -2215,10 +2215,10 @@
         <v>2.1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="L10" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2248,7 +2248,7 @@
         <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="W10" t="n">
         <v>12.5</v>
@@ -2266,13 +2266,13 @@
         <v>11.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE10" t="n">
         <v>12.5</v>
@@ -2341,7 +2341,7 @@
         <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB10" t="n">
         <v>90</v>
@@ -2394,31 +2394,31 @@
         <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2433,10 +2433,10 @@
         <v>2.02</v>
       </c>
       <c r="W11" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="X11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
         <v>14.5</v>
@@ -2451,10 +2451,10 @@
         <v>40</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>14.5</v>
@@ -2463,10 +2463,10 @@
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI11" t="n">
         <v>8.5</v>
@@ -2475,7 +2475,7 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
         <v>12.5</v>
@@ -2487,13 +2487,13 @@
         <v>6.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR11" t="n">
         <v>150</v>
@@ -2505,7 +2505,7 @@
         <v>2.92</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV11" t="n">
         <v>60</v>
@@ -2517,7 +2517,7 @@
         <v>81</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AZ11" t="n">
         <v>8.25</v>
@@ -2526,7 +2526,7 @@
         <v>16.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC11" t="n">
         <v>55</v>
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="L13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P13" t="n">
         <v>6</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N13" t="n">
-        <v>17</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="S13" t="n">
         <v>1.25</v>
@@ -2791,13 +2791,13 @@
         <v>3.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X13" t="n">
         <v>8</v>
@@ -2815,34 +2815,34 @@
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
@@ -2857,13 +2857,13 @@
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT13" t="n">
         <v>3.75</v>
@@ -2872,16 +2872,16 @@
         <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX13" t="n">
         <v>151</v>
       </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ13" t="n">
         <v>34</v>
@@ -2890,13 +2890,13 @@
         <v>34</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="n">
         <v>101</v>
       </c>
       <c r="BD13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2982,13 +2982,13 @@
         <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
@@ -3015,7 +3015,7 @@
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -3033,13 +3033,13 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3066,13 +3066,13 @@
         <v>5.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>26</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3113,28 +3113,28 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
         <v>1.22</v>
@@ -3167,7 +3167,7 @@
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -3194,7 +3194,7 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3245,7 +3245,7 @@
         <v>81</v>
       </c>
       <c r="AY15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3373,7 +3373,7 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
         <v>10</v>
@@ -3477,64 +3477,64 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>1.91</v>
       </c>
       <c r="L17" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.53</v>
       </c>
-      <c r="P17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
@@ -3543,7 +3543,7 @@
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3558,16 +3558,16 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>17</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>15</v>
-      </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3579,7 +3579,7 @@
         <v>3.75</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>29</v>
@@ -3594,10 +3594,10 @@
         <v>301</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
@@ -3609,10 +3609,10 @@
         <v>81</v>
       </c>
       <c r="AY17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
         <v>41</v>
@@ -3683,10 +3683,10 @@
         <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q18" t="n">
         <v>3.1</v>
@@ -3859,13 +3859,13 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
         <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P19" t="n">
         <v>2.5</v>
@@ -4023,40 +4023,40 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I20" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L20" t="n">
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S20" t="n">
         <v>1.57</v>
@@ -4065,10 +4065,10 @@
         <v>2.25</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
         <v>7</v>
@@ -4077,10 +4077,10 @@
         <v>13</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA20" t="n">
         <v>29</v>
@@ -4089,34 +4089,34 @@
         <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="n">
         <v>1250</v>
       </c>
       <c r="AH20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
       </c>
       <c r="AK20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL20" t="n">
         <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>23</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -4125,19 +4125,19 @@
         <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP20" t="n">
         <v>34</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR20" t="n">
         <v>101</v>
       </c>
       <c r="AS20" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT20" t="n">
         <v>2.25</v>
@@ -4146,7 +4146,7 @@
         <v>9</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW20" t="n">
         <v>51</v>
@@ -4155,7 +4155,7 @@
         <v>51</v>
       </c>
       <c r="AY20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ20" t="n">
         <v>15</v>
@@ -4170,7 +4170,7 @@
         <v>81</v>
       </c>
       <c r="BD20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21">
@@ -4208,10 +4208,10 @@
         <v>1.8</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>2.6</v>
@@ -4223,13 +4223,13 @@
         <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="P21" t="n">
         <v>2.25</v>
@@ -4247,22 +4247,22 @@
         <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
         <v>4.75</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4277,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
         <v>101</v>
@@ -4292,7 +4292,7 @@
         <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
@@ -4301,13 +4301,13 @@
         <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN21" t="n">
         <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4319,16 +4319,16 @@
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
         <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW21" t="n">
         <v>51</v>
@@ -4346,7 +4346,7 @@
         <v>41</v>
       </c>
       <c r="BB21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
         <v>201</v>
@@ -4387,40 +4387,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K22" t="n">
         <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S22" t="n">
         <v>1.53</v>
@@ -4435,10 +4435,10 @@
         <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y22" t="n">
         <v>13</v>
@@ -4471,7 +4471,7 @@
         <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>9.5</v>
@@ -4480,7 +4480,7 @@
         <v>19</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
@@ -4489,16 +4489,16 @@
         <v>5.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP22" t="n">
         <v>34</v>
       </c>
       <c r="AQ22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR22" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS22" t="n">
         <v>301</v>
@@ -4522,7 +4522,7 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>26</v>
@@ -4531,7 +4531,7 @@
         <v>41</v>
       </c>
       <c r="BC22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BD22" t="n">
         <v>251</v>
@@ -4572,52 +4572,52 @@
         <v>3.2</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -4629,13 +4629,13 @@
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
         <v>6</v>
@@ -4647,31 +4647,31 @@
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL23" t="n">
         <v>21</v>
       </c>
-      <c r="AL23" t="n">
-        <v>19</v>
-      </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN23" t="n">
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
         <v>29</v>
@@ -4683,16 +4683,16 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>126</v>
@@ -4704,16 +4704,16 @@
         <v>4.33</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD23" t="n">
         <v>201</v>
@@ -4751,31 +4751,31 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K24" t="n">
         <v>2.1</v>
       </c>
-      <c r="J24" t="n">
-        <v>4</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L24" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
         <v>3.25</v>
@@ -4793,19 +4793,19 @@
         <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z24" t="n">
         <v>41</v>
@@ -4817,7 +4817,7 @@
         <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>6.5</v>
@@ -4832,19 +4832,19 @@
         <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4853,7 +4853,7 @@
         <v>5.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4862,7 +4862,7 @@
         <v>67</v>
       </c>
       <c r="AR24" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS24" t="n">
         <v>251</v>
@@ -4886,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA24" t="n">
         <v>23</v>
@@ -4898,7 +4898,7 @@
         <v>67</v>
       </c>
       <c r="BD24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -4933,22 +4933,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4993,7 +4993,7 @@
         <v>23</v>
       </c>
       <c r="AA25" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB25" t="n">
         <v>23</v>
@@ -5020,7 +5020,7 @@
         <v>15</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK25" t="n">
         <v>29</v>
@@ -5032,13 +5032,13 @@
         <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ25" t="n">
         <v>41</v>
@@ -5074,7 +5074,7 @@
         <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC25" t="n">
         <v>51</v>
@@ -5297,16 +5297,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
         <v>3.6</v>
       </c>
       <c r="I27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K27" t="n">
         <v>2.38</v>
@@ -5321,10 +5321,10 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P27" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
         <v>1.6</v>
@@ -5339,10 +5339,10 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V27" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W27" t="n">
         <v>15</v>
@@ -5366,13 +5366,13 @@
         <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>12</v>
       </c>
       <c r="AF27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG27" t="n">
         <v>126</v>
@@ -5387,7 +5387,7 @@
         <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>15</v>
@@ -5396,13 +5396,13 @@
         <v>21</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
@@ -5438,7 +5438,7 @@
         <v>17</v>
       </c>
       <c r="BB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BC27" t="n">
         <v>41</v>
@@ -5482,7 +5482,7 @@
         <v>1.48</v>
       </c>
       <c r="H28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I28" t="n">
         <v>5.75</v>
@@ -5491,7 +5491,7 @@
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L28" t="n">
         <v>5.5</v>
@@ -5521,10 +5521,10 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
         <v>9.5</v>
@@ -5560,16 +5560,16 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
         <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK28" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL28" t="n">
         <v>41</v>
@@ -5623,7 +5623,7 @@
         <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5691,10 +5691,10 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S29" t="n">
         <v>1.5</v>
@@ -5846,7 +5846,7 @@
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>2.35</v>
@@ -5858,37 +5858,37 @@
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="S30" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U30" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W30" t="n">
         <v>9.5</v>
@@ -5903,13 +5903,13 @@
         <v>34</v>
       </c>
       <c r="AA30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
@@ -5921,7 +5921,7 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH30" t="n">
         <v>8</v>
@@ -5933,7 +5933,7 @@
         <v>9.5</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL30" t="n">
         <v>19</v>
@@ -5957,10 +5957,10 @@
         <v>81</v>
       </c>
       <c r="AS30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU30" t="n">
         <v>8</v>
@@ -6025,58 +6025,58 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J31" t="n">
         <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T31" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="V31" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y31" t="n">
         <v>13</v>
@@ -6091,25 +6091,25 @@
         <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AD31" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
         <v>8.5</v>
@@ -6121,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN31" t="n">
         <v>6</v>
@@ -6130,7 +6130,7 @@
         <v>19</v>
       </c>
       <c r="AP31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>51</v>
@@ -6142,37 +6142,37 @@
         <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AX31" t="n">
         <v>81</v>
       </c>
       <c r="AY31" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB31" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BC31" t="n">
         <v>41</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -6207,16 +6207,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H32" t="n">
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K32" t="n">
         <v>1.91</v>
@@ -6231,22 +6231,22 @@
         <v>6.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S32" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U32" t="n">
         <v>2.38</v>
@@ -6318,13 +6318,13 @@
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
         <v>301</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU32" t="n">
         <v>10</v>
@@ -6389,13 +6389,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J33" t="n">
         <v>2.88</v>
@@ -6446,7 +6446,7 @@
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA33" t="n">
         <v>17</v>
@@ -6524,7 +6524,7 @@
         <v>5</v>
       </c>
       <c r="AZ33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA33" t="n">
         <v>26</v>
@@ -6965,10 +6965,10 @@
         <v>2.75</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R36" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S36" t="n">
         <v>1.5</v>
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7174,13 +7174,13 @@
         <v>9.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA37" t="n">
         <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -7198,7 +7198,7 @@
         <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI37" t="n">
         <v>15</v>
@@ -7252,7 +7252,7 @@
         <v>5</v>
       </c>
       <c r="AZ37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA37" t="n">
         <v>23</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
         <v>4.75</v>
       </c>
       <c r="J38" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K38" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
@@ -7350,7 +7350,7 @@
         <v>11</v>
       </c>
       <c r="X38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7368,7 +7368,7 @@
         <v>19</v>
       </c>
       <c r="AD38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE38" t="n">
         <v>12</v>
@@ -7380,19 +7380,19 @@
         <v>101</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
         <v>29</v>
       </c>
       <c r="AJ38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK38" t="n">
         <v>51</v>
       </c>
       <c r="AL38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
         <v>29</v>
@@ -7401,7 +7401,7 @@
         <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP38" t="n">
         <v>15</v>
@@ -7410,7 +7410,7 @@
         <v>23</v>
       </c>
       <c r="AR38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS38" t="n">
         <v>81</v>
@@ -7431,7 +7431,7 @@
         <v>81</v>
       </c>
       <c r="AY38" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ38" t="n">
         <v>21</v>
@@ -7446,7 +7446,7 @@
         <v>67</v>
       </c>
       <c r="BD38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -7481,16 +7481,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K39" t="n">
         <v>2.63</v>
@@ -7499,10 +7499,10 @@
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O39" t="n">
         <v>1.14</v>
@@ -7511,10 +7511,10 @@
         <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S39" t="n">
         <v>1.25</v>
@@ -7523,22 +7523,22 @@
         <v>3.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W39" t="n">
         <v>9.5</v>
       </c>
       <c r="X39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA39" t="n">
         <v>11</v>
@@ -7547,10 +7547,10 @@
         <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7562,7 +7562,7 @@
         <v>151</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
@@ -7580,10 +7580,10 @@
         <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP39" t="n">
         <v>15</v>
@@ -7604,7 +7604,7 @@
         <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW39" t="n">
         <v>81</v>
@@ -7613,13 +7613,13 @@
         <v>81</v>
       </c>
       <c r="AY39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7663,7 +7663,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H40" t="n">
         <v>3.7</v>
@@ -7678,7 +7678,7 @@
         <v>2.38</v>
       </c>
       <c r="L40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7711,16 +7711,16 @@
         <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X40" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y40" t="n">
         <v>15</v>
       </c>
       <c r="Z40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA40" t="n">
         <v>34</v>
@@ -7729,7 +7729,7 @@
         <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD40" t="n">
         <v>7.5</v>
@@ -7765,7 +7765,7 @@
         <v>6.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP40" t="n">
         <v>26</v>
@@ -7798,7 +7798,7 @@
         <v>4</v>
       </c>
       <c r="AZ40" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BA40" t="n">
         <v>17</v>
@@ -7875,10 +7875,10 @@
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R41" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S41" t="n">
         <v>1.33</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L42" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -8057,10 +8057,10 @@
         <v>3.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="n">
         <v>1.4</v>
@@ -8069,73 +8069,73 @@
         <v>2.75</v>
       </c>
       <c r="U42" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="V42" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="W42" t="n">
         <v>6</v>
       </c>
       <c r="X42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y42" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z42" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>10</v>
       </c>
       <c r="AA42" t="n">
         <v>13</v>
       </c>
       <c r="AB42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD42" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG42" t="n">
         <v>501</v>
       </c>
       <c r="AH42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM42" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO42" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP42" t="n">
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR42" t="n">
         <v>51</v>
@@ -8147,7 +8147,7 @@
         <v>2.75</v>
       </c>
       <c r="AU42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV42" t="n">
         <v>67</v>
@@ -8159,22 +8159,22 @@
         <v>81</v>
       </c>
       <c r="AY42" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AZ42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA42" t="n">
         <v>41</v>
       </c>
       <c r="BB42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC42" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD42" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
     </row>
     <row r="43">
@@ -8209,73 +8209,73 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
         <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P43" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R43" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S43" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W43" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X43" t="n">
         <v>8</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z43" t="n">
         <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC43" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8284,13 +8284,13 @@
         <v>17</v>
       </c>
       <c r="AF43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG43" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI43" t="n">
         <v>21</v>
@@ -8314,22 +8314,22 @@
         <v>10</v>
       </c>
       <c r="AP43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ43" t="n">
         <v>34</v>
       </c>
       <c r="AR43" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS43" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV43" t="n">
         <v>67</v>
@@ -8356,7 +8356,7 @@
         <v>126</v>
       </c>
       <c r="BD43" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
@@ -8391,13 +8391,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
@@ -8406,25 +8406,25 @@
         <v>1.83</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O44" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="P44" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S44" t="n">
         <v>1.67</v>
@@ -8442,22 +8442,22 @@
         <v>6</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA44" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
@@ -8475,7 +8475,7 @@
         <v>6</v>
       </c>
       <c r="AI44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ44" t="n">
         <v>12</v>
@@ -8490,10 +8490,10 @@
         <v>41</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP44" t="n">
         <v>34</v>
@@ -8502,16 +8502,16 @@
         <v>67</v>
       </c>
       <c r="AR44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS44" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT44" t="n">
         <v>2.1</v>
       </c>
       <c r="AU44" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV44" t="n">
         <v>81</v>
@@ -8526,7 +8526,7 @@
         <v>4.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA44" t="n">
         <v>34</v>
@@ -8576,31 +8576,31 @@
         <v>6.4</v>
       </c>
       <c r="H45" t="n">
-        <v>4.75</v>
+        <v>4.4</v>
       </c>
       <c r="I45" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="J45" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K45" t="n">
-        <v>2.57</v>
+        <v>2.45</v>
       </c>
       <c r="L45" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M45" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>16.5</v>
+        <v>14.7</v>
       </c>
       <c r="O45" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Q45" t="n">
         <v>1.62</v>
@@ -8609,19 +8609,19 @@
         <v>2.02</v>
       </c>
       <c r="S45" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T45" t="n">
-        <v>3.74</v>
+        <v>3.65</v>
       </c>
       <c r="U45" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V45" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="W45" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="X45" t="n">
         <v>37</v>
@@ -8630,58 +8630,58 @@
         <v>17</v>
       </c>
       <c r="Z45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB45" t="n">
         <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AE45" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF45" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG45" t="n">
         <v>250</v>
       </c>
       <c r="AH45" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI45" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AK45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL45" t="n">
         <v>8.75</v>
       </c>
       <c r="AM45" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN45" t="n">
         <v>8.25</v>
       </c>
       <c r="AO45" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP45" t="n">
         <v>35</v>
       </c>
-      <c r="AP45" t="n">
-        <v>32</v>
-      </c>
       <c r="AQ45" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AR45" t="n">
         <v>200</v>
@@ -8690,10 +8690,10 @@
         <v>350</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AV45" t="n">
         <v>55</v>
@@ -8708,13 +8708,13 @@
         <v>3.4</v>
       </c>
       <c r="AZ45" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="BA45" t="n">
         <v>13.5</v>
       </c>
       <c r="BB45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC45" t="n">
         <v>35</v>
@@ -8758,13 +8758,13 @@
         <v>1.73</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K46" t="n">
         <v>2.2</v>
@@ -8785,22 +8785,22 @@
         <v>3.5</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V46" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W46" t="n">
         <v>7</v>
@@ -8815,13 +8815,13 @@
         <v>13</v>
       </c>
       <c r="AA46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB46" t="n">
         <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD46" t="n">
         <v>7</v>
@@ -8860,7 +8860,7 @@
         <v>9</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ46" t="n">
         <v>29</v>
@@ -8872,7 +8872,7 @@
         <v>151</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU46" t="n">
         <v>8</v>
@@ -8902,7 +8902,7 @@
         <v>101</v>
       </c>
       <c r="BD46" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47">
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I47" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="J47" t="n">
         <v>2.05</v>
       </c>
       <c r="K47" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M47" t="n">
         <v>10.4</v>
@@ -8961,7 +8961,7 @@
         <v>1.03</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P47" t="n">
         <v>3.25</v>
@@ -8979,7 +8979,7 @@
         <v>3.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V47" t="n">
         <v>1.78</v>
@@ -8988,7 +8988,7 @@
         <v>6.8</v>
       </c>
       <c r="X47" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -9006,7 +9006,7 @@
         <v>11</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AE47" t="n">
         <v>17.5</v>
@@ -9018,19 +9018,19 @@
         <v>700</v>
       </c>
       <c r="AH47" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ47" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AK47" t="n">
         <v>120</v>
       </c>
       <c r="AL47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM47" t="n">
         <v>60</v>
@@ -9048,7 +9048,7 @@
         <v>22</v>
       </c>
       <c r="AR47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
@@ -9057,7 +9057,7 @@
         <v>2.77</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV47" t="n">
         <v>75</v>
@@ -9069,16 +9069,16 @@
         <v>51</v>
       </c>
       <c r="AY47" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AZ47" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BA47" t="n">
         <v>37</v>
       </c>
       <c r="BB47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC47" t="n">
         <v>250</v>
@@ -9507,16 +9507,16 @@
         <v>7</v>
       </c>
       <c r="O50" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P50" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R50" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S50" t="n">
         <v>1.57</v>
@@ -9689,10 +9689,10 @@
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P51" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
         <v>1.53</v>
@@ -9877,10 +9877,10 @@
         <v>7</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R52" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="S52" t="n">
         <v>1.2</v>
@@ -10050,13 +10050,13 @@
         <v>1.02</v>
       </c>
       <c r="N53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O53" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q53" t="n">
         <v>1.48</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H54" t="n">
         <v>4.2</v>
       </c>
       <c r="I54" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K54" t="n">
         <v>2.5</v>
       </c>
       <c r="L54" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10259,19 +10259,19 @@
         <v>2.5</v>
       </c>
       <c r="W54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X54" t="n">
         <v>11</v>
       </c>
       <c r="Y54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB54" t="n">
         <v>19</v>
@@ -10283,7 +10283,7 @@
         <v>8.5</v>
       </c>
       <c r="AE54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF54" t="n">
         <v>34</v>
@@ -10292,10 +10292,10 @@
         <v>101</v>
       </c>
       <c r="AH54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ54" t="n">
         <v>13</v>
@@ -10304,22 +10304,22 @@
         <v>41</v>
       </c>
       <c r="AL54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN54" t="n">
         <v>4.33</v>
       </c>
       <c r="AO54" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP54" t="n">
         <v>15</v>
       </c>
       <c r="AQ54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR54" t="n">
         <v>41</v>
@@ -10346,7 +10346,7 @@
         <v>6.5</v>
       </c>
       <c r="AZ54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA54" t="n">
         <v>21</v>
@@ -10399,7 +10399,7 @@
         <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
@@ -10441,7 +10441,7 @@
         <v>2.38</v>
       </c>
       <c r="W55" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X55" t="n">
         <v>12</v>
@@ -10471,7 +10471,7 @@
         <v>34</v>
       </c>
       <c r="AG55" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH55" t="n">
         <v>13</v>
@@ -10486,7 +10486,7 @@
         <v>34</v>
       </c>
       <c r="AL55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM55" t="n">
         <v>26</v>
@@ -10528,7 +10528,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA55" t="n">
         <v>21</v>
@@ -10757,13 +10757,13 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H57" t="n">
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
@@ -10772,25 +10772,25 @@
         <v>2.4</v>
       </c>
       <c r="L57" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O57" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R57" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S57" t="n">
         <v>1.29</v>
@@ -10814,7 +10814,7 @@
         <v>15</v>
       </c>
       <c r="Z57" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA57" t="n">
         <v>34</v>
@@ -10847,10 +10847,10 @@
         <v>8.5</v>
       </c>
       <c r="AK57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL57" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM57" t="n">
         <v>21</v>
@@ -11142,7 +11142,7 @@
         <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O59" t="n">
         <v>1.17</v>
@@ -11303,16 +11303,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H60" t="n">
         <v>3.75</v>
       </c>
       <c r="I60" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K60" t="n">
         <v>2.4</v>
@@ -11339,10 +11339,10 @@
         <v>2.4</v>
       </c>
       <c r="S60" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T60" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U60" t="n">
         <v>1.44</v>
@@ -11366,10 +11366,10 @@
         <v>15</v>
       </c>
       <c r="AB60" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC60" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD60" t="n">
         <v>7.5</v>
@@ -11390,7 +11390,7 @@
         <v>19</v>
       </c>
       <c r="AJ60" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK60" t="n">
         <v>34</v>
@@ -11402,7 +11402,7 @@
         <v>23</v>
       </c>
       <c r="AN60" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO60" t="n">
         <v>11</v>
@@ -11420,7 +11420,7 @@
         <v>81</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU60" t="n">
         <v>7</v>
@@ -11849,22 +11849,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H63" t="n">
         <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K63" t="n">
         <v>2.1</v>
       </c>
       <c r="L63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M63" t="n">
         <v>1.06</v>
@@ -11909,7 +11909,7 @@
         <v>29</v>
       </c>
       <c r="AA63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB63" t="n">
         <v>29</v>
@@ -11930,16 +11930,16 @@
         <v>201</v>
       </c>
       <c r="AH63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL63" t="n">
         <v>21</v>
@@ -11969,7 +11969,7 @@
         <v>2.75</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -12031,16 +12031,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="H64" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J64" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K64" t="n">
         <v>2.2</v>
@@ -12061,10 +12061,10 @@
         <v>3.75</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R64" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S64" t="n">
         <v>1.4</v>
@@ -12073,25 +12073,25 @@
         <v>2.75</v>
       </c>
       <c r="U64" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V64" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W64" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X64" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y64" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA64" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB64" t="n">
         <v>26</v>
@@ -12103,10 +12103,10 @@
         <v>6.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG64" t="n">
         <v>201</v>
@@ -12115,22 +12115,22 @@
         <v>11</v>
       </c>
       <c r="AI64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK64" t="n">
         <v>41</v>
       </c>
       <c r="AL64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM64" t="n">
         <v>34</v>
       </c>
       <c r="AN64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO64" t="n">
         <v>11</v>
@@ -12139,7 +12139,7 @@
         <v>21</v>
       </c>
       <c r="AQ64" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="n">
         <v>51</v>
@@ -12151,7 +12151,7 @@
         <v>2.75</v>
       </c>
       <c r="AU64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV64" t="n">
         <v>51</v>
@@ -12166,19 +12166,19 @@
         <v>5.5</v>
       </c>
       <c r="AZ64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA64" t="n">
         <v>26</v>
       </c>
       <c r="BB64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC64" t="n">
         <v>81</v>
       </c>
       <c r="BD64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65">
@@ -12216,13 +12216,13 @@
         <v>3.2</v>
       </c>
       <c r="H65" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K65" t="n">
         <v>2.05</v>
@@ -12261,7 +12261,7 @@
         <v>1.83</v>
       </c>
       <c r="W65" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X65" t="n">
         <v>15</v>
@@ -12279,7 +12279,7 @@
         <v>41</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD65" t="n">
         <v>6</v>
@@ -12321,7 +12321,7 @@
         <v>29</v>
       </c>
       <c r="AQ65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR65" t="n">
         <v>81</v>
@@ -12333,7 +12333,7 @@
         <v>2.63</v>
       </c>
       <c r="AU65" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV65" t="n">
         <v>51</v>
@@ -12395,16 +12395,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H66" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I66" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K66" t="n">
         <v>2.38</v>
@@ -12425,10 +12425,10 @@
         <v>4</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R66" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S66" t="n">
         <v>1.33</v>
@@ -12446,13 +12446,13 @@
         <v>8</v>
       </c>
       <c r="X66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y66" t="n">
         <v>8.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA66" t="n">
         <v>13</v>
@@ -12470,7 +12470,7 @@
         <v>15</v>
       </c>
       <c r="AF66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="n">
         <v>201</v>
@@ -12488,7 +12488,7 @@
         <v>51</v>
       </c>
       <c r="AL66" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM66" t="n">
         <v>41</v>
@@ -12497,19 +12497,19 @@
         <v>3.75</v>
       </c>
       <c r="AO66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP66" t="n">
         <v>17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR66" t="n">
         <v>41</v>
       </c>
       <c r="AS66" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT66" t="n">
         <v>3.25</v>
@@ -12527,10 +12527,10 @@
         <v>81</v>
       </c>
       <c r="AY66" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA66" t="n">
         <v>29</v>
@@ -12577,10 +12577,10 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I67" t="n">
         <v>2.5</v>
@@ -12589,7 +12589,7 @@
         <v>3.75</v>
       </c>
       <c r="K67" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L67" t="n">
         <v>3.4</v>
@@ -12601,28 +12601,28 @@
         <v>7</v>
       </c>
       <c r="O67" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P67" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R67" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S67" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T67" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V67" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W67" t="n">
         <v>7.5</v>
@@ -12631,40 +12631,40 @@
         <v>13</v>
       </c>
       <c r="Y67" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z67" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA67" t="n">
         <v>29</v>
-      </c>
-      <c r="AA67" t="n">
-        <v>26</v>
       </c>
       <c r="AB67" t="n">
         <v>41</v>
       </c>
       <c r="AC67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD67" t="n">
         <v>6</v>
       </c>
       <c r="AE67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF67" t="n">
         <v>67</v>
       </c>
       <c r="AG67" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI67" t="n">
         <v>11</v>
       </c>
       <c r="AJ67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK67" t="n">
         <v>26</v>
@@ -12679,25 +12679,25 @@
         <v>4.75</v>
       </c>
       <c r="AO67" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ67" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR67" t="n">
         <v>101</v>
       </c>
       <c r="AS67" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU67" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV67" t="n">
         <v>67</v>
@@ -12709,7 +12709,7 @@
         <v>126</v>
       </c>
       <c r="AY67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ67" t="n">
         <v>15</v>
@@ -12777,10 +12777,10 @@
         <v>3.6</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -13123,91 +13123,91 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H70" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I70" t="n">
         <v>3.7</v>
       </c>
       <c r="J70" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K70" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L70" t="n">
         <v>4.33</v>
       </c>
       <c r="M70" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P70" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S70" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U70" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y70" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z70" t="n">
         <v>17</v>
       </c>
       <c r="AA70" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC70" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD70" t="n">
         <v>6.5</v>
       </c>
       <c r="AE70" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF70" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH70" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI70" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ70" t="n">
         <v>13</v>
@@ -13216,31 +13216,31 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN70" t="n">
         <v>4</v>
       </c>
       <c r="AO70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP70" t="n">
         <v>21</v>
       </c>
       <c r="AQ70" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR70" t="n">
         <v>51</v>
       </c>
       <c r="AS70" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT70" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU70" t="n">
         <v>8</v>
@@ -13261,16 +13261,16 @@
         <v>21</v>
       </c>
       <c r="BA70" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB70" t="n">
         <v>67</v>
       </c>
       <c r="BC70" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD70" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71">
@@ -13323,22 +13323,22 @@
         <v>3.25</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O71" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P71" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q71" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S71" t="n">
         <v>1.4</v>
@@ -13487,61 +13487,61 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.25</v>
+        <v>4.1</v>
       </c>
       <c r="H72" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="J72" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="K72" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L72" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N72" t="n">
+        <v>8</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q72" t="n">
         <v>2.05</v>
       </c>
-      <c r="M72" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N72" t="n">
+      <c r="R72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W72" t="n">
         <v>11</v>
       </c>
-      <c r="O72" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P72" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T72" t="n">
-        <v>3</v>
-      </c>
-      <c r="U72" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V72" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W72" t="n">
-        <v>13</v>
-      </c>
       <c r="X72" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Y72" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z72" t="n">
         <v>51</v>
@@ -13550,64 +13550,64 @@
         <v>41</v>
       </c>
       <c r="AB72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC72" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AD72" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF72" t="n">
         <v>67</v>
       </c>
       <c r="AG72" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH72" t="n">
         <v>6.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ72" t="n">
         <v>9</v>
       </c>
       <c r="AK72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AL72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM72" t="n">
         <v>29</v>
       </c>
       <c r="AN72" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP72" t="n">
         <v>34</v>
       </c>
-      <c r="AP72" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ72" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR72" t="n">
         <v>126</v>
       </c>
-      <c r="AR72" t="n">
-        <v>151</v>
-      </c>
       <c r="AS72" t="n">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="AT72" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV72" t="n">
         <v>67</v>
@@ -13619,19 +13619,19 @@
         <v>81</v>
       </c>
       <c r="AY72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AZ72" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="BA72" t="n">
         <v>21</v>
       </c>
       <c r="BB72" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BC72" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BD72" t="n">
         <v>151</v>
@@ -13669,13 +13669,13 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I73" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
@@ -13684,13 +13684,13 @@
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M73" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N73" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O73" t="n">
         <v>1.3</v>
@@ -13711,16 +13711,16 @@
         <v>2.75</v>
       </c>
       <c r="U73" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V73" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W73" t="n">
         <v>11</v>
       </c>
       <c r="X73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y73" t="n">
         <v>13</v>
@@ -13732,13 +13732,13 @@
         <v>29</v>
       </c>
       <c r="AB73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC73" t="n">
         <v>10</v>
       </c>
       <c r="AD73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -13747,19 +13747,19 @@
         <v>51</v>
       </c>
       <c r="AG73" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH73" t="n">
         <v>7.5</v>
       </c>
       <c r="AI73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ73" t="n">
         <v>9</v>
       </c>
       <c r="AK73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL73" t="n">
         <v>17</v>
@@ -13771,7 +13771,7 @@
         <v>5.5</v>
       </c>
       <c r="AO73" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP73" t="n">
         <v>29</v>
@@ -13804,13 +13804,13 @@
         <v>4</v>
       </c>
       <c r="AZ73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA73" t="n">
         <v>21</v>
       </c>
       <c r="BB73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC73" t="n">
         <v>51</v>
@@ -13857,34 +13857,34 @@
         <v>3.15</v>
       </c>
       <c r="I74" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J74" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="K74" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="O74" t="n">
         <v>1.3</v>
       </c>
       <c r="P74" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R74" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S74" t="n">
         <v>1.42</v>
@@ -13899,10 +13899,10 @@
         <v>2.05</v>
       </c>
       <c r="W74" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="X74" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y74" t="n">
         <v>8.5</v>
@@ -13911,19 +13911,19 @@
         <v>21</v>
       </c>
       <c r="AA74" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AD74" t="n">
         <v>6.1</v>
       </c>
       <c r="AE74" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF74" t="n">
         <v>55</v>
@@ -13932,37 +13932,37 @@
         <v>400</v>
       </c>
       <c r="AH74" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AI74" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AJ74" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK74" t="n">
         <v>50</v>
       </c>
       <c r="AL74" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM74" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN74" t="n">
         <v>4.05</v>
       </c>
       <c r="AO74" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ74" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR74" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS74" t="n">
         <v>250</v>
@@ -13986,19 +13986,19 @@
         <v>5.3</v>
       </c>
       <c r="AZ74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA74" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB74" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC74" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD74" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
@@ -14033,28 +14033,28 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H75" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I75" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="J75" t="n">
         <v>2.42</v>
       </c>
       <c r="K75" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L75" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M75" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="O75" t="n">
         <v>1.32</v>
@@ -14063,7 +14063,7 @@
         <v>3.1</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
         <v>1.78</v>
@@ -14072,58 +14072,58 @@
         <v>1.38</v>
       </c>
       <c r="T75" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="U75" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V75" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W75" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X75" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y75" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z75" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA75" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA75" t="n">
-        <v>15</v>
-      </c>
       <c r="AB75" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC75" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD75" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AE75" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG75" t="n">
         <v>600</v>
       </c>
       <c r="AH75" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AI75" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ75" t="n">
         <v>13</v>
       </c>
       <c r="AK75" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL75" t="n">
         <v>37</v>
@@ -14132,31 +14132,31 @@
         <v>45</v>
       </c>
       <c r="AN75" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO75" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AP75" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ75" t="n">
         <v>32</v>
       </c>
       <c r="AR75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS75" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AU75" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AV75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW75" t="n">
         <v>51</v>
@@ -14165,22 +14165,22 @@
         <v>51</v>
       </c>
       <c r="AY75" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AZ75" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA75" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB75" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC75" t="n">
         <v>150</v>
       </c>
       <c r="BD75" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="76">
@@ -14221,7 +14221,7 @@
         <v>2.75</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J76" t="n">
         <v>3.75</v>
@@ -14233,10 +14233,10 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N76" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O76" t="n">
         <v>1.62</v>
@@ -14579,22 +14579,22 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H78" t="n">
         <v>3.75</v>
       </c>
       <c r="I78" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="J78" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="K78" t="n">
         <v>2.27</v>
       </c>
       <c r="L78" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -14606,7 +14606,7 @@
         <v>1.21</v>
       </c>
       <c r="P78" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q78" t="n">
         <v>1.65</v>
@@ -14624,25 +14624,25 @@
         <v>1.6</v>
       </c>
       <c r="V78" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W78" t="n">
         <v>9</v>
       </c>
       <c r="X78" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z78" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA78" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC78" t="n">
         <v>8.5</v>
@@ -14654,25 +14654,25 @@
         <v>13</v>
       </c>
       <c r="AF78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG78" t="n">
         <v>300</v>
       </c>
       <c r="AH78" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ78" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AI78" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ78" t="n">
-        <v>12</v>
       </c>
       <c r="AK78" t="n">
         <v>50</v>
       </c>
       <c r="AL78" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM78" t="n">
         <v>30</v>
@@ -14681,13 +14681,13 @@
         <v>3.95</v>
       </c>
       <c r="AO78" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ78" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR78" t="n">
         <v>55</v>
@@ -14699,10 +14699,10 @@
         <v>3.05</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV78" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW78" t="n">
         <v>51</v>
@@ -14711,10 +14711,10 @@
         <v>51</v>
       </c>
       <c r="AY78" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AZ78" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA78" t="n">
         <v>23</v>
@@ -14761,106 +14761,106 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H79" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I79" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="J79" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K79" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L79" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="M79" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N79" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="O79" t="n">
         <v>1.26</v>
       </c>
       <c r="P79" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="n">
         <v>1.8</v>
       </c>
       <c r="R79" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S79" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T79" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="U79" t="n">
         <v>1.62</v>
       </c>
       <c r="V79" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W79" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X79" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y79" t="n">
         <v>10.75</v>
       </c>
       <c r="Z79" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA79" t="n">
         <v>25</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC79" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE79" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF79" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG79" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI79" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>8.75</v>
       </c>
       <c r="AK79" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL79" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM79" t="n">
         <v>24</v>
       </c>
       <c r="AN79" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO79" t="n">
         <v>17</v>
@@ -14878,10 +14878,10 @@
         <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV79" t="n">
         <v>55</v>
@@ -14893,19 +14893,19 @@
         <v>51</v>
       </c>
       <c r="AY79" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AZ79" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="BA79" t="n">
         <v>19</v>
       </c>
       <c r="BB79" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BC79" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BD79" t="n">
         <v>250</v>
@@ -14943,130 +14943,130 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="H80" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="I80" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="J80" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="K80" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="L80" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W80" t="n">
         <v>8.75</v>
       </c>
-      <c r="O80" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P80" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R80" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S80" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T80" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U80" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V80" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W80" t="n">
+      <c r="X80" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC80" t="n">
         <v>8.5</v>
       </c>
-      <c r="X80" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y80" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z80" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA80" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB80" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC80" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AD80" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AE80" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF80" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK80" t="n">
         <v>55</v>
       </c>
-      <c r="AG80" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH80" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI80" t="n">
+      <c r="AL80" t="n">
         <v>30</v>
       </c>
-      <c r="AJ80" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK80" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL80" t="n">
-        <v>40</v>
-      </c>
       <c r="AM80" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AO80" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AP80" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ80" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AR80" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AS80" t="n">
         <v>175</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AU80" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AV80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW80" t="n">
         <v>51</v>
@@ -15075,22 +15075,22 @@
         <v>51</v>
       </c>
       <c r="AY80" t="n">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="AZ80" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="BA80" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="BB80" t="n">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="BC80" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="BD80" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81">
@@ -15125,124 +15125,124 @@
         </is>
       </c>
       <c r="G81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H81" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N81" t="n">
+        <v>13</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V81" t="n">
         <v>2</v>
       </c>
-      <c r="H81" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K81" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N81" t="n">
-        <v>10</v>
-      </c>
-      <c r="O81" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P81" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R81" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S81" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T81" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U81" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V81" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W81" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X81" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA81" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB81" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC81" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AD81" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE81" t="n">
         <v>15</v>
       </c>
       <c r="AF81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG81" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH81" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI81" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK81" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL81" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM81" t="n">
         <v>41</v>
       </c>
       <c r="AN81" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO81" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ81" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR81" t="n">
         <v>41</v>
       </c>
-      <c r="AR81" t="n">
-        <v>51</v>
-      </c>
       <c r="AS81" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU81" t="n">
         <v>8</v>
@@ -15257,22 +15257,22 @@
         <v>301</v>
       </c>
       <c r="AY81" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AZ81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA81" t="n">
         <v>29</v>
       </c>
       <c r="BB81" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC81" t="n">
         <v>81</v>
       </c>
       <c r="BD81" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="82">
@@ -15331,16 +15331,16 @@
         <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P82" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q82" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R82" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S82" t="n">
         <v>1.4</v>
@@ -15489,13 +15489,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
@@ -15513,16 +15513,16 @@
         <v>8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P83" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R83" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S83" t="n">
         <v>1.5</v>
@@ -15540,7 +15540,7 @@
         <v>5.5</v>
       </c>
       <c r="X83" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -15561,7 +15561,7 @@
         <v>6.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF83" t="n">
         <v>67</v>
@@ -15591,7 +15591,7 @@
         <v>3.6</v>
       </c>
       <c r="AO83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP83" t="n">
         <v>23</v>
@@ -15853,13 +15853,13 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="H85" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I85" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="J85" t="n">
         <v>2.4</v>
@@ -15874,16 +15874,16 @@
         <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>9.15</v>
+        <v>9</v>
       </c>
       <c r="O85" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P85" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R85" t="n">
         <v>1.62</v>
@@ -15901,28 +15901,28 @@
         <v>1.75</v>
       </c>
       <c r="W85" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="X85" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="Y85" t="n">
         <v>8.25</v>
       </c>
       <c r="Z85" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC85" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AD85" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE85" t="n">
         <v>15.5</v>
@@ -15931,40 +15931,40 @@
         <v>80</v>
       </c>
       <c r="AG85" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH85" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AI85" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ85" t="n">
         <v>14.5</v>
       </c>
       <c r="AK85" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL85" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AM85" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN85" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="AO85" t="n">
         <v>9.25</v>
       </c>
       <c r="AP85" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR85" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS85" t="n">
         <v>250</v>
@@ -15976,7 +15976,7 @@
         <v>7</v>
       </c>
       <c r="AV85" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW85" t="n">
         <v>81</v>
@@ -15985,22 +15985,22 @@
         <v>81</v>
       </c>
       <c r="AY85" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AZ85" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA85" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BB85" t="n">
         <v>150</v>
       </c>
       <c r="BC85" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BD85" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86">
@@ -16399,148 +16399,148 @@
         </is>
       </c>
       <c r="G88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I88" t="n">
         <v>2.67</v>
       </c>
-      <c r="H88" t="n">
-        <v>3</v>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P88" t="n">
         <v>2.55</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K88" t="n">
+      <c r="Q88" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U88" t="n">
         <v>1.98</v>
       </c>
-      <c r="L88" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N88" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O88" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P88" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R88" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S88" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T88" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U88" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V88" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W88" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
       <c r="X88" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="Y88" t="n">
         <v>10.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA88" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB88" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AD88" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE88" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG88" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH88" t="n">
         <v>7</v>
       </c>
       <c r="AI88" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AJ88" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK88" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AL88" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM88" t="n">
         <v>40</v>
       </c>
       <c r="AN88" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO88" t="n">
         <v>15</v>
       </c>
       <c r="AP88" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ88" t="n">
         <v>70</v>
       </c>
       <c r="AR88" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS88" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB88" t="n">
         <v>75</v>
-      </c>
-      <c r="AW88" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX88" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY88" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AZ88" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="BA88" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB88" t="n">
-        <v>70</v>
       </c>
       <c r="BC88" t="n">
         <v>120</v>
@@ -16581,97 +16581,97 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="H89" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="I89" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="J89" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="K89" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="L89" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O89" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="P89" t="n">
-        <v>4.55</v>
+        <v>5.2</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="R89" t="n">
-        <v>2.42</v>
+        <v>2.7</v>
       </c>
       <c r="S89" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="T89" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="U89" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V89" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="W89" t="n">
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
       <c r="X89" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y89" t="n">
         <v>9.25</v>
       </c>
       <c r="Z89" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AA89" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AB89" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD89" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF89" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG89" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH89" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI89" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AJ89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK89" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL89" t="n">
         <v>120</v>
@@ -16680,31 +16680,31 @@
         <v>90</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AO89" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AP89" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AR89" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AS89" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="AU89" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV89" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW89" t="n">
         <v>51</v>
@@ -16713,19 +16713,19 @@
         <v>51</v>
       </c>
       <c r="AY89" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AZ89" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA89" t="n">
         <v>50</v>
       </c>
       <c r="BB89" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC89" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD89" t="n">
         <v>51</v>
@@ -16763,40 +16763,40 @@
         </is>
       </c>
       <c r="G90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H90" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L90" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>8</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q90" t="n">
         <v>1.72</v>
       </c>
-      <c r="H90" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I90" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="J90" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="K90" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L90" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N90" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P90" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R90" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S90" t="n">
         <v>1.34</v>
@@ -16811,67 +16811,67 @@
         <v>2.1</v>
       </c>
       <c r="W90" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X90" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y90" t="n">
         <v>8.25</v>
       </c>
       <c r="Z90" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB90" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC90" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG90" t="n">
         <v>350</v>
       </c>
       <c r="AH90" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK90" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM90" t="n">
         <v>35</v>
       </c>
       <c r="AN90" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="AO90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP90" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ90" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AR90" t="n">
         <v>55</v>
@@ -16883,7 +16883,7 @@
         <v>3</v>
       </c>
       <c r="AU90" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AV90" t="n">
         <v>55</v>
@@ -16895,22 +16895,22 @@
         <v>51</v>
       </c>
       <c r="AY90" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="AZ90" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA90" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BB90" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC90" t="n">
         <v>120</v>
       </c>
-      <c r="BC90" t="n">
-        <v>150</v>
-      </c>
       <c r="BD90" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="91">
@@ -16945,22 +16945,22 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="H91" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I91" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J91" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K91" t="n">
         <v>2.27</v>
       </c>
       <c r="L91" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M91" t="n">
         <v>1.05</v>
@@ -16987,28 +16987,28 @@
         <v>2.87</v>
       </c>
       <c r="U91" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V91" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W91" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X91" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="Y91" t="n">
         <v>8.25</v>
       </c>
       <c r="Z91" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AA91" t="n">
         <v>12.5</v>
       </c>
       <c r="AB91" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC91" t="n">
         <v>7.8</v>
@@ -17017,37 +17017,37 @@
         <v>7.9</v>
       </c>
       <c r="AE91" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF91" t="n">
         <v>90</v>
       </c>
       <c r="AG91" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH91" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI91" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AJ91" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK91" t="n">
         <v>100</v>
       </c>
       <c r="AL91" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM91" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN91" t="n">
         <v>3.35</v>
       </c>
       <c r="AO91" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AP91" t="n">
         <v>17.5</v>
@@ -17065,7 +17065,7 @@
         <v>2.87</v>
       </c>
       <c r="AU91" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV91" t="n">
         <v>80</v>
@@ -17077,13 +17077,13 @@
         <v>51</v>
       </c>
       <c r="AY91" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AZ91" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA91" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB91" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H2" t="n">
         <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
         <v>1.67</v>
@@ -762,7 +762,7 @@
         <v>2.75</v>
       </c>
       <c r="L2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -789,10 +789,10 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA2" t="n">
         <v>11</v>
@@ -819,22 +819,22 @@
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>29</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>34</v>
       </c>
       <c r="AK2" t="n">
         <v>151</v>
@@ -855,13 +855,13 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AR2" t="n">
         <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -879,7 +879,7 @@
         <v>151</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ2" t="n">
         <v>41</v>
@@ -944,25 +944,25 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>19</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>1.95</v>
@@ -1165,10 +1165,10 @@
         <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
@@ -1195,10 +1195,10 @@
         <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>81</v>
@@ -1216,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1231,7 +1231,7 @@
         <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1252,13 +1252,13 @@
         <v>41</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
       </c>
       <c r="BD4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1505,43 +1505,43 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,28 +1553,28 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
         <v>15</v>
@@ -1586,16 +1586,16 @@
         <v>51</v>
       </c>
       <c r="AR6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1607,22 +1607,22 @@
         <v>151</v>
       </c>
       <c r="AY6" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BB6" t="n">
         <v>51</v>
       </c>
       <c r="BC6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
         <v>3.75</v>
@@ -1699,10 +1699,10 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1714,10 +1714,10 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB7" t="n">
         <v>51</v>
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1741,7 +1741,7 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
         <v>12</v>
@@ -1756,7 +1756,7 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
         <v>19</v>
@@ -1792,7 +1792,7 @@
         <v>4.5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA7" t="n">
         <v>34</v>
@@ -1801,7 +1801,7 @@
         <v>67</v>
       </c>
       <c r="BC7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD7" t="n">
         <v>401</v>
@@ -1851,40 +1851,40 @@
         <v>2.5</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O8" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="S8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="W8" t="n">
         <v>9.5</v>
@@ -1896,7 +1896,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>14</v>
@@ -1905,10 +1905,10 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1917,13 +1917,13 @@
         <v>45</v>
       </c>
       <c r="AG8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="n">
         <v>11.5</v>
@@ -1932,10 +1932,10 @@
         <v>45</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AN8" t="n">
         <v>4.1</v>
@@ -1956,7 +1956,7 @@
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU8" t="n">
         <v>6.7</v>
@@ -1971,22 +1971,22 @@
         <v>81</v>
       </c>
       <c r="AY8" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -2021,22 +2021,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H9" t="n">
         <v>3.75</v>
       </c>
       <c r="I9" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="K9" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2048,7 +2048,7 @@
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2069,19 +2069,19 @@
         <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB9" t="n">
         <v>21</v>
@@ -2102,31 +2102,31 @@
         <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AI9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
         <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
         <v>35</v>
       </c>
       <c r="AM9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="AO9" t="n">
         <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ9" t="n">
         <v>28</v>
@@ -2153,13 +2153,13 @@
         <v>81</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>120</v>
@@ -2206,10 +2206,10 @@
         <v>1.65</v>
       </c>
       <c r="H10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="J10" t="n">
         <v>2.1</v>
@@ -2218,7 +2218,7 @@
         <v>2.55</v>
       </c>
       <c r="L10" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2233,10 +2233,10 @@
         <v>5.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
         <v>1.23</v>
@@ -2245,7 +2245,7 @@
         <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V10" t="n">
         <v>2.57</v>
@@ -2272,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE10" t="n">
         <v>12.5</v>
@@ -2281,10 +2281,10 @@
         <v>35</v>
       </c>
       <c r="AG10" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>32</v>
@@ -2299,10 +2299,10 @@
         <v>32</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO10" t="n">
         <v>7.8</v>
@@ -2311,13 +2311,13 @@
         <v>12.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
         <v>35</v>
       </c>
       <c r="AS10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AT10" t="n">
         <v>3.75</v>
@@ -2341,10 +2341,10 @@
         <v>21</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC10" t="n">
         <v>90</v>
@@ -2394,13 +2394,13 @@
         <v>1.7</v>
       </c>
       <c r="J11" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="K11" t="n">
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2412,16 +2412,16 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T11" t="n">
         <v>2.92</v>
@@ -2433,7 +2433,7 @@
         <v>2.02</v>
       </c>
       <c r="W11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="X11" t="n">
         <v>27</v>
@@ -2466,7 +2466,7 @@
         <v>400</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AI11" t="n">
         <v>8.5</v>
@@ -2487,16 +2487,16 @@
         <v>6.3</v>
       </c>
       <c r="AO11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR11" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AS11" t="n">
         <v>350</v>
@@ -2505,7 +2505,7 @@
         <v>2.92</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AV11" t="n">
         <v>60</v>
@@ -2526,7 +2526,7 @@
         <v>16.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC11" t="n">
         <v>55</v>
@@ -2576,7 +2576,7 @@
         <v>3.3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K12" t="n">
         <v>2.27</v>
@@ -2588,13 +2588,13 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="Q12" t="n">
         <v>1.62</v>
@@ -2609,10 +2609,10 @@
         <v>3.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V12" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="W12" t="n">
         <v>9.75</v>
@@ -2633,10 +2633,10 @@
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
@@ -2648,13 +2648,13 @@
         <v>250</v>
       </c>
       <c r="AH12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>19.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK12" t="n">
         <v>45</v>
@@ -2669,10 +2669,10 @@
         <v>4.1</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ12" t="n">
         <v>35</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2982,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -3012,10 +3012,10 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -3033,13 +3033,13 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3063,22 +3063,22 @@
         <v>81</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -3373,7 +3373,7 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH16" t="n">
         <v>10</v>
@@ -3683,10 +3683,10 @@
         <v>5.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q18" t="n">
         <v>3.1</v>
@@ -3859,13 +3859,13 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
         <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P19" t="n">
         <v>2.5</v>
@@ -4041,16 +4041,16 @@
         <v>3.4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
         <v>6.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
         <v>2.7</v>
@@ -4223,16 +4223,16 @@
         <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.88</v>
@@ -4387,34 +4387,34 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
         <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q22" t="n">
         <v>2.4</v>
@@ -4435,22 +4435,22 @@
         <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>41</v>
       </c>
       <c r="AA22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC22" t="n">
         <v>7</v>
@@ -4468,16 +4468,16 @@
         <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AL22" t="n">
         <v>19</v>
@@ -4486,22 +4486,22 @@
         <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR22" t="n">
         <v>126</v>
       </c>
       <c r="AS22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT22" t="n">
         <v>2.38</v>
@@ -4519,10 +4519,10 @@
         <v>51</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA22" t="n">
         <v>26</v>
@@ -4534,7 +4534,7 @@
         <v>67</v>
       </c>
       <c r="BD22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
@@ -4569,58 +4569,58 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T23" t="n">
         <v>2.25</v>
       </c>
-      <c r="R23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
         <v>12</v>
@@ -4635,61 +4635,61 @@
         <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL23" t="n">
         <v>23</v>
       </c>
-      <c r="AL23" t="n">
-        <v>21</v>
-      </c>
       <c r="AM23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
         <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV23" t="n">
         <v>67</v>
@@ -4707,7 +4707,7 @@
         <v>15</v>
       </c>
       <c r="BA23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>51</v>
@@ -4716,7 +4716,7 @@
         <v>81</v>
       </c>
       <c r="BD23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
@@ -4760,7 +4760,7 @@
         <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4769,16 +4769,16 @@
         <v>2.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
         <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>2.1</v>
@@ -4793,10 +4793,10 @@
         <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
         <v>9.5</v>
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="Y24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
         <v>41</v>
@@ -4832,16 +4832,16 @@
         <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
         <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>17</v>
@@ -4886,7 +4886,7 @@
         <v>4</v>
       </c>
       <c r="AZ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA24" t="n">
         <v>23</v>
@@ -4945,28 +4945,28 @@
         <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R25" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="n">
         <v>1.33</v>
@@ -4975,10 +4975,10 @@
         <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W25" t="n">
         <v>10</v>
@@ -5011,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -5029,7 +5029,7 @@
         <v>21</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>4.75</v>
@@ -5053,7 +5053,7 @@
         <v>3.25</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
         <v>41</v>
@@ -5297,58 +5297,58 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I27" t="n">
         <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L27" t="n">
         <v>2.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O27" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="S27" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="T27" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="V27" t="n">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W27" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -5357,31 +5357,31 @@
         <v>41</v>
       </c>
       <c r="AA27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF27" t="n">
         <v>29</v>
       </c>
-      <c r="AC27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>34</v>
-      </c>
       <c r="AG27" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
         <v>9</v>
@@ -5390,31 +5390,31 @@
         <v>19</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
         <v>17</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ27" t="n">
         <v>51</v>
       </c>
       <c r="AR27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AU27" t="n">
         <v>7</v>
@@ -5423,28 +5423,28 @@
         <v>41</v>
       </c>
       <c r="AW27" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AX27" t="n">
         <v>151</v>
       </c>
       <c r="AY27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AZ27" t="n">
         <v>10</v>
       </c>
       <c r="BA27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BC27" t="n">
         <v>41</v>
       </c>
       <c r="BD27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
@@ -5479,22 +5479,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5509,10 +5509,10 @@
         <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S28" t="n">
         <v>1.25</v>
@@ -5530,13 +5530,13 @@
         <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
@@ -5548,7 +5548,7 @@
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5560,16 +5560,16 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI28" t="n">
         <v>34</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL28" t="n">
         <v>41</v>
@@ -5599,7 +5599,7 @@
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV28" t="n">
         <v>41</v>
@@ -5614,7 +5614,7 @@
         <v>7.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
         <v>29</v>
@@ -5661,22 +5661,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K29" t="n">
         <v>2.05</v>
       </c>
       <c r="L29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -5703,22 +5703,22 @@
         <v>2.5</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V29" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
         <v>5.5</v>
       </c>
       <c r="X29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA29" t="n">
         <v>15</v>
@@ -5736,7 +5736,7 @@
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG29" t="n">
         <v>201</v>
@@ -5748,7 +5748,7 @@
         <v>29</v>
       </c>
       <c r="AJ29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>67</v>
@@ -5760,10 +5760,10 @@
         <v>51</v>
       </c>
       <c r="AN29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5781,10 +5781,10 @@
         <v>2.5</v>
       </c>
       <c r="AU29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW29" t="n">
         <v>51</v>
@@ -5802,10 +5802,10 @@
         <v>41</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="n">
         <v>351</v>
@@ -5846,10 +5846,10 @@
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -5891,7 +5891,7 @@
         <v>1.91</v>
       </c>
       <c r="W30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -5900,10 +5900,10 @@
         <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
@@ -5915,7 +5915,7 @@
         <v>6</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF30" t="n">
         <v>51</v>
@@ -5924,7 +5924,7 @@
         <v>251</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI30" t="n">
         <v>11</v>
@@ -5936,13 +5936,13 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
         <v>29</v>
       </c>
       <c r="AN30" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO30" t="n">
         <v>17</v>
@@ -5969,7 +5969,7 @@
         <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX30" t="n">
         <v>151</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H31" t="n">
         <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K31" t="n">
         <v>2.38</v>
       </c>
       <c r="L31" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6055,10 +6055,10 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6067,16 +6067,16 @@
         <v>3.4</v>
       </c>
       <c r="U31" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W31" t="n">
         <v>15</v>
       </c>
       <c r="X31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
         <v>13</v>
@@ -6088,7 +6088,7 @@
         <v>29</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC31" t="n">
         <v>15</v>
@@ -6097,16 +6097,16 @@
         <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI31" t="n">
         <v>10</v>
@@ -6115,7 +6115,7 @@
         <v>8.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
@@ -6127,19 +6127,19 @@
         <v>6</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS31" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT31" t="n">
         <v>3.4</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L32" t="n">
         <v>5.5</v>
@@ -6309,7 +6309,7 @@
         <v>3.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP32" t="n">
         <v>29</v>
@@ -6339,7 +6339,7 @@
         <v>81</v>
       </c>
       <c r="AY32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ32" t="n">
         <v>29</v>
@@ -6348,7 +6348,7 @@
         <v>41</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC32" t="n">
         <v>151</v>
@@ -6419,10 +6419,10 @@
         <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
         <v>1.4</v>
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J35" t="n">
         <v>2.4</v>
@@ -6774,7 +6774,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -6789,10 +6789,10 @@
         <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U35" t="n">
         <v>1.91</v>
@@ -6810,7 +6810,7 @@
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
         <v>15</v>
@@ -6819,7 +6819,7 @@
         <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD35" t="n">
         <v>7</v>
@@ -6837,7 +6837,7 @@
         <v>11</v>
       </c>
       <c r="AI35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ35" t="n">
         <v>15</v>
@@ -6870,7 +6870,7 @@
         <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU35" t="n">
         <v>8.5</v>
@@ -6885,10 +6885,10 @@
         <v>81</v>
       </c>
       <c r="AY35" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA35" t="n">
         <v>34</v>
@@ -6897,7 +6897,7 @@
         <v>81</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD35" t="n">
         <v>251</v>
@@ -6935,16 +6935,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>2</v>
@@ -6977,10 +6977,10 @@
         <v>2.5</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V36" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W36" t="n">
         <v>6.5</v>
@@ -6989,7 +6989,7 @@
         <v>10</v>
       </c>
       <c r="Y36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z36" t="n">
         <v>21</v>
@@ -7022,7 +7022,7 @@
         <v>15</v>
       </c>
       <c r="AJ36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK36" t="n">
         <v>34</v>
@@ -7034,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO36" t="n">
         <v>13</v>
@@ -7073,7 +7073,7 @@
         <v>19</v>
       </c>
       <c r="BA36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB36" t="n">
         <v>67</v>
@@ -7117,7 +7117,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
@@ -7126,7 +7126,7 @@
         <v>2.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7141,31 +7141,31 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>12</v>
@@ -7180,7 +7180,7 @@
         <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
         <v>11</v>
@@ -7195,10 +7195,10 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
         <v>15</v>
@@ -7234,7 +7234,7 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU37" t="n">
         <v>7.5</v>
@@ -7299,13 +7299,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H38" t="n">
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J38" t="n">
         <v>2.2</v>
@@ -7314,25 +7314,25 @@
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S38" t="n">
         <v>1.25</v>
@@ -7341,16 +7341,16 @@
         <v>3.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7365,19 +7365,19 @@
         <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
         <v>8</v>
       </c>
       <c r="AE38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH38" t="n">
         <v>19</v>
@@ -7392,10 +7392,10 @@
         <v>51</v>
       </c>
       <c r="AL38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="n">
         <v>4</v>
@@ -7419,13 +7419,13 @@
         <v>3.75</v>
       </c>
       <c r="AU38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV38" t="n">
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX38" t="n">
         <v>81</v>
@@ -7446,7 +7446,7 @@
         <v>67</v>
       </c>
       <c r="BD38" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
@@ -7493,7 +7493,7 @@
         <v>1.91</v>
       </c>
       <c r="K39" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L39" t="n">
         <v>6</v>
@@ -7511,10 +7511,10 @@
         <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R39" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="S39" t="n">
         <v>1.25</v>
@@ -7529,7 +7529,7 @@
         <v>2.1</v>
       </c>
       <c r="W39" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X39" t="n">
         <v>8.5</v>
@@ -7550,7 +7550,7 @@
         <v>19</v>
       </c>
       <c r="AD39" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7562,13 +7562,13 @@
         <v>151</v>
       </c>
       <c r="AH39" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
         <v>67</v>
@@ -7580,7 +7580,7 @@
         <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO39" t="n">
         <v>7</v>
@@ -7589,7 +7589,7 @@
         <v>15</v>
       </c>
       <c r="AQ39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR39" t="n">
         <v>34</v>
@@ -7845,22 +7845,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I41" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K41" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L41" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -7875,10 +7875,10 @@
         <v>4</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R41" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S41" t="n">
         <v>1.33</v>
@@ -7914,22 +7914,22 @@
         <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE41" t="n">
         <v>15</v>
       </c>
       <c r="AF41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG41" t="n">
         <v>201</v>
       </c>
       <c r="AH41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ41" t="n">
         <v>15</v>
@@ -7938,7 +7938,7 @@
         <v>51</v>
       </c>
       <c r="AL41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="n">
         <v>41</v>
@@ -7947,19 +7947,19 @@
         <v>3.75</v>
       </c>
       <c r="AO41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ41" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
       </c>
       <c r="AS41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT41" t="n">
         <v>3.25</v>
@@ -7977,10 +7977,10 @@
         <v>51</v>
       </c>
       <c r="AY41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA41" t="n">
         <v>29</v>
@@ -7992,7 +7992,7 @@
         <v>101</v>
       </c>
       <c r="BD41" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42">
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H42" t="n">
         <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J42" t="n">
         <v>1.91</v>
       </c>
       <c r="K42" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -8051,22 +8051,22 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R42" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
         <v>2.25</v>
@@ -8084,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA42" t="n">
         <v>13</v>
@@ -8114,7 +8114,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK42" t="n">
         <v>101</v>
@@ -8135,16 +8135,16 @@
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS42" t="n">
         <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
         <v>10</v>
@@ -8230,7 +8230,7 @@
         <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O43" t="n">
         <v>1.4</v>
@@ -8239,10 +8239,10 @@
         <v>2.75</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="n">
         <v>1.5</v>
@@ -8251,10 +8251,10 @@
         <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V43" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W43" t="n">
         <v>6</v>
@@ -8275,7 +8275,7 @@
         <v>34</v>
       </c>
       <c r="AC43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
@@ -8305,7 +8305,7 @@
         <v>41</v>
       </c>
       <c r="AM43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN43" t="n">
         <v>3.75</v>
@@ -8317,7 +8317,7 @@
         <v>23</v>
       </c>
       <c r="AQ43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR43" t="n">
         <v>67</v>
@@ -8350,13 +8350,13 @@
         <v>34</v>
       </c>
       <c r="BB43" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC43" t="n">
         <v>126</v>
       </c>
       <c r="BD43" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44">
@@ -8391,22 +8391,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
         <v>1.14</v>
@@ -8433,10 +8433,10 @@
         <v>2.1</v>
       </c>
       <c r="U44" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V44" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W44" t="n">
         <v>6</v>
@@ -8448,7 +8448,7 @@
         <v>12</v>
       </c>
       <c r="Z44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA44" t="n">
         <v>34</v>
@@ -8466,7 +8466,7 @@
         <v>21</v>
       </c>
       <c r="AF44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG44" t="n">
         <v>201</v>
@@ -8475,7 +8475,7 @@
         <v>6</v>
       </c>
       <c r="AI44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ44" t="n">
         <v>12</v>
@@ -8487,10 +8487,10 @@
         <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO44" t="n">
         <v>19</v>
@@ -8505,7 +8505,7 @@
         <v>126</v>
       </c>
       <c r="AS44" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AT44" t="n">
         <v>2.1</v>
@@ -8526,7 +8526,7 @@
         <v>4.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA44" t="n">
         <v>34</v>
@@ -8535,7 +8535,7 @@
         <v>67</v>
       </c>
       <c r="BC44" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD44" t="n">
         <v>401</v>
@@ -8573,19 +8573,19 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="H45" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="I45" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="J45" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="K45" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="L45" t="n">
         <v>1.8</v>
@@ -8600,7 +8600,7 @@
         <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q45" t="n">
         <v>1.62</v>
@@ -8624,28 +8624,28 @@
         <v>17.5</v>
       </c>
       <c r="X45" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB45" t="n">
         <v>37</v>
       </c>
-      <c r="Y45" t="n">
+      <c r="AC45" t="n">
         <v>17</v>
       </c>
-      <c r="Z45" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AD45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF45" t="n">
         <v>45</v>
@@ -8657,43 +8657,43 @@
         <v>7.9</v>
       </c>
       <c r="AI45" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AK45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AL45" t="n">
         <v>8.75</v>
       </c>
       <c r="AM45" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN45" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AO45" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AP45" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ45" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR45" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS45" t="n">
         <v>350</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AU45" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AV45" t="n">
         <v>55</v>
@@ -8705,16 +8705,16 @@
         <v>51</v>
       </c>
       <c r="AY45" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AZ45" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="BA45" t="n">
         <v>13.5</v>
       </c>
       <c r="BB45" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BC45" t="n">
         <v>35</v>
@@ -8755,40 +8755,40 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N46" t="n">
+        <v>13</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P46" t="n">
         <v>3.75</v>
       </c>
-      <c r="I46" t="n">
-        <v>5</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N46" t="n">
-        <v>11</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>1.36</v>
@@ -8797,22 +8797,22 @@
         <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V46" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W46" t="n">
         <v>7</v>
       </c>
       <c r="X46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y46" t="n">
         <v>8.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA46" t="n">
         <v>13</v>
@@ -8824,25 +8824,25 @@
         <v>11</v>
       </c>
       <c r="AD46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH46" t="n">
         <v>15</v>
       </c>
-      <c r="AF46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>13</v>
-      </c>
       <c r="AI46" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK46" t="n">
         <v>51</v>
@@ -8854,16 +8854,16 @@
         <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO46" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP46" t="n">
         <v>19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR46" t="n">
         <v>51</v>
@@ -8875,7 +8875,7 @@
         <v>3</v>
       </c>
       <c r="AU46" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
         <v>51</v>
@@ -8887,22 +8887,22 @@
         <v>126</v>
       </c>
       <c r="AY46" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ46" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA46" t="n">
         <v>34</v>
       </c>
       <c r="BB46" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC46" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD46" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47">
@@ -9119,22 +9119,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H48" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I48" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="J48" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L48" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
@@ -9152,34 +9152,34 @@
         <v>1.57</v>
       </c>
       <c r="R48" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S48" t="n">
         <v>1.29</v>
       </c>
       <c r="T48" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U48" t="n">
         <v>1.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W48" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X48" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="Y48" t="n">
         <v>8.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AA48" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB48" t="n">
         <v>23</v>
@@ -9188,58 +9188,58 @@
         <v>13.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG48" t="n">
         <v>500</v>
       </c>
       <c r="AH48" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK48" t="n">
         <v>150</v>
       </c>
       <c r="AL48" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM48" t="n">
         <v>65</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>55</v>
       </c>
       <c r="AN48" t="n">
         <v>3.3</v>
       </c>
       <c r="AO48" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AP48" t="n">
         <v>15</v>
       </c>
       <c r="AQ48" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AR48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AS48" t="n">
         <v>175</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU48" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AV48" t="n">
         <v>65</v>
@@ -9251,22 +9251,22 @@
         <v>51</v>
       </c>
       <c r="AY48" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AZ48" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BA48" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB48" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC48" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD48" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49">
@@ -9665,19 +9665,19 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H51" t="n">
         <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="J51" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L51" t="n">
         <v>3</v>
@@ -9689,22 +9689,22 @@
         <v>17</v>
       </c>
       <c r="O51" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S51" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U51" t="n">
         <v>1.44</v>
@@ -9716,7 +9716,7 @@
         <v>13</v>
       </c>
       <c r="X51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y51" t="n">
         <v>10</v>
@@ -9725,37 +9725,37 @@
         <v>26</v>
       </c>
       <c r="AA51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB51" t="n">
         <v>21</v>
       </c>
       <c r="AC51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD51" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF51" t="n">
         <v>29</v>
       </c>
       <c r="AG51" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI51" t="n">
         <v>17</v>
       </c>
       <c r="AJ51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK51" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL51" t="n">
         <v>19</v>
@@ -9770,7 +9770,7 @@
         <v>13</v>
       </c>
       <c r="AP51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ51" t="n">
         <v>41</v>
@@ -9779,10 +9779,10 @@
         <v>51</v>
       </c>
       <c r="AS51" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT51" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU51" t="n">
         <v>7</v>
@@ -9791,7 +9791,7 @@
         <v>41</v>
       </c>
       <c r="AW51" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX51" t="n">
         <v>151</v>
@@ -9803,7 +9803,7 @@
         <v>13</v>
       </c>
       <c r="BA51" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB51" t="n">
         <v>41</v>
@@ -9812,7 +9812,7 @@
         <v>51</v>
       </c>
       <c r="BD51" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -9847,55 +9847,55 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L52" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O52" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P52" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="T52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U52" t="n">
         <v>1.33</v>
       </c>
-      <c r="R52" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="T52" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.36</v>
-      </c>
       <c r="V52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X52" t="n">
         <v>15</v>
@@ -9904,34 +9904,34 @@
         <v>9.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC52" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AD52" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AE52" t="n">
         <v>11</v>
       </c>
       <c r="AF52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="n">
         <v>67</v>
       </c>
       <c r="AH52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ52" t="n">
         <v>13</v>
@@ -9940,7 +9940,7 @@
         <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM52" t="n">
         <v>21</v>
@@ -9949,52 +9949,52 @@
         <v>4.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP52" t="n">
         <v>13</v>
       </c>
       <c r="AQ52" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR52" t="n">
         <v>34</v>
       </c>
       <c r="AS52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AT52" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU52" t="n">
         <v>6.5</v>
       </c>
       <c r="AV52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AW52" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AX52" t="n">
         <v>151</v>
       </c>
       <c r="AY52" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA52" t="n">
         <v>17</v>
       </c>
       <c r="BB52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC52" t="n">
         <v>51</v>
       </c>
       <c r="BD52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="J54" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K54" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L54" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10241,16 +10241,16 @@
         <v>6</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R54" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S54" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U54" t="n">
         <v>1.5</v>
@@ -10262,16 +10262,16 @@
         <v>11</v>
       </c>
       <c r="X54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB54" t="n">
         <v>19</v>
@@ -10280,7 +10280,7 @@
         <v>21</v>
       </c>
       <c r="AD54" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE54" t="n">
         <v>13</v>
@@ -10292,46 +10292,46 @@
         <v>101</v>
       </c>
       <c r="AH54" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK54" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM54" t="n">
         <v>29</v>
       </c>
       <c r="AN54" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP54" t="n">
         <v>15</v>
       </c>
       <c r="AQ54" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS54" t="n">
         <v>81</v>
       </c>
       <c r="AT54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV54" t="n">
         <v>41</v>
@@ -10343,22 +10343,22 @@
         <v>151</v>
       </c>
       <c r="AY54" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC54" t="n">
         <v>67</v>
       </c>
       <c r="BD54" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55">
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H55" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I55" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K55" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L55" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10423,10 +10423,10 @@
         <v>4.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S55" t="n">
         <v>1.3</v>
@@ -10444,16 +10444,16 @@
         <v>11</v>
       </c>
       <c r="X55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y55" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z55" t="n">
         <v>21</v>
       </c>
       <c r="AA55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -10471,19 +10471,19 @@
         <v>34</v>
       </c>
       <c r="AG55" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI55" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK55" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL55" t="n">
         <v>21</v>
@@ -10495,13 +10495,13 @@
         <v>4.5</v>
       </c>
       <c r="AO55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP55" t="n">
         <v>19</v>
       </c>
       <c r="AQ55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR55" t="n">
         <v>51</v>
@@ -10525,7 +10525,7 @@
         <v>151</v>
       </c>
       <c r="AY55" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ55" t="n">
         <v>15</v>
@@ -10575,64 +10575,64 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M56" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N56" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P56" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T56" t="n">
+        <v>3</v>
+      </c>
+      <c r="U56" t="n">
         <v>1.67</v>
       </c>
-      <c r="R56" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T56" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U56" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V56" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W56" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y56" t="n">
         <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="n">
         <v>26</v>
@@ -10641,10 +10641,10 @@
         <v>29</v>
       </c>
       <c r="AC56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD56" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE56" t="n">
         <v>13</v>
@@ -10656,7 +10656,7 @@
         <v>151</v>
       </c>
       <c r="AH56" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI56" t="n">
         <v>11</v>
@@ -10665,19 +10665,19 @@
         <v>9</v>
       </c>
       <c r="AK56" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL56" t="n">
         <v>17</v>
       </c>
-      <c r="AL56" t="n">
-        <v>15</v>
-      </c>
       <c r="AM56" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN56" t="n">
         <v>5.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP56" t="n">
         <v>23</v>
@@ -10689,40 +10689,40 @@
         <v>67</v>
       </c>
       <c r="AS56" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
         <v>126</v>
       </c>
       <c r="AX56" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY56" t="n">
         <v>4.33</v>
       </c>
       <c r="AZ56" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA56" t="n">
         <v>19</v>
       </c>
       <c r="BB56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC56" t="n">
         <v>51</v>
       </c>
       <c r="BD56" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -10760,16 +10760,16 @@
         <v>4.5</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I57" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J57" t="n">
         <v>4.5</v>
       </c>
       <c r="K57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L57" t="n">
         <v>2.2</v>
@@ -10778,19 +10778,19 @@
         <v>1.03</v>
       </c>
       <c r="N57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O57" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P57" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R57" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S57" t="n">
         <v>1.29</v>
@@ -10823,7 +10823,7 @@
         <v>34</v>
       </c>
       <c r="AC57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD57" t="n">
         <v>8</v>
@@ -10838,10 +10838,10 @@
         <v>126</v>
       </c>
       <c r="AH57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ57" t="n">
         <v>8.5</v>
@@ -10853,7 +10853,7 @@
         <v>12</v>
       </c>
       <c r="AM57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN57" t="n">
         <v>6.5</v>
@@ -10862,7 +10862,7 @@
         <v>21</v>
       </c>
       <c r="AP57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ57" t="n">
         <v>67</v>
@@ -10871,7 +10871,7 @@
         <v>81</v>
       </c>
       <c r="AS57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT57" t="n">
         <v>3.5</v>
@@ -10895,16 +10895,16 @@
         <v>8.5</v>
       </c>
       <c r="BA57" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB57" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC57" t="n">
         <v>41</v>
       </c>
       <c r="BD57" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
@@ -10939,61 +10939,61 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H58" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I58" t="n">
         <v>2.1</v>
       </c>
       <c r="J58" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L58" t="n">
         <v>2.63</v>
       </c>
       <c r="M58" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N58" t="n">
+        <v>17</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W58" t="n">
+        <v>15</v>
+      </c>
+      <c r="X58" t="n">
         <v>19</v>
       </c>
-      <c r="O58" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P58" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V58" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W58" t="n">
-        <v>17</v>
-      </c>
-      <c r="X58" t="n">
-        <v>21</v>
-      </c>
       <c r="Y58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z58" t="n">
         <v>34</v>
@@ -11002,31 +11002,31 @@
         <v>21</v>
       </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC58" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE58" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH58" t="n">
         <v>11</v>
       </c>
-      <c r="AF58" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG58" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH58" t="n">
+      <c r="AI58" t="n">
         <v>13</v>
       </c>
-      <c r="AI58" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ58" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK58" t="n">
         <v>21</v>
@@ -11035,7 +11035,7 @@
         <v>15</v>
       </c>
       <c r="AM58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN58" t="n">
         <v>5.5</v>
@@ -11044,19 +11044,19 @@
         <v>15</v>
       </c>
       <c r="AP58" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR58" t="n">
         <v>51</v>
       </c>
       <c r="AS58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU58" t="n">
         <v>7</v>
@@ -11065,19 +11065,19 @@
         <v>41</v>
       </c>
       <c r="AW58" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AX58" t="n">
         <v>151</v>
       </c>
       <c r="AY58" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AZ58" t="n">
         <v>11</v>
       </c>
       <c r="BA58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB58" t="n">
         <v>34</v>
@@ -11086,7 +11086,7 @@
         <v>41</v>
       </c>
       <c r="BD58" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
@@ -11124,109 +11124,109 @@
         <v>2.63</v>
       </c>
       <c r="H59" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
         <v>2.45</v>
       </c>
       <c r="J59" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L59" t="n">
         <v>3.1</v>
       </c>
-      <c r="K59" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3</v>
-      </c>
       <c r="M59" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U59" t="n">
         <v>1.57</v>
       </c>
-      <c r="R59" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S59" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T59" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U59" t="n">
-        <v>1.44</v>
-      </c>
       <c r="V59" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W59" t="n">
+        <v>11</v>
+      </c>
+      <c r="X59" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC59" t="n">
         <v>13</v>
-      </c>
-      <c r="X59" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y59" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>17</v>
       </c>
       <c r="AD59" t="n">
         <v>7</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF59" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG59" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH59" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI59" t="n">
         <v>13</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>15</v>
       </c>
       <c r="AJ59" t="n">
         <v>10</v>
       </c>
       <c r="AK59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL59" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM59" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP59" t="n">
         <v>21</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>19</v>
       </c>
       <c r="AQ59" t="n">
         <v>41</v>
@@ -11235,22 +11235,22 @@
         <v>51</v>
       </c>
       <c r="AS59" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU59" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV59" t="n">
         <v>41</v>
       </c>
       <c r="AW59" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX59" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY59" t="n">
         <v>4.75</v>
@@ -11259,7 +11259,7 @@
         <v>13</v>
       </c>
       <c r="BA59" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB59" t="n">
         <v>41</v>
@@ -11268,7 +11268,7 @@
         <v>51</v>
       </c>
       <c r="BD59" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60">
@@ -11318,13 +11318,13 @@
         <v>2.4</v>
       </c>
       <c r="L60" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M60" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O60" t="n">
         <v>1.14</v>
@@ -11333,16 +11333,16 @@
         <v>5.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S60" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U60" t="n">
         <v>1.44</v>
@@ -11366,10 +11366,10 @@
         <v>15</v>
       </c>
       <c r="AB60" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC60" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD60" t="n">
         <v>7.5</v>
@@ -11378,7 +11378,7 @@
         <v>11</v>
       </c>
       <c r="AF60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG60" t="n">
         <v>101</v>
@@ -11420,7 +11420,7 @@
         <v>81</v>
       </c>
       <c r="AT60" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU60" t="n">
         <v>7</v>
@@ -11485,28 +11485,28 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H61" t="n">
         <v>3.1</v>
       </c>
       <c r="I61" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J61" t="n">
         <v>3</v>
       </c>
-      <c r="J61" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K61" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M61" t="n">
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -11533,16 +11533,16 @@
         <v>1.8</v>
       </c>
       <c r="W61" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y61" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA61" t="n">
         <v>21</v>
@@ -11551,13 +11551,13 @@
         <v>34</v>
       </c>
       <c r="AC61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD61" t="n">
         <v>6</v>
       </c>
       <c r="AE61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF61" t="n">
         <v>51</v>
@@ -11578,7 +11578,7 @@
         <v>34</v>
       </c>
       <c r="AL61" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM61" t="n">
         <v>41</v>
@@ -11593,7 +11593,7 @@
         <v>26</v>
       </c>
       <c r="AQ61" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR61" t="n">
         <v>67</v>
@@ -11620,16 +11620,16 @@
         <v>5</v>
       </c>
       <c r="AZ61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA61" t="n">
         <v>29</v>
       </c>
       <c r="BB61" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC61" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD61" t="n">
         <v>251</v>
@@ -11667,16 +11667,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H62" t="n">
         <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J62" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K62" t="n">
         <v>2.05</v>
@@ -11703,10 +11703,10 @@
         <v>1.62</v>
       </c>
       <c r="S62" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U62" t="n">
         <v>2</v>
@@ -11718,7 +11718,7 @@
         <v>10</v>
       </c>
       <c r="X62" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y62" t="n">
         <v>15</v>
@@ -11727,7 +11727,7 @@
         <v>41</v>
       </c>
       <c r="AA62" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB62" t="n">
         <v>41</v>
@@ -11742,22 +11742,22 @@
         <v>17</v>
       </c>
       <c r="AF62" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG62" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH62" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI62" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ62" t="n">
         <v>9</v>
       </c>
       <c r="AK62" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL62" t="n">
         <v>17</v>
@@ -11778,13 +11778,13 @@
         <v>81</v>
       </c>
       <c r="AR62" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS62" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU62" t="n">
         <v>8.5</v>
@@ -11849,28 +11849,28 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H63" t="n">
         <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="J63" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K63" t="n">
         <v>2.1</v>
       </c>
       <c r="L63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M63" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O63" t="n">
         <v>1.29</v>
@@ -11897,19 +11897,19 @@
         <v>2</v>
       </c>
       <c r="W63" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y63" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z63" t="n">
         <v>29</v>
       </c>
       <c r="AA63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB63" t="n">
         <v>29</v>
@@ -11930,16 +11930,16 @@
         <v>201</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ63" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL63" t="n">
         <v>21</v>
@@ -11969,7 +11969,7 @@
         <v>2.75</v>
       </c>
       <c r="AU63" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -11984,13 +11984,13 @@
         <v>4.5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA63" t="n">
         <v>23</v>
       </c>
       <c r="BB63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC63" t="n">
         <v>67</v>
@@ -12031,22 +12031,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J64" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K64" t="n">
         <v>2.2</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
@@ -12067,10 +12067,10 @@
         <v>1.98</v>
       </c>
       <c r="S64" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T64" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U64" t="n">
         <v>1.75</v>
@@ -12079,7 +12079,7 @@
         <v>2</v>
       </c>
       <c r="W64" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X64" t="n">
         <v>9.5</v>
@@ -12094,28 +12094,28 @@
         <v>15</v>
       </c>
       <c r="AB64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC64" t="n">
         <v>11</v>
       </c>
       <c r="AD64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE64" t="n">
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG64" t="n">
         <v>201</v>
       </c>
       <c r="AH64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ64" t="n">
         <v>13</v>
@@ -12133,7 +12133,7 @@
         <v>4</v>
       </c>
       <c r="AO64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP64" t="n">
         <v>21</v>
@@ -12145,10 +12145,10 @@
         <v>51</v>
       </c>
       <c r="AS64" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT64" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU64" t="n">
         <v>8</v>
@@ -12178,7 +12178,7 @@
         <v>81</v>
       </c>
       <c r="BD64" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65">
@@ -12395,16 +12395,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H66" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K66" t="n">
         <v>2.38</v>
@@ -12425,10 +12425,10 @@
         <v>4</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R66" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S66" t="n">
         <v>1.33</v>
@@ -12446,13 +12446,13 @@
         <v>8</v>
       </c>
       <c r="X66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y66" t="n">
         <v>8.5</v>
       </c>
       <c r="Z66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA66" t="n">
         <v>13</v>
@@ -12464,13 +12464,13 @@
         <v>13</v>
       </c>
       <c r="AD66" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE66" t="n">
         <v>15</v>
       </c>
       <c r="AF66" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG66" t="n">
         <v>201</v>
@@ -12479,16 +12479,16 @@
         <v>15</v>
       </c>
       <c r="AI66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ66" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK66" t="n">
         <v>51</v>
       </c>
       <c r="AL66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM66" t="n">
         <v>41</v>
@@ -12497,13 +12497,13 @@
         <v>3.75</v>
       </c>
       <c r="AO66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP66" t="n">
         <v>17</v>
       </c>
       <c r="AQ66" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR66" t="n">
         <v>41</v>
@@ -12527,10 +12527,10 @@
         <v>81</v>
       </c>
       <c r="AY66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ66" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA66" t="n">
         <v>29</v>
@@ -12577,13 +12577,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H67" t="n">
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J67" t="n">
         <v>3.75</v>
@@ -12595,10 +12595,10 @@
         <v>3.4</v>
       </c>
       <c r="M67" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N67" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O67" t="n">
         <v>1.5</v>
@@ -12607,10 +12607,10 @@
         <v>2.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R67" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S67" t="n">
         <v>1.57</v>
@@ -12619,13 +12619,13 @@
         <v>2.25</v>
       </c>
       <c r="U67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V67" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W67" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X67" t="n">
         <v>13</v>
@@ -12634,7 +12634,7 @@
         <v>12</v>
       </c>
       <c r="Z67" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA67" t="n">
         <v>29</v>
@@ -12670,7 +12670,7 @@
         <v>26</v>
       </c>
       <c r="AL67" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM67" t="n">
         <v>41</v>
@@ -12709,10 +12709,10 @@
         <v>126</v>
       </c>
       <c r="AY67" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AZ67" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA67" t="n">
         <v>29</v>
@@ -12724,7 +12724,7 @@
         <v>81</v>
       </c>
       <c r="BD67" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="68">
@@ -12765,13 +12765,13 @@
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J68" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K68" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L68" t="n">
         <v>3.6</v>
@@ -12789,10 +12789,10 @@
         <v>3.25</v>
       </c>
       <c r="Q68" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R68" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S68" t="n">
         <v>1.44</v>
@@ -12801,13 +12801,13 @@
         <v>2.63</v>
       </c>
       <c r="U68" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V68" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W68" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X68" t="n">
         <v>11</v>
@@ -12822,10 +12822,10 @@
         <v>21</v>
       </c>
       <c r="AB68" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC68" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD68" t="n">
         <v>6</v>
@@ -12837,10 +12837,10 @@
         <v>51</v>
       </c>
       <c r="AG68" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI68" t="n">
         <v>15</v>
@@ -12852,34 +12852,34 @@
         <v>29</v>
       </c>
       <c r="AL68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM68" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN68" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO68" t="n">
         <v>13</v>
       </c>
       <c r="AP68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ68" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR68" t="n">
         <v>67</v>
       </c>
       <c r="AS68" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT68" t="n">
         <v>2.63</v>
       </c>
       <c r="AU68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV68" t="n">
         <v>51</v>
@@ -12897,7 +12897,7 @@
         <v>17</v>
       </c>
       <c r="BA68" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB68" t="n">
         <v>51</v>
@@ -13123,13 +13123,13 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H70" t="n">
         <v>3.25</v>
       </c>
       <c r="I70" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J70" t="n">
         <v>2.63</v>
@@ -13147,22 +13147,22 @@
         <v>10</v>
       </c>
       <c r="O70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P70" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R70" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S70" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U70" t="n">
         <v>1.83</v>
@@ -13174,7 +13174,7 @@
         <v>7</v>
       </c>
       <c r="X70" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y70" t="n">
         <v>9</v>
@@ -13201,10 +13201,10 @@
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI70" t="n">
         <v>19</v>
@@ -13216,7 +13216,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM70" t="n">
         <v>41</v>
@@ -13240,7 +13240,7 @@
         <v>151</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU70" t="n">
         <v>8</v>
@@ -13267,7 +13267,7 @@
         <v>67</v>
       </c>
       <c r="BC70" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD70" t="n">
         <v>201</v>
@@ -13305,52 +13305,52 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H71" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I71" t="n">
         <v>2.8</v>
       </c>
       <c r="J71" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P71" t="n">
         <v>3.25</v>
       </c>
-      <c r="M71" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N71" t="n">
-        <v>8</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P71" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Q71" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R71" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U71" t="n">
         <v>1.8</v>
       </c>
-      <c r="S71" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T71" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U71" t="n">
-        <v>1.73</v>
-      </c>
       <c r="V71" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W71" t="n">
         <v>8.5</v>
@@ -13365,31 +13365,31 @@
         <v>23</v>
       </c>
       <c r="AA71" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB71" t="n">
         <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE71" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI71" t="n">
         <v>13</v>
-      </c>
-      <c r="AF71" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH71" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI71" t="n">
-        <v>15</v>
       </c>
       <c r="AJ71" t="n">
         <v>11</v>
@@ -13401,7 +13401,7 @@
         <v>23</v>
       </c>
       <c r="AM71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN71" t="n">
         <v>4.5</v>
@@ -13416,13 +13416,13 @@
         <v>41</v>
       </c>
       <c r="AR71" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS71" t="n">
         <v>151</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU71" t="n">
         <v>8</v>
@@ -13437,13 +13437,13 @@
         <v>81</v>
       </c>
       <c r="AY71" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ71" t="n">
         <v>15</v>
       </c>
       <c r="BA71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB71" t="n">
         <v>51</v>
@@ -13487,130 +13487,130 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H72" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I72" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="J72" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="K72" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L72" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S72" t="n">
         <v>1.33</v>
       </c>
-      <c r="P72" t="n">
+      <c r="T72" t="n">
         <v>3.25</v>
       </c>
-      <c r="Q72" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S72" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T72" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U72" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V72" t="n">
         <v>2</v>
       </c>
-      <c r="V72" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W72" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X72" t="n">
         <v>21</v>
       </c>
       <c r="Y72" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE72" t="n">
         <v>15</v>
       </c>
-      <c r="Z72" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA72" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC72" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE72" t="n">
-        <v>19</v>
-      </c>
       <c r="AF72" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ72" t="n">
         <v>67</v>
       </c>
-      <c r="AG72" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH72" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI72" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ72" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK72" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL72" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM72" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN72" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AO72" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP72" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ72" t="n">
+      <c r="AR72" t="n">
         <v>81</v>
       </c>
-      <c r="AR72" t="n">
-        <v>126</v>
-      </c>
       <c r="AS72" t="n">
-        <v>450</v>
+        <v>151</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU72" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV72" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW72" t="n">
         <v>81</v>
@@ -13619,22 +13619,22 @@
         <v>81</v>
       </c>
       <c r="AY72" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AZ72" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BA72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB72" t="n">
         <v>29</v>
       </c>
       <c r="BC72" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BD72" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73">
@@ -13669,58 +13669,58 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J73" t="n">
         <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L73" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M73" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N73" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P73" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="R73" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S73" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T73" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U73" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V73" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W73" t="n">
         <v>11</v>
       </c>
       <c r="X73" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y73" t="n">
         <v>13</v>
@@ -13735,10 +13735,10 @@
         <v>34</v>
       </c>
       <c r="AC73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD73" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -13747,10 +13747,10 @@
         <v>51</v>
       </c>
       <c r="AG73" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH73" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI73" t="n">
         <v>9.5</v>
@@ -13762,10 +13762,10 @@
         <v>17</v>
       </c>
       <c r="AL73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN73" t="n">
         <v>5.5</v>
@@ -13774,10 +13774,10 @@
         <v>19</v>
       </c>
       <c r="AP73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ73" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR73" t="n">
         <v>81</v>
@@ -13786,7 +13786,7 @@
         <v>151</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU73" t="n">
         <v>8</v>
@@ -13810,13 +13810,13 @@
         <v>21</v>
       </c>
       <c r="BB73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC73" t="n">
         <v>51</v>
       </c>
       <c r="BD73" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74">
@@ -13851,130 +13851,130 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="H74" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I74" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.72</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
         <v>2.05</v>
       </c>
       <c r="L74" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="M74" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="O74" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P74" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="R74" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S74" t="n">
         <v>1.42</v>
       </c>
       <c r="T74" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U74" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="V74" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="W74" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="X74" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z74" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA74" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB74" t="n">
         <v>25</v>
       </c>
       <c r="AC74" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE74" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AF74" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG74" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AH74" t="n">
         <v>10.25</v>
       </c>
       <c r="AI74" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AJ74" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="AK74" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL74" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="AM74" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="AO74" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="AP74" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AQ74" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AR74" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS74" t="n">
         <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU74" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AV74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW74" t="n">
         <v>51</v>
@@ -13983,22 +13983,22 @@
         <v>51</v>
       </c>
       <c r="AY74" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AZ74" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="BA74" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BB74" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC74" t="n">
         <v>100</v>
       </c>
-      <c r="BC74" t="n">
-        <v>150</v>
-      </c>
       <c r="BD74" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75">
@@ -14215,13 +14215,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>2.75</v>
       </c>
       <c r="I76" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J76" t="n">
         <v>3.75</v>
@@ -14233,10 +14233,10 @@
         <v>3.75</v>
       </c>
       <c r="M76" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O76" t="n">
         <v>1.62</v>
@@ -14263,7 +14263,7 @@
         <v>1.53</v>
       </c>
       <c r="W76" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X76" t="n">
         <v>12</v>
@@ -14275,7 +14275,7 @@
         <v>29</v>
       </c>
       <c r="AA76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB76" t="n">
         <v>51</v>
@@ -14296,7 +14296,7 @@
         <v>201</v>
       </c>
       <c r="AH76" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI76" t="n">
         <v>12</v>
@@ -14308,16 +14308,16 @@
         <v>29</v>
       </c>
       <c r="AL76" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM76" t="n">
         <v>51</v>
       </c>
       <c r="AN76" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO76" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP76" t="n">
         <v>34</v>
@@ -14326,7 +14326,7 @@
         <v>67</v>
       </c>
       <c r="AR76" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS76" t="n">
         <v>351</v>
@@ -14347,10 +14347,10 @@
         <v>81</v>
       </c>
       <c r="AY76" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AZ76" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA76" t="n">
         <v>34</v>
@@ -14359,7 +14359,7 @@
         <v>67</v>
       </c>
       <c r="BC76" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD76" t="n">
         <v>351</v>
@@ -14397,28 +14397,28 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J77" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K77" t="n">
         <v>2.6</v>
       </c>
       <c r="L77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M77" t="n">
         <v>1.03</v>
       </c>
       <c r="N77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O77" t="n">
         <v>1.17</v>
@@ -14445,13 +14445,13 @@
         <v>1.91</v>
       </c>
       <c r="W77" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X77" t="n">
         <v>7</v>
       </c>
       <c r="Y77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z77" t="n">
         <v>9</v>
@@ -14466,7 +14466,7 @@
         <v>15</v>
       </c>
       <c r="AD77" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE77" t="n">
         <v>19</v>
@@ -14475,7 +14475,7 @@
         <v>51</v>
       </c>
       <c r="AG77" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH77" t="n">
         <v>21</v>
@@ -14487,7 +14487,7 @@
         <v>23</v>
       </c>
       <c r="AK77" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="n">
         <v>51</v>
@@ -14499,7 +14499,7 @@
         <v>3.4</v>
       </c>
       <c r="AO77" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AP77" t="n">
         <v>17</v>
@@ -14517,13 +14517,13 @@
         <v>3.5</v>
       </c>
       <c r="AU77" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV77" t="n">
         <v>51</v>
       </c>
       <c r="AW77" t="n">
-        <v>126</v>
+        <v>501</v>
       </c>
       <c r="AX77" t="n">
         <v>151</v>
@@ -14770,13 +14770,13 @@
         <v>2.22</v>
       </c>
       <c r="J79" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K79" t="n">
         <v>2.07</v>
       </c>
       <c r="L79" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
@@ -14785,7 +14785,7 @@
         <v>7.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P79" t="n">
         <v>3.45</v>
@@ -14800,7 +14800,7 @@
         <v>1.4</v>
       </c>
       <c r="T79" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U79" t="n">
         <v>1.62</v>
@@ -14809,10 +14809,10 @@
         <v>2.18</v>
       </c>
       <c r="W79" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="X79" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y79" t="n">
         <v>10.75</v>
@@ -14821,10 +14821,10 @@
         <v>45</v>
       </c>
       <c r="AA79" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AC79" t="n">
         <v>7.5</v>
@@ -14842,43 +14842,43 @@
         <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI79" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ79" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK79" t="n">
         <v>23</v>
       </c>
       <c r="AL79" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN79" t="n">
         <v>5.2</v>
       </c>
       <c r="AO79" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ79" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR79" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS79" t="n">
         <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU79" t="n">
         <v>6.6</v>
@@ -14896,19 +14896,19 @@
         <v>4.25</v>
       </c>
       <c r="AZ79" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="BA79" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB79" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BC79" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BD79" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -14943,40 +14943,40 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="H80" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I80" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="J80" t="n">
-        <v>2.37</v>
+        <v>2.55</v>
       </c>
       <c r="K80" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O80" t="n">
         <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R80" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="S80" t="n">
         <v>1.33</v>
@@ -14985,37 +14985,37 @@
         <v>3.05</v>
       </c>
       <c r="U80" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V80" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W80" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X80" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="Y80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB80" t="n">
         <v>22</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE80" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF80" t="n">
         <v>50</v>
@@ -15024,37 +15024,37 @@
         <v>300</v>
       </c>
       <c r="AH80" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AI80" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ80" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK80" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AL80" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AM80" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN80" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="AO80" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP80" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AR80" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS80" t="n">
         <v>175</v>
@@ -15063,7 +15063,7 @@
         <v>3.05</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV80" t="n">
         <v>50</v>
@@ -15075,19 +15075,19 @@
         <v>51</v>
       </c>
       <c r="AY80" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="AZ80" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="BA80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB80" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC80" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD80" t="n">
         <v>250</v>
@@ -15131,7 +15131,7 @@
         <v>3.8</v>
       </c>
       <c r="I81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J81" t="n">
         <v>2.3</v>
@@ -15140,13 +15140,13 @@
         <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O81" t="n">
         <v>1.22</v>
@@ -15155,10 +15155,10 @@
         <v>4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R81" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S81" t="n">
         <v>1.33</v>
@@ -15176,13 +15176,13 @@
         <v>8</v>
       </c>
       <c r="X81" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA81" t="n">
         <v>13</v>
@@ -15191,7 +15191,7 @@
         <v>23</v>
       </c>
       <c r="AC81" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD81" t="n">
         <v>7.5</v>
@@ -15215,13 +15215,13 @@
         <v>15</v>
       </c>
       <c r="AK81" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL81" t="n">
         <v>34</v>
       </c>
       <c r="AM81" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN81" t="n">
         <v>3.75</v>
@@ -15239,7 +15239,7 @@
         <v>41</v>
       </c>
       <c r="AS81" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT81" t="n">
         <v>3.25</v>
@@ -15266,7 +15266,7 @@
         <v>29</v>
       </c>
       <c r="BB81" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC81" t="n">
         <v>81</v>
@@ -15507,22 +15507,22 @@
         <v>5.5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P83" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R83" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S83" t="n">
         <v>1.5</v>
@@ -15564,7 +15564,7 @@
         <v>21</v>
       </c>
       <c r="AF83" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG83" t="n">
         <v>351</v>
@@ -15671,130 +15671,130 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.62</v>
+        <v>2.67</v>
       </c>
       <c r="H84" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I84" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="J84" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K84" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="L84" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="M84" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N84" t="n">
-        <v>7.4</v>
+        <v>6.45</v>
       </c>
       <c r="O84" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="P84" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.32</v>
+        <v>2.47</v>
       </c>
       <c r="R84" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="S84" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="T84" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="U84" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V84" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="W84" t="n">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="X84" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y84" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z84" t="n">
         <v>32</v>
       </c>
       <c r="AA84" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AB84" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC84" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="AD84" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AE84" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF84" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG84" t="n">
         <v>900</v>
       </c>
       <c r="AH84" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AI84" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ84" t="n">
         <v>11</v>
       </c>
       <c r="AK84" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL84" t="n">
         <v>32</v>
       </c>
       <c r="AM84" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AN84" t="n">
         <v>4.35</v>
       </c>
       <c r="AO84" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AQ84" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AR84" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AS84" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU84" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AV84" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW84" t="n">
         <v>81</v>
@@ -15806,10 +15806,10 @@
         <v>4.65</v>
       </c>
       <c r="AZ84" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA84" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BB84" t="n">
         <v>90</v>
@@ -15818,7 +15818,7 @@
         <v>150</v>
       </c>
       <c r="BD84" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85">
@@ -15853,46 +15853,46 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H85" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="I85" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="J85" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="K85" t="n">
         <v>2.02</v>
       </c>
       <c r="L85" t="n">
-        <v>4.75</v>
+        <v>5.1</v>
       </c>
       <c r="M85" t="n">
         <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>9</v>
+        <v>9.65</v>
       </c>
       <c r="O85" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P85" t="n">
-        <v>2.67</v>
+        <v>2.8</v>
       </c>
       <c r="Q85" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R85" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S85" t="n">
         <v>1.42</v>
       </c>
       <c r="T85" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U85" t="n">
         <v>1.85</v>
@@ -15901,67 +15901,67 @@
         <v>1.75</v>
       </c>
       <c r="W85" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X85" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="Y85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z85" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AA85" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB85" t="n">
         <v>29</v>
       </c>
       <c r="AC85" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AD85" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AE85" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF85" t="n">
         <v>80</v>
       </c>
       <c r="AG85" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH85" t="n">
-        <v>10.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI85" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AJ85" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AK85" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AL85" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM85" t="n">
         <v>55</v>
       </c>
       <c r="AN85" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR85" t="n">
         <v>65</v>
@@ -15970,13 +15970,13 @@
         <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU85" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AV85" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW85" t="n">
         <v>81</v>
@@ -15985,22 +15985,22 @@
         <v>81</v>
       </c>
       <c r="AY85" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AZ85" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA85" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB85" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC85" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD85" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86">
@@ -16035,58 +16035,58 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I86" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L86" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O86" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P86" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q86" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R86" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S86" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T86" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U86" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V86" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W86" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X86" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y86" t="n">
         <v>11</v>
@@ -16095,52 +16095,52 @@
         <v>29</v>
       </c>
       <c r="AA86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH86" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD86" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH86" t="n">
-        <v>8</v>
-      </c>
       <c r="AI86" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK86" t="n">
         <v>23</v>
       </c>
       <c r="AL86" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM86" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO86" t="n">
         <v>15</v>
       </c>
       <c r="AP86" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ86" t="n">
         <v>51</v>
@@ -16149,13 +16149,13 @@
         <v>67</v>
       </c>
       <c r="AS86" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU86" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV86" t="n">
         <v>51</v>
@@ -16173,16 +16173,16 @@
         <v>13</v>
       </c>
       <c r="BA86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB86" t="n">
         <v>41</v>
       </c>
       <c r="BC86" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BD86" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
@@ -16229,43 +16229,43 @@
         <v>2.27</v>
       </c>
       <c r="K87" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L87" t="n">
         <v>4.7</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P87" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R87" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T87" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U87" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V87" t="n">
         <v>1.87</v>
       </c>
       <c r="W87" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X87" t="n">
         <v>7.8</v>
@@ -16283,7 +16283,7 @@
         <v>27</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD87" t="n">
         <v>7.3</v>
@@ -16292,7 +16292,7 @@
         <v>16.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG87" t="n">
         <v>600</v>
@@ -16310,10 +16310,10 @@
         <v>70</v>
       </c>
       <c r="AL87" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="n">
         <v>45</v>
-      </c>
-      <c r="AM87" t="n">
-        <v>50</v>
       </c>
       <c r="AN87" t="n">
         <v>3.55</v>
@@ -16334,7 +16334,7 @@
         <v>250</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU87" t="n">
         <v>7.8</v>
@@ -16399,130 +16399,130 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="H88" t="n">
-        <v>2.95</v>
+        <v>2.82</v>
       </c>
       <c r="I88" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="J88" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K88" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="L88" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M88" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N88" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="O88" t="n">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="P88" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="R88" t="n">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="S88" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="T88" t="n">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="U88" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="V88" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="W88" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="X88" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="Z88" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA88" t="n">
         <v>30</v>
       </c>
-      <c r="AA88" t="n">
-        <v>26</v>
-      </c>
       <c r="AB88" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AC88" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="AD88" t="n">
         <v>5.8</v>
       </c>
       <c r="AE88" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AG88" t="n">
         <v>1000</v>
       </c>
       <c r="AH88" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AI88" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ88" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="AK88" t="n">
         <v>32</v>
       </c>
       <c r="AL88" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM88" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AN88" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="AO88" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP88" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AQ88" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AR88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AS88" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="AU88" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AV88" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AW88" t="n">
         <v>51</v>
@@ -16531,22 +16531,22 @@
         <v>51</v>
       </c>
       <c r="AY88" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AZ88" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="BA88" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BB88" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BC88" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD88" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89">
@@ -16581,130 +16581,130 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H89" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="I89" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J89" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="K89" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="L89" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M89" t="n">
         <v>1.02</v>
       </c>
       <c r="N89" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="O89" t="n">
         <v>1.13</v>
       </c>
       <c r="P89" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="R89" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="S89" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="T89" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="U89" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V89" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W89" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X89" t="n">
         <v>7.3</v>
       </c>
       <c r="Y89" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z89" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA89" t="n">
         <v>10</v>
       </c>
       <c r="AB89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC89" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AD89" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AE89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF89" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG89" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH89" t="n">
         <v>32</v>
       </c>
       <c r="AI89" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ89" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AK89" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AL89" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM89" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AN89" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AO89" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AP89" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ89" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AS89" t="n">
         <v>150</v>
       </c>
       <c r="AT89" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="AU89" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AV89" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW89" t="n">
         <v>51</v>
@@ -16713,22 +16713,22 @@
         <v>51</v>
       </c>
       <c r="AY89" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AZ89" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="BA89" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="BB89" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD89" t="n">
         <v>450</v>
-      </c>
-      <c r="BC89" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD89" t="n">
-        <v>51</v>
       </c>
     </row>
     <row r="90">
@@ -16763,22 +16763,22 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="H90" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I90" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J90" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="K90" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L90" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M90" t="n">
         <v>1.05</v>
@@ -16787,10 +16787,10 @@
         <v>8</v>
       </c>
       <c r="O90" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P90" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q90" t="n">
         <v>1.72</v>
@@ -16799,31 +16799,31 @@
         <v>2.05</v>
       </c>
       <c r="S90" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T90" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="U90" t="n">
         <v>1.65</v>
       </c>
       <c r="V90" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W90" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="X90" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="Y90" t="n">
         <v>8.25</v>
       </c>
       <c r="Z90" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA90" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB90" t="n">
         <v>23</v>
@@ -16832,58 +16832,58 @@
         <v>8</v>
       </c>
       <c r="AD90" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AE90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF90" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG90" t="n">
         <v>350</v>
       </c>
       <c r="AH90" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI90" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK90" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL90" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM90" t="n">
         <v>32</v>
       </c>
-      <c r="AM90" t="n">
+      <c r="AN90" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ90" t="n">
         <v>35</v>
       </c>
-      <c r="AN90" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>30</v>
-      </c>
       <c r="AR90" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS90" t="n">
         <v>200</v>
       </c>
       <c r="AT90" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU90" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV90" t="n">
         <v>55</v>
@@ -16895,10 +16895,10 @@
         <v>51</v>
       </c>
       <c r="AY90" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AZ90" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA90" t="n">
         <v>24</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD91"/>
+  <dimension ref="A1:BD93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>1.25</v>
       </c>
       <c r="H2" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>12</v>
@@ -795,13 +795,13 @@
         <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>6.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>7.5</v>
@@ -861,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
         <v>3.75</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX2" t="n">
         <v>151</v>
@@ -894,7 +894,7 @@
         <v>201</v>
       </c>
       <c r="BD2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -953,16 +953,16 @@
         <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S3" t="n">
         <v>1.25</v>
@@ -992,7 +992,7 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC3" t="n">
         <v>19</v>
@@ -1058,13 +1058,13 @@
         <v>301</v>
       </c>
       <c r="AX3" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>19</v>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
         <v>2.4</v>
@@ -1135,10 +1135,10 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q4" t="n">
         <v>1.73</v>
@@ -1192,7 +1192,7 @@
         <v>301</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
@@ -1216,7 +1216,7 @@
         <v>7</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ4" t="n">
         <v>21</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.25</v>
@@ -1490,7 +1490,7 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1511,19 +1511,19 @@
         <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1532,7 +1532,7 @@
         <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>21</v>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1553,7 +1553,7 @@
         <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
         <v>8</v>
@@ -1592,10 +1592,10 @@
         <v>201</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1610,10 +1610,10 @@
         <v>4.75</v>
       </c>
       <c r="AZ6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB6" t="n">
         <v>51</v>
@@ -1657,19 +1657,19 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
         <v>3.75</v>
@@ -1699,10 +1699,10 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1848,7 +1848,7 @@
         <v>3.3</v>
       </c>
       <c r="J8" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K8" t="n">
         <v>2.3</v>
@@ -1866,7 +1866,7 @@
         <v>1.2</v>
       </c>
       <c r="P8" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="Q8" t="n">
         <v>1.62</v>
@@ -1887,28 +1887,28 @@
         <v>2.3</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
         <v>14</v>
       </c>
       <c r="AB8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="n">
         <v>8.75</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE8" t="n">
         <v>12.5</v>
@@ -1920,10 +1920,10 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>11.5</v>
@@ -1935,25 +1935,25 @@
         <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO8" t="n">
         <v>9.75</v>
       </c>
       <c r="AP8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR8" t="n">
         <v>55</v>
       </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT8" t="n">
         <v>3.15</v>
@@ -1980,10 +1980,10 @@
         <v>21</v>
       </c>
       <c r="BB8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC8" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BD8" t="n">
         <v>200</v>
@@ -2048,7 +2048,7 @@
         <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2063,22 +2063,22 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V9" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
         <v>12.5</v>
@@ -2096,7 +2096,7 @@
         <v>13.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG9" t="n">
         <v>350</v>
@@ -2108,13 +2108,13 @@
         <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL9" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AM9" t="n">
         <v>37</v>
@@ -2129,7 +2129,7 @@
         <v>16</v>
       </c>
       <c r="AQ9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>50</v>
@@ -2153,13 +2153,13 @@
         <v>81</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AZ9" t="n">
         <v>23</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
         <v>120</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="K10" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L10" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2227,31 +2227,31 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Q10" t="n">
         <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="S10" t="n">
         <v>1.23</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="U10" t="n">
         <v>1.45</v>
       </c>
       <c r="V10" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
         <v>11.25</v>
@@ -2263,10 +2263,10 @@
         <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AB10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
@@ -2287,40 +2287,40 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>4.1</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AP10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS10" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AU10" t="n">
         <v>6.5</v>
@@ -2335,16 +2335,16 @@
         <v>81</v>
       </c>
       <c r="AY10" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC10" t="n">
         <v>90</v>
@@ -2385,22 +2385,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.45</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L11" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2412,85 +2412,85 @@
         <v>1.23</v>
       </c>
       <c r="P11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S11" t="n">
         <v>1.35</v>
       </c>
       <c r="T11" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V11" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC11" t="n">
         <v>8.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
         <v>150</v>
@@ -2502,13 +2502,13 @@
         <v>350</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW11" t="n">
         <v>81</v>
@@ -2517,19 +2517,19 @@
         <v>81</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AZ11" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="BA11" t="n">
         <v>16.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BD11" t="n">
         <v>200</v>
@@ -2588,7 +2588,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2609,16 +2609,16 @@
         <v>3.1</v>
       </c>
       <c r="U12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W12" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
         <v>8.5</v>
@@ -2627,16 +2627,16 @@
         <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB12" t="n">
         <v>21</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
@@ -2651,7 +2651,7 @@
         <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>11.25</v>
@@ -2663,7 +2663,7 @@
         <v>25</v>
       </c>
       <c r="AM12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN12" t="n">
         <v>4.1</v>
@@ -2672,7 +2672,7 @@
         <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ12" t="n">
         <v>35</v>
@@ -2705,16 +2705,16 @@
         <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -3012,7 +3012,7 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI14" t="n">
         <v>21</v>
@@ -3063,13 +3063,13 @@
         <v>81</v>
       </c>
       <c r="AY14" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ14" t="n">
         <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB14" t="n">
         <v>67</v>
@@ -3078,7 +3078,7 @@
         <v>81</v>
       </c>
       <c r="BD14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
@@ -3113,22 +3113,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3167,7 +3167,7 @@
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3236,7 +3236,7 @@
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW15" t="n">
         <v>81</v>
@@ -3245,13 +3245,13 @@
         <v>81</v>
       </c>
       <c r="AY15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
       </c>
       <c r="BA15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB15" t="n">
         <v>41</v>
@@ -3295,19 +3295,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
@@ -3319,16 +3319,16 @@
         <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3337,10 +3337,10 @@
         <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W16" t="n">
         <v>6</v>
@@ -3361,7 +3361,7 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3373,7 +3373,7 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>1250</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
         <v>10</v>
@@ -3391,19 +3391,19 @@
         <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
         <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3433,16 +3433,16 @@
         <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
         <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17">
@@ -3480,19 +3480,19 @@
         <v>1.91</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
       </c>
       <c r="K17" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
         <v>1.1</v>
@@ -3507,43 +3507,43 @@
         <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.62</v>
       </c>
-      <c r="T17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W17" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
         <v>7.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
       </c>
       <c r="AA17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
         <v>41</v>
       </c>
       <c r="AC17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
@@ -3558,13 +3558,13 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>51</v>
@@ -3582,22 +3582,22 @@
         <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
@@ -3612,7 +3612,7 @@
         <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA17" t="n">
         <v>41</v>
@@ -3859,22 +3859,22 @@
         <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R19" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S19" t="n">
         <v>1.57</v>
@@ -4047,10 +4047,10 @@
         <v>6.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q20" t="n">
         <v>2.7</v>
@@ -4205,34 +4205,34 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q21" t="n">
         <v>2.88</v>
@@ -4247,22 +4247,22 @@
         <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X21" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4274,10 +4274,10 @@
         <v>6</v>
       </c>
       <c r="AD21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
         <v>101</v>
@@ -4286,28 +4286,28 @@
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
         <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4319,16 +4319,16 @@
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT21" t="n">
         <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW21" t="n">
         <v>51</v>
@@ -4337,19 +4337,19 @@
         <v>51</v>
       </c>
       <c r="AY21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA21" t="n">
         <v>41</v>
       </c>
       <c r="BB21" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC21" t="n">
         <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>201</v>
       </c>
       <c r="BD21" t="n">
         <v>501</v>
@@ -4387,46 +4387,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="H22" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="J22" t="n">
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
         <v>2.1</v>
@@ -4435,7 +4435,7 @@
         <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X22" t="n">
         <v>21</v>
@@ -4444,7 +4444,7 @@
         <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA22" t="n">
         <v>41</v>
@@ -4453,7 +4453,7 @@
         <v>51</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
@@ -4468,10 +4468,10 @@
         <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
@@ -4480,7 +4480,7 @@
         <v>15</v>
       </c>
       <c r="AL22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM22" t="n">
         <v>34</v>
@@ -4504,7 +4504,7 @@
         <v>351</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
         <v>9</v>
@@ -4522,13 +4522,13 @@
         <v>3.75</v>
       </c>
       <c r="AZ22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC22" t="n">
         <v>67</v>
@@ -4569,13 +4569,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -4617,7 +4617,7 @@
         <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -4626,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA23" t="n">
         <v>29</v>
@@ -4635,7 +4635,7 @@
         <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD23" t="n">
         <v>5.5</v>
@@ -4662,7 +4662,7 @@
         <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
@@ -4701,7 +4701,7 @@
         <v>126</v>
       </c>
       <c r="AY23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -4716,7 +4716,7 @@
         <v>81</v>
       </c>
       <c r="BD23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24">
@@ -4751,28 +4751,28 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L24" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4781,10 +4781,10 @@
         <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4799,16 +4799,16 @@
         <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
         <v>29</v>
@@ -4835,25 +4835,25 @@
         <v>7</v>
       </c>
       <c r="AI24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>9.5</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>9</v>
-      </c>
       <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
         <v>19</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
         <v>29</v>
@@ -4862,16 +4862,16 @@
         <v>67</v>
       </c>
       <c r="AR24" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
         <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4883,7 +4883,7 @@
         <v>81</v>
       </c>
       <c r="AY24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AZ24" t="n">
         <v>12</v>
@@ -4898,7 +4898,7 @@
         <v>67</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -4933,40 +4933,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
         <v>3.2</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
         <v>1.33</v>
@@ -4975,10 +4975,10 @@
         <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W25" t="n">
         <v>10</v>
@@ -4987,10 +4987,10 @@
         <v>13</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
         <v>19</v>
@@ -5011,7 +5011,7 @@
         <v>41</v>
       </c>
       <c r="AG25" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH25" t="n">
         <v>11</v>
@@ -5023,10 +5023,10 @@
         <v>10</v>
       </c>
       <c r="AK25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM25" t="n">
         <v>23</v>
@@ -5065,7 +5065,7 @@
         <v>151</v>
       </c>
       <c r="AY25" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ25" t="n">
         <v>15</v>
@@ -5318,7 +5318,7 @@
         <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O27" t="n">
         <v>1.11</v>
@@ -5327,10 +5327,10 @@
         <v>6.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R27" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S27" t="n">
         <v>1.22</v>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
         <v>3.5</v>
@@ -5673,7 +5673,7 @@
         <v>2.25</v>
       </c>
       <c r="K29" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L29" t="n">
         <v>6.5</v>
@@ -5724,7 +5724,7 @@
         <v>15</v>
       </c>
       <c r="AB29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="n">
         <v>7.5</v>
@@ -5733,7 +5733,7 @@
         <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF29" t="n">
         <v>81</v>
@@ -5793,7 +5793,7 @@
         <v>51</v>
       </c>
       <c r="AY29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ29" t="n">
         <v>34</v>
@@ -5855,7 +5855,7 @@
         <v>3.6</v>
       </c>
       <c r="K30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L30" t="n">
         <v>3.1</v>
@@ -5885,13 +5885,13 @@
         <v>2.63</v>
       </c>
       <c r="U30" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V30" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X30" t="n">
         <v>15</v>
@@ -5903,13 +5903,13 @@
         <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD30" t="n">
         <v>6</v>
@@ -5921,7 +5921,7 @@
         <v>51</v>
       </c>
       <c r="AG30" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH30" t="n">
         <v>7.5</v>
@@ -5990,7 +5990,7 @@
         <v>67</v>
       </c>
       <c r="BD30" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
@@ -6055,10 +6055,10 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
         <v>1.3</v>
@@ -6207,19 +6207,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L32" t="n">
         <v>5.5</v>
@@ -6231,16 +6231,16 @@
         <v>6.5</v>
       </c>
       <c r="O32" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
         <v>1.57</v>
@@ -6249,10 +6249,10 @@
         <v>2.25</v>
       </c>
       <c r="U32" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V32" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W32" t="n">
         <v>4.33</v>
@@ -6309,7 +6309,7 @@
         <v>3.6</v>
       </c>
       <c r="AO32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP32" t="n">
         <v>29</v>
@@ -6318,7 +6318,7 @@
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS32" t="n">
         <v>301</v>
@@ -6339,7 +6339,7 @@
         <v>81</v>
       </c>
       <c r="AY32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ32" t="n">
         <v>29</v>
@@ -6348,7 +6348,7 @@
         <v>41</v>
       </c>
       <c r="BB32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC32" t="n">
         <v>151</v>
@@ -6389,22 +6389,22 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H33" t="n">
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K33" t="n">
         <v>2.2</v>
       </c>
       <c r="L33" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -6440,13 +6440,13 @@
         <v>8</v>
       </c>
       <c r="X33" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
       </c>
       <c r="Z33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA33" t="n">
         <v>17</v>
@@ -6461,16 +6461,16 @@
         <v>6.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG33" t="n">
         <v>201</v>
       </c>
       <c r="AH33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI33" t="n">
         <v>17</v>
@@ -6479,19 +6479,19 @@
         <v>12</v>
       </c>
       <c r="AK33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM33" t="n">
         <v>34</v>
       </c>
       <c r="AN33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP33" t="n">
         <v>21</v>
@@ -6521,22 +6521,22 @@
         <v>81</v>
       </c>
       <c r="AY33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA33" t="n">
         <v>26</v>
       </c>
       <c r="BB33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC33" t="n">
         <v>81</v>
       </c>
       <c r="BD33" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H34" t="n">
         <v>3.4</v>
       </c>
       <c r="I34" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -6679,7 +6679,7 @@
         <v>21</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="n">
         <v>51</v>
@@ -6691,7 +6691,7 @@
         <v>2.63</v>
       </c>
       <c r="AU34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6703,22 +6703,22 @@
         <v>81</v>
       </c>
       <c r="AY34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB34" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC34" t="n">
         <v>101</v>
       </c>
       <c r="BD34" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35">
@@ -6762,7 +6762,7 @@
         <v>4.33</v>
       </c>
       <c r="J35" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K35" t="n">
         <v>2.1</v>
@@ -6774,7 +6774,7 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O35" t="n">
         <v>1.33</v>
@@ -6789,10 +6789,10 @@
         <v>1.75</v>
       </c>
       <c r="S35" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U35" t="n">
         <v>1.91</v>
@@ -6819,7 +6819,7 @@
         <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD35" t="n">
         <v>7</v>
@@ -6870,7 +6870,7 @@
         <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU35" t="n">
         <v>8.5</v>
@@ -6888,7 +6888,7 @@
         <v>6</v>
       </c>
       <c r="AZ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA35" t="n">
         <v>34</v>
@@ -7117,13 +7117,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H37" t="n">
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J37" t="n">
         <v>3</v>
@@ -7132,13 +7132,13 @@
         <v>2.2</v>
       </c>
       <c r="L37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7147,10 +7147,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7159,16 +7159,16 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y37" t="n">
         <v>9.5</v>
@@ -7183,7 +7183,7 @@
         <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7210,7 +7210,7 @@
         <v>29</v>
       </c>
       <c r="AL37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM37" t="n">
         <v>29</v>
@@ -7231,7 +7231,7 @@
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
         <v>3</v>
@@ -7305,7 +7305,7 @@
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J38" t="n">
         <v>2.2</v>
@@ -7329,10 +7329,10 @@
         <v>5.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R38" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S38" t="n">
         <v>1.25</v>
@@ -7347,7 +7347,7 @@
         <v>2.38</v>
       </c>
       <c r="W38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
@@ -7371,13 +7371,13 @@
         <v>8</v>
       </c>
       <c r="AE38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>34</v>
       </c>
       <c r="AG38" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH38" t="n">
         <v>19</v>
@@ -7481,19 +7481,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K39" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L39" t="n">
         <v>6</v>
@@ -7511,10 +7511,10 @@
         <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R39" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S39" t="n">
         <v>1.25</v>
@@ -7523,22 +7523,22 @@
         <v>3.75</v>
       </c>
       <c r="U39" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y39" t="n">
         <v>8.5</v>
       </c>
       <c r="Z39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA39" t="n">
         <v>11</v>
@@ -7547,7 +7547,7 @@
         <v>21</v>
       </c>
       <c r="AC39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>9.5</v>
@@ -7568,7 +7568,7 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK39" t="n">
         <v>67</v>
@@ -7583,13 +7583,13 @@
         <v>3.6</v>
       </c>
       <c r="AO39" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP39" t="n">
         <v>15</v>
       </c>
       <c r="AQ39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR39" t="n">
         <v>34</v>
@@ -7604,7 +7604,7 @@
         <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
         <v>81</v>
@@ -7613,13 +7613,13 @@
         <v>81</v>
       </c>
       <c r="AY39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AZ39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA39" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7845,10 +7845,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H41" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
         <v>4.75</v>
@@ -7863,22 +7863,22 @@
         <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R41" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S41" t="n">
         <v>1.33</v>
@@ -7896,13 +7896,13 @@
         <v>8</v>
       </c>
       <c r="X41" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y41" t="n">
         <v>8.5</v>
       </c>
       <c r="Z41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
@@ -7917,10 +7917,10 @@
         <v>8</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="n">
         <v>201</v>
@@ -7992,7 +7992,7 @@
         <v>101</v>
       </c>
       <c r="BD41" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42">
@@ -8057,10 +8057,10 @@
         <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R42" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S42" t="n">
         <v>1.36</v>
@@ -8209,40 +8209,40 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q43" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R43" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S43" t="n">
         <v>1.5</v>
@@ -8251,16 +8251,16 @@
         <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W43" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
         <v>9</v>
@@ -8275,28 +8275,28 @@
         <v>34</v>
       </c>
       <c r="AC43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD43" t="n">
         <v>6.5</v>
       </c>
       <c r="AE43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="n">
         <v>67</v>
       </c>
       <c r="AG43" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH43" t="n">
         <v>10</v>
       </c>
       <c r="AI43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="n">
         <v>51</v>
@@ -8308,7 +8308,7 @@
         <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO43" t="n">
         <v>10</v>
@@ -8317,7 +8317,7 @@
         <v>23</v>
       </c>
       <c r="AQ43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR43" t="n">
         <v>67</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="AZ43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB43" t="n">
         <v>101</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>351</v>
@@ -8394,37 +8394,37 @@
         <v>2.88</v>
       </c>
       <c r="H44" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I44" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J44" t="n">
         <v>3.75</v>
       </c>
       <c r="K44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O44" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P44" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S44" t="n">
         <v>1.67</v>
@@ -8433,13 +8433,13 @@
         <v>2.1</v>
       </c>
       <c r="U44" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V44" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W44" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X44" t="n">
         <v>12</v>
@@ -8451,10 +8451,10 @@
         <v>29</v>
       </c>
       <c r="AA44" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="n">
         <v>5.5</v>
@@ -8466,7 +8466,7 @@
         <v>21</v>
       </c>
       <c r="AF44" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG44" t="n">
         <v>201</v>
@@ -8475,7 +8475,7 @@
         <v>6</v>
       </c>
       <c r="AI44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ44" t="n">
         <v>12</v>
@@ -8487,10 +8487,10 @@
         <v>29</v>
       </c>
       <c r="AM44" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO44" t="n">
         <v>19</v>
@@ -8502,16 +8502,16 @@
         <v>67</v>
       </c>
       <c r="AR44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS44" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AT44" t="n">
         <v>2.1</v>
       </c>
       <c r="AU44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV44" t="n">
         <v>81</v>
@@ -8526,7 +8526,7 @@
         <v>4.5</v>
       </c>
       <c r="AZ44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA44" t="n">
         <v>34</v>
@@ -8535,10 +8535,10 @@
         <v>67</v>
       </c>
       <c r="BC44" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD44" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
@@ -8576,16 +8576,16 @@
         <v>6.1</v>
       </c>
       <c r="H45" t="n">
-        <v>4.65</v>
+        <v>4.55</v>
       </c>
       <c r="I45" t="n">
         <v>1.37</v>
       </c>
       <c r="J45" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K45" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="L45" t="n">
         <v>1.8</v>
@@ -8627,22 +8627,22 @@
         <v>35</v>
       </c>
       <c r="Y45" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA45" t="n">
         <v>45</v>
       </c>
       <c r="AB45" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AE45" t="n">
         <v>14</v>
@@ -8654,13 +8654,13 @@
         <v>250</v>
       </c>
       <c r="AH45" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AI45" t="n">
         <v>6.8</v>
       </c>
       <c r="AJ45" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK45" t="n">
         <v>8.25</v>
@@ -8672,7 +8672,7 @@
         <v>17</v>
       </c>
       <c r="AN45" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AO45" t="n">
         <v>32</v>
@@ -8684,13 +8684,13 @@
         <v>200</v>
       </c>
       <c r="AR45" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS45" t="n">
         <v>350</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AU45" t="n">
         <v>7.6</v>
@@ -8755,22 +8755,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J46" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
@@ -8812,7 +8812,7 @@
         <v>8.5</v>
       </c>
       <c r="Z46" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA46" t="n">
         <v>13</v>
@@ -8833,7 +8833,7 @@
         <v>51</v>
       </c>
       <c r="AG46" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH46" t="n">
         <v>15</v>
@@ -8842,10 +8842,10 @@
         <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL46" t="n">
         <v>41</v>
@@ -8854,7 +8854,7 @@
         <v>41</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO46" t="n">
         <v>8</v>
@@ -8863,13 +8863,13 @@
         <v>19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT46" t="n">
         <v>3</v>
@@ -8887,7 +8887,7 @@
         <v>126</v>
       </c>
       <c r="AY46" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ46" t="n">
         <v>29</v>
@@ -9158,7 +9158,7 @@
         <v>1.29</v>
       </c>
       <c r="T48" t="n">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="U48" t="n">
         <v>1.75</v>
@@ -9301,22 +9301,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H49" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K49" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M49" t="n">
         <v>1.11</v>
@@ -9349,19 +9349,19 @@
         <v>1.62</v>
       </c>
       <c r="W49" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z49" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA49" t="n">
         <v>19</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>21</v>
       </c>
       <c r="AB49" t="n">
         <v>41</v>
@@ -9376,43 +9376,43 @@
         <v>19</v>
       </c>
       <c r="AF49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG49" t="n">
         <v>101</v>
       </c>
       <c r="AH49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>17</v>
       </c>
-      <c r="AJ49" t="n">
-        <v>15</v>
-      </c>
       <c r="AK49" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL49" t="n">
         <v>41</v>
       </c>
-      <c r="AL49" t="n">
-        <v>34</v>
-      </c>
       <c r="AM49" t="n">
         <v>51</v>
       </c>
       <c r="AN49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO49" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ49" t="n">
         <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS49" t="n">
         <v>251</v>
@@ -9421,7 +9421,7 @@
         <v>2.25</v>
       </c>
       <c r="AU49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV49" t="n">
         <v>81</v>
@@ -9433,19 +9433,19 @@
         <v>51</v>
       </c>
       <c r="AY49" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ49" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC49" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD49" t="n">
         <v>351</v>
@@ -9665,22 +9665,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K51" t="n">
         <v>2.5</v>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M51" t="n">
         <v>1.03</v>
@@ -9695,10 +9695,10 @@
         <v>5.5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R51" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S51" t="n">
         <v>1.25</v>
@@ -9707,28 +9707,28 @@
         <v>3.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V51" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W51" t="n">
         <v>13</v>
       </c>
       <c r="X51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y51" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z51" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC51" t="n">
         <v>19</v>
@@ -9749,34 +9749,34 @@
         <v>15</v>
       </c>
       <c r="AI51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO51" t="n">
         <v>11</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>13</v>
       </c>
       <c r="AP51" t="n">
         <v>17</v>
       </c>
       <c r="AQ51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR51" t="n">
         <v>41</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>51</v>
       </c>
       <c r="AS51" t="n">
         <v>81</v>
@@ -9797,13 +9797,13 @@
         <v>151</v>
       </c>
       <c r="AY51" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ51" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB51" t="n">
         <v>41</v>
@@ -9812,7 +9812,7 @@
         <v>51</v>
       </c>
       <c r="BD51" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52">
@@ -9847,28 +9847,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H52" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K52" t="n">
         <v>2.75</v>
       </c>
       <c r="L52" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O52" t="n">
         <v>1.07</v>
@@ -9883,10 +9883,10 @@
         <v>3.6</v>
       </c>
       <c r="S52" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U52" t="n">
         <v>1.33</v>
@@ -9904,7 +9904,7 @@
         <v>9.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA52" t="n">
         <v>12</v>
@@ -9919,10 +9919,10 @@
         <v>11</v>
       </c>
       <c r="AE52" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG52" t="n">
         <v>67</v>
@@ -9931,16 +9931,16 @@
         <v>23</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK52" t="n">
         <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM52" t="n">
         <v>21</v>
@@ -9949,22 +9949,22 @@
         <v>4.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS52" t="n">
         <v>51</v>
       </c>
       <c r="AT52" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU52" t="n">
         <v>6.5</v>
@@ -9979,13 +9979,13 @@
         <v>151</v>
       </c>
       <c r="AY52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB52" t="n">
         <v>51</v>
@@ -9994,7 +9994,7 @@
         <v>51</v>
       </c>
       <c r="BD52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53">
@@ -10029,16 +10029,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H53" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I53" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J53" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K53" t="n">
         <v>2.6</v>
@@ -10071,10 +10071,10 @@
         <v>3.75</v>
       </c>
       <c r="U53" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V53" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W53" t="n">
         <v>11</v>
@@ -10086,7 +10086,7 @@
         <v>8.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA53" t="n">
         <v>12</v>
@@ -10095,7 +10095,7 @@
         <v>19</v>
       </c>
       <c r="AC53" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD53" t="n">
         <v>8.5</v>
@@ -10122,7 +10122,7 @@
         <v>51</v>
       </c>
       <c r="AL53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM53" t="n">
         <v>29</v>
@@ -10149,7 +10149,7 @@
         <v>3.75</v>
       </c>
       <c r="AU53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV53" t="n">
         <v>41</v>
@@ -10161,7 +10161,7 @@
         <v>151</v>
       </c>
       <c r="AY53" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AZ53" t="n">
         <v>21</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H54" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I54" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="K54" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10235,16 +10235,16 @@
         <v>21</v>
       </c>
       <c r="O54" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P54" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R54" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S54" t="n">
         <v>1.22</v>
@@ -10253,22 +10253,22 @@
         <v>4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V54" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W54" t="n">
         <v>11</v>
       </c>
       <c r="X54" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y54" t="n">
         <v>8.5</v>
       </c>
       <c r="Z54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA54" t="n">
         <v>11</v>
@@ -10280,25 +10280,25 @@
         <v>21</v>
       </c>
       <c r="AD54" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE54" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG54" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH54" t="n">
         <v>21</v>
       </c>
       <c r="AI54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK54" t="n">
         <v>51</v>
@@ -10307,19 +10307,19 @@
         <v>34</v>
       </c>
       <c r="AM54" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN54" t="n">
         <v>4</v>
       </c>
       <c r="AO54" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP54" t="n">
         <v>15</v>
       </c>
       <c r="AQ54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR54" t="n">
         <v>34</v>
@@ -10343,19 +10343,19 @@
         <v>151</v>
       </c>
       <c r="AY54" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AZ54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD54" t="n">
         <v>126</v>
@@ -10393,22 +10393,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="H55" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J55" t="n">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="K55" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L55" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.03</v>
@@ -10423,10 +10423,10 @@
         <v>4.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R55" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S55" t="n">
         <v>1.3</v>
@@ -10435,25 +10435,25 @@
         <v>3.4</v>
       </c>
       <c r="U55" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V55" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W55" t="n">
+        <v>10</v>
+      </c>
+      <c r="X55" t="n">
         <v>11</v>
       </c>
-      <c r="X55" t="n">
-        <v>13</v>
-      </c>
       <c r="Y55" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z55" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB55" t="n">
         <v>21</v>
@@ -10462,49 +10462,49 @@
         <v>15</v>
       </c>
       <c r="AD55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE55" t="n">
         <v>12</v>
       </c>
       <c r="AF55" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG55" t="n">
         <v>126</v>
       </c>
       <c r="AH55" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AI55" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP55" t="n">
         <v>17</v>
       </c>
-      <c r="AJ55" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK55" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ55" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR55" t="n">
         <v>41</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>51</v>
       </c>
       <c r="AS55" t="n">
         <v>101</v>
@@ -10513,7 +10513,7 @@
         <v>3.4</v>
       </c>
       <c r="AU55" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV55" t="n">
         <v>41</v>
@@ -10525,19 +10525,19 @@
         <v>151</v>
       </c>
       <c r="AY55" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AZ55" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA55" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB55" t="n">
         <v>51</v>
       </c>
       <c r="BC55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BD55" t="n">
         <v>126</v>
@@ -10575,22 +10575,22 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L56" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -10611,22 +10611,22 @@
         <v>2.08</v>
       </c>
       <c r="S56" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U56" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V56" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W56" t="n">
         <v>12</v>
       </c>
       <c r="X56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y56" t="n">
         <v>12</v>
@@ -10641,7 +10641,7 @@
         <v>29</v>
       </c>
       <c r="AC56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD56" t="n">
         <v>7</v>
@@ -10668,7 +10668,7 @@
         <v>19</v>
       </c>
       <c r="AL56" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM56" t="n">
         <v>23</v>
@@ -10692,13 +10692,13 @@
         <v>151</v>
       </c>
       <c r="AT56" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU56" t="n">
         <v>7.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW56" t="n">
         <v>126</v>
@@ -10716,7 +10716,7 @@
         <v>19</v>
       </c>
       <c r="BB56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC56" t="n">
         <v>51</v>
@@ -10757,22 +10757,22 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H57" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I57" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="J57" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K57" t="n">
         <v>2.5</v>
       </c>
       <c r="L57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="M57" t="n">
         <v>1.03</v>
@@ -10781,10 +10781,10 @@
         <v>17</v>
       </c>
       <c r="O57" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q57" t="n">
         <v>1.53</v>
@@ -10805,10 +10805,10 @@
         <v>2.25</v>
       </c>
       <c r="W57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X57" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y57" t="n">
         <v>15</v>
@@ -10826,7 +10826,7 @@
         <v>17</v>
       </c>
       <c r="AD57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE57" t="n">
         <v>13</v>
@@ -10838,10 +10838,10 @@
         <v>126</v>
       </c>
       <c r="AH57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI57" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ57" t="n">
         <v>8.5</v>
@@ -10853,16 +10853,16 @@
         <v>12</v>
       </c>
       <c r="AM57" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO57" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ57" t="n">
         <v>67</v>
@@ -10871,7 +10871,7 @@
         <v>81</v>
       </c>
       <c r="AS57" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT57" t="n">
         <v>3.5</v>
@@ -10892,7 +10892,7 @@
         <v>4</v>
       </c>
       <c r="AZ57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BA57" t="n">
         <v>15</v>
@@ -10942,73 +10942,73 @@
         <v>3.1</v>
       </c>
       <c r="H58" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I58" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J58" t="n">
         <v>3.5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L58" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M58" t="n">
         <v>1.03</v>
       </c>
       <c r="N58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O58" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U58" t="n">
         <v>1.53</v>
       </c>
-      <c r="R58" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U58" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V58" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X58" t="n">
         <v>19</v>
       </c>
       <c r="Y58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z58" t="n">
         <v>34</v>
       </c>
       <c r="AA58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB58" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC58" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD58" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE58" t="n">
         <v>12</v>
@@ -11017,13 +11017,13 @@
         <v>34</v>
       </c>
       <c r="AG58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH58" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ58" t="n">
         <v>9</v>
@@ -11053,10 +11053,10 @@
         <v>51</v>
       </c>
       <c r="AS58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU58" t="n">
         <v>7</v>
@@ -11077,13 +11077,13 @@
         <v>11</v>
       </c>
       <c r="BA58" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB58" t="n">
         <v>34</v>
       </c>
       <c r="BC58" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BD58" t="n">
         <v>101</v>
@@ -11121,16 +11121,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J59" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K59" t="n">
         <v>2.25</v>
@@ -11142,34 +11142,34 @@
         <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R59" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U59" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V59" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W59" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X59" t="n">
         <v>15</v>
@@ -11187,13 +11187,13 @@
         <v>26</v>
       </c>
       <c r="AC59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE59" t="n">
         <v>13</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>12</v>
       </c>
       <c r="AF59" t="n">
         <v>41</v>
@@ -11217,7 +11217,7 @@
         <v>19</v>
       </c>
       <c r="AM59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN59" t="n">
         <v>4.75</v>
@@ -11238,13 +11238,13 @@
         <v>126</v>
       </c>
       <c r="AT59" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU59" t="n">
         <v>7.5</v>
       </c>
       <c r="AV59" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW59" t="n">
         <v>351</v>
@@ -11333,10 +11333,10 @@
         <v>5.5</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="R60" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="S60" t="n">
         <v>1.25</v>
@@ -11506,7 +11506,7 @@
         <v>1.08</v>
       </c>
       <c r="N61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O61" t="n">
         <v>1.4</v>
@@ -11849,13 +11849,13 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J63" t="n">
         <v>3.4</v>
@@ -11864,31 +11864,31 @@
         <v>2.1</v>
       </c>
       <c r="L63" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M63" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N63" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O63" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R63" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U63" t="n">
         <v>1.75</v>
@@ -11903,19 +11903,19 @@
         <v>13</v>
       </c>
       <c r="Y63" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z63" t="n">
         <v>29</v>
       </c>
       <c r="AA63" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD63" t="n">
         <v>6</v>
@@ -11924,13 +11924,13 @@
         <v>13</v>
       </c>
       <c r="AF63" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG63" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI63" t="n">
         <v>13</v>
@@ -11954,7 +11954,7 @@
         <v>15</v>
       </c>
       <c r="AP63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ63" t="n">
         <v>51</v>
@@ -11966,10 +11966,10 @@
         <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV63" t="n">
         <v>51</v>
@@ -12213,13 +12213,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J65" t="n">
         <v>3.75</v>
@@ -12228,7 +12228,7 @@
         <v>2.05</v>
       </c>
       <c r="L65" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M65" t="n">
         <v>1.07</v>
@@ -12261,7 +12261,7 @@
         <v>1.83</v>
       </c>
       <c r="W65" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X65" t="n">
         <v>15</v>
@@ -12273,7 +12273,7 @@
         <v>34</v>
       </c>
       <c r="AA65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB65" t="n">
         <v>41</v>
@@ -12294,10 +12294,10 @@
         <v>301</v>
       </c>
       <c r="AH65" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ65" t="n">
         <v>9.5</v>
@@ -12306,7 +12306,7 @@
         <v>21</v>
       </c>
       <c r="AL65" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM65" t="n">
         <v>34</v>
@@ -12315,7 +12315,7 @@
         <v>5</v>
       </c>
       <c r="AO65" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP65" t="n">
         <v>29</v>
@@ -12395,19 +12395,19 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I66" t="n">
         <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K66" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L66" t="n">
         <v>5</v>
@@ -12419,16 +12419,16 @@
         <v>13</v>
       </c>
       <c r="O66" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R66" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S66" t="n">
         <v>1.33</v>
@@ -12437,13 +12437,13 @@
         <v>3.25</v>
       </c>
       <c r="U66" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X66" t="n">
         <v>8</v>
@@ -12461,10 +12461,10 @@
         <v>23</v>
       </c>
       <c r="AC66" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE66" t="n">
         <v>15</v>
@@ -12479,7 +12479,7 @@
         <v>15</v>
       </c>
       <c r="AI66" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ66" t="n">
         <v>17</v>
@@ -12494,13 +12494,13 @@
         <v>41</v>
       </c>
       <c r="AN66" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO66" t="n">
         <v>8</v>
       </c>
       <c r="AP66" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ66" t="n">
         <v>23</v>
@@ -12509,7 +12509,7 @@
         <v>41</v>
       </c>
       <c r="AS66" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT66" t="n">
         <v>3.25</v>
@@ -12595,10 +12595,10 @@
         <v>3.4</v>
       </c>
       <c r="M67" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N67" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O67" t="n">
         <v>1.5</v>
@@ -12607,10 +12607,10 @@
         <v>2.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R67" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S67" t="n">
         <v>1.57</v>
@@ -13123,22 +13123,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H70" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I70" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="J70" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K70" t="n">
         <v>2.1</v>
       </c>
       <c r="L70" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M70" t="n">
         <v>1.06</v>
@@ -13174,13 +13174,13 @@
         <v>7</v>
       </c>
       <c r="X70" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y70" t="n">
         <v>9</v>
       </c>
       <c r="Z70" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA70" t="n">
         <v>17</v>
@@ -13201,13 +13201,13 @@
         <v>51</v>
       </c>
       <c r="AG70" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI70" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ70" t="n">
         <v>13</v>
@@ -13216,7 +13216,7 @@
         <v>41</v>
       </c>
       <c r="AL70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM70" t="n">
         <v>41</v>
@@ -13225,13 +13225,13 @@
         <v>4</v>
       </c>
       <c r="AO70" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP70" t="n">
         <v>21</v>
       </c>
       <c r="AQ70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR70" t="n">
         <v>51</v>
@@ -13255,7 +13255,7 @@
         <v>51</v>
       </c>
       <c r="AY70" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ70" t="n">
         <v>21</v>
@@ -13264,10 +13264,10 @@
         <v>29</v>
       </c>
       <c r="BB70" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC70" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD70" t="n">
         <v>201</v>
@@ -13487,28 +13487,28 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H72" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J72" t="n">
         <v>4.33</v>
       </c>
       <c r="K72" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M72" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O72" t="n">
         <v>1.25</v>
@@ -13517,16 +13517,16 @@
         <v>3.75</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="R72" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S72" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U72" t="n">
         <v>1.73</v>
@@ -13535,7 +13535,7 @@
         <v>2</v>
       </c>
       <c r="W72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X72" t="n">
         <v>21</v>
@@ -13553,10 +13553,10 @@
         <v>34</v>
       </c>
       <c r="AC72" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE72" t="n">
         <v>15</v>
@@ -13565,7 +13565,7 @@
         <v>51</v>
       </c>
       <c r="AG72" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH72" t="n">
         <v>8</v>
@@ -13574,16 +13574,16 @@
         <v>9</v>
       </c>
       <c r="AJ72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK72" t="n">
         <v>15</v>
       </c>
       <c r="AL72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN72" t="n">
         <v>6</v>
@@ -13604,7 +13604,7 @@
         <v>151</v>
       </c>
       <c r="AT72" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU72" t="n">
         <v>8</v>
@@ -13622,7 +13622,7 @@
         <v>4</v>
       </c>
       <c r="AZ72" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BA72" t="n">
         <v>19</v>
@@ -13631,7 +13631,7 @@
         <v>29</v>
       </c>
       <c r="BC72" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BD72" t="n">
         <v>126</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.5</v>
       </c>
-      <c r="H73" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I73" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K73" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M73" t="n">
         <v>1.05</v>
@@ -13693,40 +13693,40 @@
         <v>8.5</v>
       </c>
       <c r="O73" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P73" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="R73" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="S73" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T73" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U73" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W73" t="n">
         <v>11</v>
       </c>
       <c r="X73" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y73" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z73" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA73" t="n">
         <v>29</v>
@@ -13735,7 +13735,7 @@
         <v>34</v>
       </c>
       <c r="AC73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD73" t="n">
         <v>7</v>
@@ -13753,7 +13753,7 @@
         <v>8</v>
       </c>
       <c r="AI73" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ73" t="n">
         <v>9</v>
@@ -13762,7 +13762,7 @@
         <v>17</v>
       </c>
       <c r="AL73" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM73" t="n">
         <v>26</v>
@@ -13786,7 +13786,7 @@
         <v>151</v>
       </c>
       <c r="AT73" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU73" t="n">
         <v>8</v>
@@ -13816,7 +13816,7 @@
         <v>51</v>
       </c>
       <c r="BD73" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74">
@@ -13851,28 +13851,28 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="H74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J74" t="n">
         <v>3.1</v>
       </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>3</v>
-      </c>
       <c r="K74" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L74" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
       </c>
       <c r="N74" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O74" t="n">
         <v>1.28</v>
@@ -13887,16 +13887,16 @@
         <v>1.9</v>
       </c>
       <c r="S74" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T74" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="U74" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V74" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W74" t="n">
         <v>8.5</v>
@@ -13905,25 +13905,25 @@
         <v>12.5</v>
       </c>
       <c r="Y74" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z74" t="n">
         <v>26</v>
       </c>
       <c r="AA74" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB74" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD74" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AE74" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF74" t="n">
         <v>50</v>
@@ -13935,43 +13935,43 @@
         <v>10.25</v>
       </c>
       <c r="AI74" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ74" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK74" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL74" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM74" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AO74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ74" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR74" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS74" t="n">
         <v>250</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU74" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV74" t="n">
         <v>55</v>
@@ -13983,19 +13983,19 @@
         <v>51</v>
       </c>
       <c r="AY74" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AZ74" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="BA74" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB74" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BC74" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD74" t="n">
         <v>250</v>
@@ -14042,7 +14042,7 @@
         <v>3.95</v>
       </c>
       <c r="J75" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="K75" t="n">
         <v>2.15</v>
@@ -14072,7 +14072,7 @@
         <v>1.38</v>
       </c>
       <c r="T75" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="U75" t="n">
         <v>1.8</v>
@@ -14150,7 +14150,7 @@
         <v>200</v>
       </c>
       <c r="AT75" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AU75" t="n">
         <v>6.9</v>
@@ -14215,22 +14215,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
         <v>2.75</v>
       </c>
       <c r="I76" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J76" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L76" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M76" t="n">
         <v>1.14</v>
@@ -14266,13 +14266,13 @@
         <v>6.5</v>
       </c>
       <c r="X76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y76" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z76" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA76" t="n">
         <v>34</v>
@@ -14299,7 +14299,7 @@
         <v>6</v>
       </c>
       <c r="AI76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ76" t="n">
         <v>12</v>
@@ -14320,7 +14320,7 @@
         <v>19</v>
       </c>
       <c r="AP76" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ76" t="n">
         <v>67</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J77" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K77" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L77" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.03</v>
@@ -14421,61 +14421,61 @@
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="S77" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="T77" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U77" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V77" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W77" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y77" t="n">
         <v>9</v>
       </c>
       <c r="Z77" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA77" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB77" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE77" t="n">
         <v>23</v>
       </c>
-      <c r="AC77" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD77" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE77" t="n">
-        <v>19</v>
-      </c>
       <c r="AF77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG77" t="n">
-        <v>251</v>
+        <v>501</v>
       </c>
       <c r="AH77" t="n">
         <v>21</v>
@@ -14484,25 +14484,25 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK77" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AL77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AO77" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ77" t="n">
         <v>17</v>
@@ -14511,25 +14511,25 @@
         <v>41</v>
       </c>
       <c r="AS77" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU77" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV77" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW77" t="n">
         <v>501</v>
       </c>
       <c r="AX77" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ77" t="n">
         <v>41</v>
@@ -14538,13 +14538,13 @@
         <v>41</v>
       </c>
       <c r="BB77" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC77" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD77" t="n">
-        <v>251</v>
+        <v>401</v>
       </c>
     </row>
     <row r="78">
@@ -14582,19 +14582,19 @@
         <v>1.85</v>
       </c>
       <c r="H78" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I78" t="n">
         <v>3.65</v>
       </c>
       <c r="J78" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="K78" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L78" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -14615,10 +14615,10 @@
         <v>2.15</v>
       </c>
       <c r="S78" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="T78" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="U78" t="n">
         <v>1.6</v>
@@ -14648,13 +14648,13 @@
         <v>8.5</v>
       </c>
       <c r="AD78" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE78" t="n">
         <v>13</v>
       </c>
       <c r="AF78" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG78" t="n">
         <v>300</v>
@@ -14681,7 +14681,7 @@
         <v>3.95</v>
       </c>
       <c r="AO78" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP78" t="n">
         <v>16</v>
@@ -14696,7 +14696,7 @@
         <v>175</v>
       </c>
       <c r="AT78" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="AU78" t="n">
         <v>6.8</v>
@@ -14761,22 +14761,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H79" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="J79" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K79" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M79" t="n">
         <v>1.06</v>
@@ -14785,55 +14785,55 @@
         <v>7.5</v>
       </c>
       <c r="O79" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="Q79" t="n">
         <v>1.8</v>
       </c>
       <c r="R79" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S79" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T79" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="U79" t="n">
         <v>1.62</v>
       </c>
       <c r="V79" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="W79" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="X79" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y79" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z79" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AA79" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AB79" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC79" t="n">
         <v>7.5</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE79" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF79" t="n">
         <v>45</v>
@@ -14842,31 +14842,31 @@
         <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AI79" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AJ79" t="n">
         <v>8.5</v>
       </c>
       <c r="AK79" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL79" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM79" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN79" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO79" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ79" t="n">
         <v>90</v>
@@ -14878,13 +14878,13 @@
         <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV79" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW79" t="n">
         <v>51</v>
@@ -14893,10 +14893,10 @@
         <v>51</v>
       </c>
       <c r="AY79" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AZ79" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="BA79" t="n">
         <v>18</v>
@@ -14943,46 +14943,46 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="H80" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I80" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J80" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="K80" t="n">
         <v>2.25</v>
       </c>
       <c r="L80" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
       </c>
       <c r="N80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O80" t="n">
         <v>1.22</v>
       </c>
       <c r="P80" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R80" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S80" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="T80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="U80" t="n">
         <v>1.6</v>
@@ -14994,28 +14994,28 @@
         <v>9</v>
       </c>
       <c r="X80" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y80" t="n">
         <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA80" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB80" t="n">
         <v>22</v>
       </c>
       <c r="AC80" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF80" t="n">
         <v>50</v>
@@ -15024,34 +15024,34 @@
         <v>300</v>
       </c>
       <c r="AH80" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI80" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AK80" t="n">
         <v>45</v>
       </c>
       <c r="AL80" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AO80" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AP80" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR80" t="n">
         <v>60</v>
@@ -15060,13 +15060,13 @@
         <v>175</v>
       </c>
       <c r="AT80" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV80" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW80" t="n">
         <v>51</v>
@@ -15078,16 +15078,16 @@
         <v>5.4</v>
       </c>
       <c r="AZ80" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB80" t="n">
         <v>80</v>
       </c>
       <c r="BC80" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BD80" t="n">
         <v>250</v>
@@ -15143,10 +15143,10 @@
         <v>4.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O81" t="n">
         <v>1.22</v>
@@ -15155,10 +15155,10 @@
         <v>4</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R81" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S81" t="n">
         <v>1.33</v>
@@ -15331,16 +15331,16 @@
         <v>11</v>
       </c>
       <c r="O82" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P82" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R82" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S82" t="n">
         <v>1.4</v>
@@ -15489,13 +15489,13 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H83" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J83" t="n">
         <v>2.5</v>
@@ -15513,10 +15513,10 @@
         <v>7</v>
       </c>
       <c r="O83" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P83" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q83" t="n">
         <v>2.35</v>
@@ -15540,7 +15540,7 @@
         <v>5.5</v>
       </c>
       <c r="X83" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y83" t="n">
         <v>9</v>
@@ -15561,10 +15561,10 @@
         <v>6.5</v>
       </c>
       <c r="AE83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF83" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG83" t="n">
         <v>351</v>
@@ -15591,7 +15591,7 @@
         <v>3.6</v>
       </c>
       <c r="AO83" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP83" t="n">
         <v>23</v>
@@ -15671,130 +15671,130 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="I84" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="J84" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K84" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="L84" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N84" t="n">
-        <v>6.45</v>
+        <v>7.45</v>
       </c>
       <c r="O84" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="P84" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="Q84" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="R84" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="S84" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="T84" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="U84" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V84" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="W84" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X84" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y84" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z84" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA84" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AB84" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC84" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AD84" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AE84" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF84" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG84" t="n">
         <v>900</v>
       </c>
       <c r="AH84" t="n">
-        <v>6.8</v>
+        <v>7.5</v>
       </c>
       <c r="AI84" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ84" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK84" t="n">
         <v>40</v>
       </c>
       <c r="AL84" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM84" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AN84" t="n">
         <v>4.35</v>
       </c>
       <c r="AO84" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP84" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ84" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR84" t="n">
         <v>120</v>
       </c>
       <c r="AS84" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AU84" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV84" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW84" t="n">
         <v>81</v>
@@ -15806,19 +15806,19 @@
         <v>4.65</v>
       </c>
       <c r="AZ84" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="BA84" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BB84" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC84" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD84" t="n">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="85">
@@ -15895,16 +15895,16 @@
         <v>2.45</v>
       </c>
       <c r="U85" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W85" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="X85" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -15916,7 +15916,7 @@
         <v>14.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC85" t="n">
         <v>8.25</v>
@@ -15934,13 +15934,13 @@
         <v>700</v>
       </c>
       <c r="AH85" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI85" t="n">
         <v>28</v>
       </c>
       <c r="AJ85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK85" t="n">
         <v>100</v>
@@ -15955,7 +15955,7 @@
         <v>3.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP85" t="n">
         <v>18.5</v>
@@ -15970,7 +15970,7 @@
         <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU85" t="n">
         <v>7.4</v>
@@ -16035,55 +16035,55 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H86" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K86" t="n">
         <v>2.2</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M86" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O86" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P86" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="R86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V86" t="n">
         <v>2</v>
       </c>
-      <c r="S86" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T86" t="n">
-        <v>3</v>
-      </c>
-      <c r="U86" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V86" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X86" t="n">
         <v>15</v>
@@ -16095,13 +16095,13 @@
         <v>29</v>
       </c>
       <c r="AA86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB86" t="n">
         <v>29</v>
       </c>
       <c r="AC86" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD86" t="n">
         <v>6.5</v>
@@ -16113,13 +16113,13 @@
         <v>41</v>
       </c>
       <c r="AG86" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH86" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI86" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ86" t="n">
         <v>9.5</v>
@@ -16131,7 +16131,7 @@
         <v>19</v>
       </c>
       <c r="AM86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN86" t="n">
         <v>5</v>
@@ -16152,7 +16152,7 @@
         <v>151</v>
       </c>
       <c r="AT86" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU86" t="n">
         <v>7.5</v>
@@ -16173,16 +16173,16 @@
         <v>13</v>
       </c>
       <c r="BA86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB86" t="n">
         <v>41</v>
       </c>
       <c r="BC86" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BD86" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87">
@@ -16370,7 +16370,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cv6Ez8SE</t>
+          <t>fPzY7mlQ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -16380,150 +16380,150 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Bala</t>
+          <t>Angostura</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Haverfordwest</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.65</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="I88" t="n">
-        <v>2.72</v>
+        <v>2.02</v>
       </c>
       <c r="J88" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>1.87</v>
+        <v>2.1</v>
       </c>
       <c r="L88" t="n">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="M88" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="N88" t="n">
-        <v>5.2</v>
+        <v>8</v>
       </c>
       <c r="O88" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="P88" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="Q88" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="R88" t="n">
-        <v>1.42</v>
+        <v>1.78</v>
       </c>
       <c r="S88" t="n">
-        <v>1.6</v>
+        <v>1.39</v>
       </c>
       <c r="T88" t="n">
-        <v>2.25</v>
+        <v>2.57</v>
       </c>
       <c r="U88" t="n">
-        <v>2.18</v>
+        <v>1.7</v>
       </c>
       <c r="V88" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W88" t="n">
-        <v>6.2</v>
+        <v>10.25</v>
       </c>
       <c r="X88" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y88" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z88" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA88" t="n">
         <v>32</v>
       </c>
-      <c r="AA88" t="n">
-        <v>30</v>
-      </c>
       <c r="AB88" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV88" t="n">
         <v>55</v>
       </c>
-      <c r="AC88" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AD88" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE88" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF88" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG88" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH88" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AI88" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ88" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK88" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL88" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM88" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN88" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="AO88" t="n">
-        <v>16</v>
-      </c>
-      <c r="AP88" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ88" t="n">
-        <v>80</v>
-      </c>
-      <c r="AR88" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS88" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT88" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU88" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV88" t="n">
-        <v>100</v>
-      </c>
       <c r="AW88" t="n">
         <v>51</v>
       </c>
@@ -16531,28 +16531,28 @@
         <v>51</v>
       </c>
       <c r="AY88" t="n">
-        <v>4.45</v>
+        <v>3.95</v>
       </c>
       <c r="AZ88" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="BA88" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="BB88" t="n">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="BC88" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="BD88" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vgMfGws0</t>
+          <t>63fwn6R6</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -16562,179 +16562,179 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>WALES - CYMRU PREMIER</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Connahs Q.</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Aberystwyth</t>
+          <t>La Guaira</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.25</v>
+        <v>3.2</v>
       </c>
       <c r="H89" t="n">
-        <v>5.3</v>
+        <v>2.95</v>
       </c>
       <c r="I89" t="n">
-        <v>9</v>
+        <v>2.27</v>
       </c>
       <c r="J89" t="n">
-        <v>1.62</v>
+        <v>3.95</v>
       </c>
       <c r="K89" t="n">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="L89" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>9.75</v>
+        <v>6.9</v>
       </c>
       <c r="O89" t="n">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="P89" t="n">
-        <v>5.1</v>
+        <v>2.57</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.42</v>
+        <v>2.12</v>
       </c>
       <c r="R89" t="n">
-        <v>2.67</v>
+        <v>1.57</v>
       </c>
       <c r="S89" t="n">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="T89" t="n">
-        <v>3.65</v>
+        <v>2.22</v>
       </c>
       <c r="U89" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V89" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="W89" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="X89" t="n">
-        <v>7.3</v>
+        <v>16</v>
       </c>
       <c r="Y89" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>8.25</v>
+        <v>45</v>
       </c>
       <c r="AA89" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AB89" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AC89" t="n">
-        <v>9.75</v>
+        <v>7.4</v>
       </c>
       <c r="AD89" t="n">
-        <v>11.75</v>
+        <v>5.8</v>
       </c>
       <c r="AE89" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF89" t="n">
         <v>80</v>
       </c>
       <c r="AG89" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS89" t="n">
         <v>500</v>
       </c>
-      <c r="AH89" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI89" t="n">
+      <c r="AT89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV89" t="n">
         <v>80</v>
       </c>
-      <c r="AJ89" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK89" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL89" t="n">
+      <c r="AW89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC89" t="n">
         <v>110</v>
       </c>
-      <c r="AM89" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN89" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO89" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AP89" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AQ89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AR89" t="n">
-        <v>32</v>
-      </c>
-      <c r="AS89" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT89" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AU89" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV89" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW89" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX89" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY89" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AZ89" t="n">
-        <v>50</v>
-      </c>
-      <c r="BA89" t="n">
-        <v>40</v>
-      </c>
-      <c r="BB89" t="n">
+      <c r="BD89" t="n">
         <v>350</v>
-      </c>
-      <c r="BC89" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD89" t="n">
-        <v>450</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>zLF3EHBC</t>
+          <t>Cv6Ez8SE</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -16754,139 +16754,139 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Bala</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Flint</t>
+          <t>Haverfordwest</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="I90" t="n">
-        <v>3.6</v>
+        <v>2.52</v>
       </c>
       <c r="J90" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="K90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U90" t="n">
         <v>2.18</v>
       </c>
-      <c r="L90" t="n">
-        <v>4</v>
-      </c>
-      <c r="M90" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N90" t="n">
-        <v>8</v>
-      </c>
-      <c r="O90" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P90" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q90" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R90" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S90" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T90" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="U90" t="n">
-        <v>1.65</v>
-      </c>
       <c r="V90" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="W90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X90" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU90" t="n">
         <v>8.25</v>
       </c>
-      <c r="X90" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z90" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA90" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AB90" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC90" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD90" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF90" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG90" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH90" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI90" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ90" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK90" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL90" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM90" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN90" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO90" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AP90" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ90" t="n">
-        <v>35</v>
-      </c>
-      <c r="AR90" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS90" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT90" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AU90" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AV90" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AW90" t="n">
         <v>51</v>
@@ -16895,203 +16895,567 @@
         <v>51</v>
       </c>
       <c r="AY90" t="n">
-        <v>5.6</v>
+        <v>4.25</v>
       </c>
       <c r="AZ90" t="n">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="BA90" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BB90" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="BC90" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD90" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
+          <t>vgMfGws0</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Connahs Q.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Aberystwyth</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H91" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="L91" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N91" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S91" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="V91" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W91" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X91" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>300</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>55</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>350</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>zLF3EHBC</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>04/10/2024</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>WALES - CYMRU PREMIER</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Flint</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H92" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I92" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N92" t="n">
+        <v>8</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X92" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>120</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>SSXACetP</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>04/10/2024</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>15:45</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>WALES - CYMRU PREMIER</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Penybont</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Barry</t>
         </is>
       </c>
-      <c r="G91" t="n">
+      <c r="G93" t="n">
         <v>1.53</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H93" t="n">
         <v>3.95</v>
       </c>
-      <c r="I91" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J91" t="n">
+      <c r="I93" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J93" t="n">
         <v>2.07</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K93" t="n">
         <v>2.27</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L93" t="n">
         <v>5.3</v>
       </c>
-      <c r="M91" t="n">
+      <c r="M93" t="n">
         <v>1.05</v>
       </c>
-      <c r="N91" t="n">
+      <c r="N93" t="n">
         <v>7.8</v>
       </c>
-      <c r="O91" t="n">
+      <c r="O93" t="n">
         <v>1.27</v>
       </c>
-      <c r="P91" t="n">
+      <c r="P93" t="n">
         <v>3.45</v>
       </c>
-      <c r="Q91" t="n">
+      <c r="Q93" t="n">
         <v>1.82</v>
       </c>
-      <c r="R91" t="n">
+      <c r="R93" t="n">
         <v>1.93</v>
       </c>
-      <c r="S91" t="n">
+      <c r="S93" t="n">
         <v>1.37</v>
       </c>
-      <c r="T91" t="n">
+      <c r="T93" t="n">
         <v>2.87</v>
       </c>
-      <c r="U91" t="n">
+      <c r="U93" t="n">
         <v>1.9</v>
       </c>
-      <c r="V91" t="n">
+      <c r="V93" t="n">
         <v>1.8</v>
       </c>
-      <c r="W91" t="n">
+      <c r="W93" t="n">
         <v>6.8</v>
       </c>
-      <c r="X91" t="n">
+      <c r="X93" t="n">
         <v>7.1</v>
       </c>
-      <c r="Y91" t="n">
+      <c r="Y93" t="n">
         <v>8.25</v>
       </c>
-      <c r="Z91" t="n">
+      <c r="Z93" t="n">
         <v>10.75</v>
       </c>
-      <c r="AA91" t="n">
+      <c r="AA93" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB91" t="n">
+      <c r="AB93" t="n">
         <v>27</v>
       </c>
-      <c r="AC91" t="n">
+      <c r="AC93" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD91" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE91" t="n">
+      <c r="AD93" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE93" t="n">
         <v>18</v>
       </c>
-      <c r="AF91" t="n">
+      <c r="AF93" t="n">
         <v>90</v>
       </c>
-      <c r="AG91" t="n">
+      <c r="AG93" t="n">
         <v>700</v>
       </c>
-      <c r="AH91" t="n">
+      <c r="AH93" t="n">
         <v>14</v>
       </c>
-      <c r="AI91" t="n">
+      <c r="AI93" t="n">
         <v>30</v>
       </c>
-      <c r="AJ91" t="n">
+      <c r="AJ93" t="n">
         <v>17</v>
       </c>
-      <c r="AK91" t="n">
+      <c r="AK93" t="n">
         <v>100</v>
       </c>
-      <c r="AL91" t="n">
+      <c r="AL93" t="n">
         <v>55</v>
       </c>
-      <c r="AM91" t="n">
+      <c r="AM93" t="n">
         <v>55</v>
       </c>
-      <c r="AN91" t="n">
+      <c r="AN93" t="n">
         <v>3.35</v>
       </c>
-      <c r="AO91" t="n">
+      <c r="AO93" t="n">
         <v>7.3</v>
       </c>
-      <c r="AP91" t="n">
+      <c r="AP93" t="n">
         <v>17.5</v>
       </c>
-      <c r="AQ91" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR91" t="n">
+      <c r="AQ93" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR93" t="n">
         <v>55</v>
       </c>
-      <c r="AS91" t="n">
+      <c r="AS93" t="n">
         <v>250</v>
       </c>
-      <c r="AT91" t="n">
+      <c r="AT93" t="n">
         <v>2.87</v>
       </c>
-      <c r="AU91" t="n">
+      <c r="AU93" t="n">
         <v>8</v>
       </c>
-      <c r="AV91" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX91" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY91" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AZ91" t="n">
+      <c r="AV93" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AZ93" t="n">
         <v>30</v>
       </c>
-      <c r="BA91" t="n">
+      <c r="BA93" t="n">
         <v>35</v>
       </c>
-      <c r="BB91" t="n">
+      <c r="BB93" t="n">
         <v>200</v>
       </c>
-      <c r="BC91" t="n">
+      <c r="BC93" t="n">
         <v>250</v>
       </c>
-      <c r="BD91" t="n">
+      <c r="BD93" t="n">
         <v>500</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX2" t="n">
         <v>151</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -944,7 +944,7 @@
         <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -1058,13 +1058,13 @@
         <v>301</v>
       </c>
       <c r="AX3" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA3" t="n">
         <v>19</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
         <v>1.04</v>
@@ -1141,10 +1141,10 @@
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,22 +1153,22 @@
         <v>3.25</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
         <v>12</v>
@@ -1180,16 +1180,16 @@
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH4" t="n">
         <v>17</v>
@@ -1198,28 +1198,28 @@
         <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP4" t="n">
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1243,19 +1243,19 @@
         <v>151</v>
       </c>
       <c r="AY4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ4" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA4" t="n">
         <v>34</v>
       </c>
-      <c r="BA4" t="n">
-        <v>41</v>
-      </c>
       <c r="BB4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>251</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
@@ -1344,7 +1344,7 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1377,7 +1377,7 @@
         <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ5" t="n">
         <v>11</v>
@@ -1386,19 +1386,19 @@
         <v>29</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.2</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1535,7 +1535,7 @@
         <v>26</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB6" t="n">
         <v>34</v>
@@ -1562,10 +1562,10 @@
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL6" t="n">
         <v>23</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>2.88</v>
       </c>
       <c r="I7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1699,10 +1699,10 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>6</v>
@@ -1714,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
         <v>34</v>
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>3.3</v>
@@ -1854,7 +1854,7 @@
         <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
@@ -1896,7 +1896,7 @@
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA8" t="n">
         <v>14</v>
@@ -1932,13 +1932,13 @@
         <v>45</v>
       </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>28</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="AO8" t="n">
         <v>9.75</v>
@@ -1974,7 +1974,7 @@
         <v>5.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="BA8" t="n">
         <v>21</v>
@@ -1986,7 +1986,7 @@
         <v>100</v>
       </c>
       <c r="BD8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9">
@@ -2024,10 +2024,10 @@
         <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="J9" t="n">
         <v>2.27</v>
@@ -2036,7 +2036,7 @@
         <v>2.25</v>
       </c>
       <c r="L9" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
@@ -2063,22 +2063,22 @@
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="W9" t="n">
         <v>8.25</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Y9" t="n">
         <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AA9" t="n">
         <v>12.5</v>
@@ -2090,22 +2090,22 @@
         <v>8.25</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE9" t="n">
         <v>13.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="n">
         <v>350</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2126,7 +2126,7 @@
         <v>8.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ9" t="n">
         <v>27</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
@@ -2153,13 +2153,13 @@
         <v>81</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>120</v>
@@ -2206,19 +2206,19 @@
         <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="J10" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="K10" t="n">
         <v>2.52</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2242,13 +2242,13 @@
         <v>1.23</v>
       </c>
       <c r="T10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="U10" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W10" t="n">
         <v>12</v>
@@ -2260,13 +2260,13 @@
         <v>8.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
@@ -2275,7 +2275,7 @@
         <v>9.25</v>
       </c>
       <c r="AE10" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF10" t="n">
         <v>35</v>
@@ -2287,19 +2287,19 @@
         <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AK10" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN10" t="n">
         <v>4.1</v>
@@ -2308,19 +2308,19 @@
         <v>8</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AQ10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR10" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS10" t="n">
         <v>110</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AU10" t="n">
         <v>6.5</v>
@@ -2338,7 +2338,7 @@
         <v>6.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA10" t="n">
         <v>20</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="J11" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="K11" t="n">
         <v>2.27</v>
@@ -2409,10 +2409,10 @@
         <v>8.25</v>
       </c>
       <c r="O11" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q11" t="n">
         <v>1.7</v>
@@ -2433,28 +2433,28 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="X11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AA11" t="n">
         <v>45</v>
       </c>
       <c r="AB11" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC11" t="n">
         <v>8.25</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE11" t="n">
         <v>15</v>
@@ -2463,19 +2463,19 @@
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH11" t="n">
         <v>7.8</v>
       </c>
       <c r="AI11" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2484,13 +2484,13 @@
         <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AO11" t="n">
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ11" t="n">
         <v>150</v>
@@ -2505,10 +2505,10 @@
         <v>2.95</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW11" t="n">
         <v>81</v>
@@ -2567,130 +2567,130 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J12" t="n">
-        <v>2.52</v>
+        <v>2.45</v>
       </c>
       <c r="K12" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="L12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="S12" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="T12" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="V12" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="W12" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.4</v>
+        <v>7.9</v>
       </c>
       <c r="AE12" t="n">
         <v>12.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG12" t="n">
         <v>250</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>20</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AK12" t="n">
         <v>45</v>
       </c>
       <c r="AL12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AR12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS12" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW12" t="n">
         <v>81</v>
@@ -2699,16 +2699,16 @@
         <v>81</v>
       </c>
       <c r="AY12" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB12" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BC12" t="n">
         <v>90</v>
@@ -2961,10 +2961,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>1.36</v>
@@ -3295,7 +3295,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
@@ -3304,7 +3304,7 @@
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3325,16 +3325,16 @@
         <v>2.63</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.53</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
       <c r="T16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -3343,10 +3343,10 @@
         <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3355,7 +3355,7 @@
         <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
@@ -3382,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>51</v>
@@ -3412,7 +3412,7 @@
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3439,7 +3439,7 @@
         <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD16" t="n">
         <v>351</v>
@@ -4047,10 +4047,10 @@
         <v>6.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P20" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q20" t="n">
         <v>2.7</v>
@@ -4059,10 +4059,10 @@
         <v>1.44</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
         <v>2.2</v>
@@ -4140,10 +4140,10 @@
         <v>351</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV20" t="n">
         <v>81</v>
@@ -4167,7 +4167,7 @@
         <v>51</v>
       </c>
       <c r="BC20" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD20" t="n">
         <v>301</v>
@@ -4205,34 +4205,34 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N21" t="n">
         <v>5.5</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N21" t="n">
-        <v>6.5</v>
-      </c>
       <c r="O21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
         <v>2.88</v>
@@ -4247,22 +4247,22 @@
         <v>2.2</v>
       </c>
       <c r="U21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4271,43 +4271,43 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4319,16 +4319,16 @@
         <v>81</v>
       </c>
       <c r="AS21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
         <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW21" t="n">
         <v>51</v>
@@ -4337,19 +4337,19 @@
         <v>51</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB21" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD21" t="n">
         <v>501</v>
@@ -4405,10 +4405,10 @@
         <v>2.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -4417,10 +4417,10 @@
         <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4575,7 +4575,7 @@
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -4617,7 +4617,7 @@
         <v>1.67</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -4626,7 +4626,7 @@
         <v>12</v>
       </c>
       <c r="Z23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA23" t="n">
         <v>29</v>
@@ -4701,7 +4701,7 @@
         <v>126</v>
       </c>
       <c r="AY23" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -5297,19 +5297,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
         <v>3.8</v>
       </c>
       <c r="I27" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L27" t="n">
         <v>2.5</v>
@@ -5369,25 +5369,25 @@
         <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL27" t="n">
         <v>13</v>
@@ -5399,37 +5399,37 @@
         <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT27" t="n">
         <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AV27" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AW27" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX27" t="n">
         <v>151</v>
       </c>
       <c r="AY27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ27" t="n">
         <v>10</v>
@@ -5444,7 +5444,7 @@
         <v>41</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28">
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H28" t="n">
         <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -5494,7 +5494,7 @@
         <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5521,22 +5521,22 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
         <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
@@ -5548,7 +5548,7 @@
         <v>17</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5599,7 +5599,7 @@
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV28" t="n">
         <v>41</v>
@@ -5614,7 +5614,7 @@
         <v>7.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
         <v>29</v>
@@ -5623,7 +5623,7 @@
         <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -5858,13 +5858,13 @@
         <v>2.05</v>
       </c>
       <c r="L30" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M30" t="n">
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -5894,7 +5894,7 @@
         <v>8.5</v>
       </c>
       <c r="X30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
@@ -5903,7 +5903,7 @@
         <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
@@ -5927,10 +5927,10 @@
         <v>7.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
         <v>23</v>
@@ -5939,7 +5939,7 @@
         <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN30" t="n">
         <v>4.75</v>
@@ -5975,16 +5975,16 @@
         <v>151</v>
       </c>
       <c r="AY30" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AZ30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC30" t="n">
         <v>67</v>
@@ -6028,52 +6028,52 @@
         <v>3.9</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J31" t="n">
         <v>4.33</v>
       </c>
       <c r="K31" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L31" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
       </c>
       <c r="N31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P31" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U31" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V31" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X31" t="n">
         <v>23</v>
@@ -6088,13 +6088,13 @@
         <v>29</v>
       </c>
       <c r="AB31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6103,10 +6103,10 @@
         <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>10</v>
@@ -6121,7 +6121,7 @@
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN31" t="n">
         <v>6</v>
@@ -6136,22 +6136,22 @@
         <v>67</v>
       </c>
       <c r="AR31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS31" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
       </c>
       <c r="AW31" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX31" t="n">
         <v>81</v>
@@ -6160,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BA31" t="n">
         <v>17</v>
@@ -6172,7 +6172,7 @@
         <v>41</v>
       </c>
       <c r="BD31" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
@@ -6395,7 +6395,7 @@
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J33" t="n">
         <v>2.75</v>
@@ -6419,10 +6419,10 @@
         <v>3.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R33" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S33" t="n">
         <v>1.4</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X33" t="n">
         <v>10</v>
@@ -6473,10 +6473,10 @@
         <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ33" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -6571,22 +6571,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="H34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I34" t="n">
         <v>3.4</v>
       </c>
-      <c r="I34" t="n">
-        <v>4</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
         <v>2.1</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
         <v>1.06</v>
@@ -6673,16 +6673,16 @@
         <v>4</v>
       </c>
       <c r="AO34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS34" t="n">
         <v>151</v>
@@ -6691,7 +6691,7 @@
         <v>2.63</v>
       </c>
       <c r="AU34" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
         <v>51</v>
@@ -6703,22 +6703,22 @@
         <v>81</v>
       </c>
       <c r="AY34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB34" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC34" t="n">
         <v>81</v>
       </c>
-      <c r="BC34" t="n">
-        <v>101</v>
-      </c>
       <c r="BD34" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J35" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K35" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L35" t="n">
         <v>5</v>
       </c>
       <c r="M35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O35" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U35" t="n">
         <v>1.91</v>
@@ -6804,13 +6804,13 @@
         <v>6.5</v>
       </c>
       <c r="X35" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
         <v>15</v>
@@ -6819,7 +6819,7 @@
         <v>29</v>
       </c>
       <c r="AC35" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD35" t="n">
         <v>7</v>
@@ -6834,10 +6834,10 @@
         <v>351</v>
       </c>
       <c r="AH35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
         <v>15</v>
@@ -6852,16 +6852,16 @@
         <v>41</v>
       </c>
       <c r="AN35" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
         <v>21</v>
       </c>
       <c r="AQ35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR35" t="n">
         <v>51</v>
@@ -6870,7 +6870,7 @@
         <v>151</v>
       </c>
       <c r="AT35" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU35" t="n">
         <v>8.5</v>
@@ -6885,7 +6885,7 @@
         <v>81</v>
       </c>
       <c r="AY35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ35" t="n">
         <v>26</v>
@@ -6894,10 +6894,10 @@
         <v>34</v>
       </c>
       <c r="BB35" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD35" t="n">
         <v>251</v>
@@ -7123,10 +7123,10 @@
         <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7135,10 +7135,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7147,10 +7147,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7159,19 +7159,19 @@
         <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z37" t="n">
         <v>23</v>
@@ -7183,7 +7183,7 @@
         <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7231,7 +7231,7 @@
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
         <v>3</v>
@@ -7249,7 +7249,7 @@
         <v>81</v>
       </c>
       <c r="AY37" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ37" t="n">
         <v>15</v>
@@ -7341,10 +7341,10 @@
         <v>3.75</v>
       </c>
       <c r="U38" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V38" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W38" t="n">
         <v>11</v>
@@ -7365,7 +7365,7 @@
         <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
         <v>8</v>
@@ -7395,7 +7395,7 @@
         <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
         <v>4</v>
@@ -7425,7 +7425,7 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX38" t="n">
         <v>81</v>
@@ -7693,10 +7693,10 @@
         <v>4.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
         <v>1.3</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H42" t="n">
         <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>1.91</v>
       </c>
       <c r="K42" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -8051,22 +8051,22 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S42" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42" t="n">
         <v>2.25</v>
@@ -8084,7 +8084,7 @@
         <v>9</v>
       </c>
       <c r="Z42" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA42" t="n">
         <v>13</v>
@@ -8114,7 +8114,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK42" t="n">
         <v>101</v>
@@ -8135,16 +8135,16 @@
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS42" t="n">
         <v>151</v>
       </c>
       <c r="AT42" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU42" t="n">
         <v>10</v>
@@ -8209,28 +8209,28 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I43" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N43" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -8245,10 +8245,10 @@
         <v>1.57</v>
       </c>
       <c r="S43" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U43" t="n">
         <v>2.1</v>
@@ -8260,7 +8260,7 @@
         <v>5.5</v>
       </c>
       <c r="X43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y43" t="n">
         <v>9</v>
@@ -8269,7 +8269,7 @@
         <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB43" t="n">
         <v>34</v>
@@ -8278,7 +8278,7 @@
         <v>7</v>
       </c>
       <c r="AD43" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE43" t="n">
         <v>19</v>
@@ -8293,10 +8293,10 @@
         <v>10</v>
       </c>
       <c r="AI43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK43" t="n">
         <v>51</v>
@@ -8308,16 +8308,16 @@
         <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR43" t="n">
         <v>67</v>
@@ -8326,7 +8326,7 @@
         <v>201</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU43" t="n">
         <v>9</v>
@@ -8344,7 +8344,7 @@
         <v>6</v>
       </c>
       <c r="AZ43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA43" t="n">
         <v>41</v>
@@ -8353,7 +8353,7 @@
         <v>101</v>
       </c>
       <c r="BC43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD43" t="n">
         <v>351</v>
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="H45" t="n">
         <v>4.55</v>
@@ -8582,10 +8582,10 @@
         <v>1.37</v>
       </c>
       <c r="J45" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="K45" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="L45" t="n">
         <v>1.8</v>
@@ -8594,13 +8594,13 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="O45" t="n">
         <v>1.1</v>
       </c>
       <c r="P45" t="n">
-        <v>4.85</v>
+        <v>4.8</v>
       </c>
       <c r="Q45" t="n">
         <v>1.62</v>
@@ -8639,7 +8639,7 @@
         <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD45" t="n">
         <v>8.25</v>
@@ -8675,7 +8675,7 @@
         <v>8</v>
       </c>
       <c r="AO45" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP45" t="n">
         <v>32</v>
@@ -8690,7 +8690,7 @@
         <v>350</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU45" t="n">
         <v>7.6</v>
@@ -8705,7 +8705,7 @@
         <v>51</v>
       </c>
       <c r="AY45" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="AZ45" t="n">
         <v>6.1</v>
@@ -8758,7 +8758,7 @@
         <v>1.55</v>
       </c>
       <c r="H46" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I46" t="n">
         <v>6.25</v>
@@ -8779,22 +8779,22 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R46" t="n">
         <v>2</v>
       </c>
       <c r="S46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U46" t="n">
         <v>1.91</v>
@@ -8815,13 +8815,13 @@
         <v>11</v>
       </c>
       <c r="AA46" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB46" t="n">
         <v>26</v>
       </c>
       <c r="AC46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD46" t="n">
         <v>7.5</v>
@@ -8836,10 +8836,10 @@
         <v>251</v>
       </c>
       <c r="AH46" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI46" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ46" t="n">
         <v>19</v>
@@ -8857,7 +8857,7 @@
         <v>3.5</v>
       </c>
       <c r="AO46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP46" t="n">
         <v>19</v>
@@ -8872,7 +8872,7 @@
         <v>126</v>
       </c>
       <c r="AT46" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU46" t="n">
         <v>8.5</v>
@@ -8940,25 +8940,25 @@
         <v>1.5</v>
       </c>
       <c r="H47" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J47" t="n">
         <v>2.05</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L47" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="M47" t="n">
         <v>10.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="O47" t="n">
         <v>1.24</v>
@@ -8979,7 +8979,7 @@
         <v>3.04</v>
       </c>
       <c r="U47" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V47" t="n">
         <v>1.78</v>
@@ -8991,7 +8991,7 @@
         <v>7</v>
       </c>
       <c r="Y47" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z47" t="n">
         <v>10.5</v>
@@ -9000,13 +9000,13 @@
         <v>12</v>
       </c>
       <c r="AB47" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC47" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AE47" t="n">
         <v>17.5</v>
@@ -9021,16 +9021,16 @@
         <v>15.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ47" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM47" t="n">
         <v>60</v>
@@ -9042,22 +9042,22 @@
         <v>7.1</v>
       </c>
       <c r="AP47" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>22</v>
       </c>
       <c r="AR47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS47" t="n">
         <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AV47" t="n">
         <v>75</v>
@@ -9069,16 +9069,16 @@
         <v>51</v>
       </c>
       <c r="AY47" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AZ47" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA47" t="n">
         <v>35</v>
       </c>
-      <c r="BA47" t="n">
-        <v>37</v>
-      </c>
       <c r="BB47" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC47" t="n">
         <v>250</v>
@@ -9122,19 +9122,19 @@
         <v>1.39</v>
       </c>
       <c r="H48" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I48" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="J48" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="K48" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="L48" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M48" t="n">
         <v>1.02</v>
@@ -9161,37 +9161,37 @@
         <v>3.4</v>
       </c>
       <c r="U48" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V48" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="W48" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X48" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="Y48" t="n">
         <v>8.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AA48" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB48" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC48" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD48" t="n">
         <v>9</v>
       </c>
       <c r="AE48" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF48" t="n">
         <v>75</v>
@@ -9200,7 +9200,7 @@
         <v>500</v>
       </c>
       <c r="AH48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI48" t="n">
         <v>50</v>
@@ -9212,28 +9212,28 @@
         <v>150</v>
       </c>
       <c r="AL48" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AM48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO48" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AP48" t="n">
         <v>15</v>
       </c>
       <c r="AQ48" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AR48" t="n">
         <v>40</v>
       </c>
       <c r="AS48" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT48" t="n">
         <v>3.15</v>
@@ -9257,7 +9257,7 @@
         <v>37</v>
       </c>
       <c r="BA48" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BB48" t="n">
         <v>250</v>
@@ -9513,10 +9513,10 @@
         <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R50" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S50" t="n">
         <v>1.57</v>
@@ -9665,28 +9665,28 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>3.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J51" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K51" t="n">
         <v>2.5</v>
       </c>
       <c r="L51" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O51" t="n">
         <v>1.14</v>
@@ -9707,16 +9707,16 @@
         <v>3.75</v>
       </c>
       <c r="U51" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V51" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W51" t="n">
         <v>13</v>
       </c>
       <c r="X51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y51" t="n">
         <v>9.5</v>
@@ -9746,10 +9746,10 @@
         <v>81</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
         <v>12</v>
@@ -9847,28 +9847,28 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I52" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
         <v>2.75</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M52" t="n">
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O52" t="n">
         <v>1.07</v>
@@ -9889,10 +9889,10 @@
         <v>5</v>
       </c>
       <c r="U52" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V52" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W52" t="n">
         <v>17</v>
@@ -9901,13 +9901,13 @@
         <v>15</v>
       </c>
       <c r="Y52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB52" t="n">
         <v>15</v>
@@ -9919,13 +9919,13 @@
         <v>11</v>
       </c>
       <c r="AE52" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG52" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AH52" t="n">
         <v>23</v>
@@ -9934,13 +9934,13 @@
         <v>29</v>
       </c>
       <c r="AJ52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK52" t="n">
         <v>41</v>
       </c>
       <c r="AL52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM52" t="n">
         <v>21</v>
@@ -9949,16 +9949,16 @@
         <v>4.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS52" t="n">
         <v>51</v>
@@ -9979,22 +9979,22 @@
         <v>151</v>
       </c>
       <c r="AY52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC52" t="n">
         <v>51</v>
       </c>
       <c r="BD52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
@@ -10044,7 +10044,7 @@
         <v>2.6</v>
       </c>
       <c r="L53" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M53" t="n">
         <v>1.02</v>
@@ -10098,13 +10098,13 @@
         <v>19</v>
       </c>
       <c r="AD53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE53" t="n">
         <v>13</v>
       </c>
       <c r="AF53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG53" t="n">
         <v>101</v>
@@ -10137,7 +10137,7 @@
         <v>15</v>
       </c>
       <c r="AQ53" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR53" t="n">
         <v>41</v>
@@ -10164,7 +10164,7 @@
         <v>7</v>
       </c>
       <c r="AZ53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA53" t="n">
         <v>23</v>
@@ -10211,22 +10211,22 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H54" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K54" t="n">
         <v>2.63</v>
       </c>
       <c r="L54" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M54" t="n">
         <v>1.02</v>
@@ -10253,10 +10253,10 @@
         <v>4</v>
       </c>
       <c r="U54" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V54" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W54" t="n">
         <v>11</v>
@@ -10304,19 +10304,19 @@
         <v>51</v>
       </c>
       <c r="AL54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM54" t="n">
         <v>34</v>
       </c>
       <c r="AN54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO54" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP54" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ54" t="n">
         <v>19</v>
@@ -10343,7 +10343,7 @@
         <v>151</v>
       </c>
       <c r="AY54" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ54" t="n">
         <v>26</v>
@@ -10417,16 +10417,16 @@
         <v>15</v>
       </c>
       <c r="O55" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P55" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R55" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S55" t="n">
         <v>1.3</v>
@@ -10587,7 +10587,7 @@
         <v>3.75</v>
       </c>
       <c r="K56" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L56" t="n">
         <v>2.63</v>
@@ -10632,7 +10632,7 @@
         <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA56" t="n">
         <v>26</v>
@@ -10677,7 +10677,7 @@
         <v>5.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP56" t="n">
         <v>23</v>
@@ -10698,7 +10698,7 @@
         <v>7.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW56" t="n">
         <v>126</v>
@@ -10787,16 +10787,16 @@
         <v>5.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R57" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S57" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U57" t="n">
         <v>1.57</v>
@@ -10823,7 +10823,7 @@
         <v>34</v>
       </c>
       <c r="AC57" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD57" t="n">
         <v>8.5</v>
@@ -10838,7 +10838,7 @@
         <v>126</v>
       </c>
       <c r="AH57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI57" t="n">
         <v>9.5</v>
@@ -10853,7 +10853,7 @@
         <v>12</v>
       </c>
       <c r="AM57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN57" t="n">
         <v>7</v>
@@ -10871,10 +10871,10 @@
         <v>81</v>
       </c>
       <c r="AS57" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU57" t="n">
         <v>7.5</v>
@@ -10942,7 +10942,7 @@
         <v>3.1</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I58" t="n">
         <v>2.15</v>
@@ -10951,16 +10951,16 @@
         <v>3.5</v>
       </c>
       <c r="K58" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L58" t="n">
         <v>2.75</v>
       </c>
       <c r="M58" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>1.2</v>
@@ -10969,31 +10969,31 @@
         <v>4.33</v>
       </c>
       <c r="Q58" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R58" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S58" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U58" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V58" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X58" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y58" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z58" t="n">
         <v>34</v>
@@ -11002,10 +11002,10 @@
         <v>23</v>
       </c>
       <c r="AB58" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD58" t="n">
         <v>7</v>
@@ -11014,13 +11014,13 @@
         <v>12</v>
       </c>
       <c r="AF58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG58" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH58" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI58" t="n">
         <v>12</v>
@@ -11032,16 +11032,16 @@
         <v>21</v>
       </c>
       <c r="AL58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN58" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP58" t="n">
         <v>21</v>
@@ -11050,16 +11050,16 @@
         <v>51</v>
       </c>
       <c r="AR58" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS58" t="n">
         <v>126</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU58" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV58" t="n">
         <v>41</v>
@@ -11074,19 +11074,19 @@
         <v>4.5</v>
       </c>
       <c r="AZ58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA58" t="n">
         <v>19</v>
       </c>
       <c r="BB58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC58" t="n">
         <v>51</v>
       </c>
       <c r="BD58" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59">
@@ -11121,55 +11121,55 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H59" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I59" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J59" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K59" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L59" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M59" t="n">
         <v>1.04</v>
       </c>
       <c r="N59" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O59" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P59" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S59" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T59" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U59" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V59" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X59" t="n">
         <v>15</v>
@@ -11181,28 +11181,28 @@
         <v>26</v>
       </c>
       <c r="AA59" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC59" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE59" t="n">
         <v>12</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>13</v>
       </c>
       <c r="AF59" t="n">
         <v>41</v>
       </c>
       <c r="AG59" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI59" t="n">
         <v>13</v>
@@ -11217,10 +11217,10 @@
         <v>19</v>
       </c>
       <c r="AM59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN59" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO59" t="n">
         <v>15</v>
@@ -11238,13 +11238,13 @@
         <v>126</v>
       </c>
       <c r="AT59" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV59" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW59" t="n">
         <v>351</v>
@@ -11306,16 +11306,16 @@
         <v>2.2</v>
       </c>
       <c r="H60" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J60" t="n">
         <v>2.75</v>
       </c>
       <c r="K60" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L60" t="n">
         <v>3.25</v>
@@ -11351,10 +11351,10 @@
         <v>2.63</v>
       </c>
       <c r="W60" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y60" t="n">
         <v>9.5</v>
@@ -11372,7 +11372,7 @@
         <v>19</v>
       </c>
       <c r="AD60" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE60" t="n">
         <v>11</v>
@@ -11381,7 +11381,7 @@
         <v>29</v>
       </c>
       <c r="AG60" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH60" t="n">
         <v>15</v>
@@ -11429,7 +11429,7 @@
         <v>41</v>
       </c>
       <c r="AW60" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AX60" t="n">
         <v>151</v>
@@ -11515,10 +11515,10 @@
         <v>2.75</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
@@ -11691,16 +11691,16 @@
         <v>9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P62" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R62" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S62" t="n">
         <v>1.5</v>
@@ -11849,22 +11849,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H63" t="n">
         <v>3.1</v>
       </c>
       <c r="I63" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J63" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M63" t="n">
         <v>1.07</v>
@@ -11879,10 +11879,10 @@
         <v>3.25</v>
       </c>
       <c r="Q63" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R63" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S63" t="n">
         <v>1.44</v>
@@ -11891,13 +11891,13 @@
         <v>2.63</v>
       </c>
       <c r="U63" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X63" t="n">
         <v>13</v>
@@ -11915,13 +11915,13 @@
         <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD63" t="n">
         <v>6</v>
       </c>
       <c r="AE63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF63" t="n">
         <v>51</v>
@@ -11930,28 +11930,28 @@
         <v>251</v>
       </c>
       <c r="AH63" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI63" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ63" t="n">
         <v>10</v>
       </c>
       <c r="AK63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL63" t="n">
         <v>21</v>
       </c>
       <c r="AM63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN63" t="n">
         <v>4.75</v>
       </c>
       <c r="AO63" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP63" t="n">
         <v>26</v>
@@ -11960,10 +11960,10 @@
         <v>51</v>
       </c>
       <c r="AR63" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS63" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT63" t="n">
         <v>2.63</v>
@@ -11987,7 +11987,7 @@
         <v>15</v>
       </c>
       <c r="BA63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BB63" t="n">
         <v>51</v>
@@ -11996,7 +11996,7 @@
         <v>67</v>
       </c>
       <c r="BD63" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64">
@@ -12031,13 +12031,13 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
         <v>2.6</v>
@@ -12055,34 +12055,34 @@
         <v>11</v>
       </c>
       <c r="O64" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P64" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="S64" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T64" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U64" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W64" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y64" t="n">
         <v>8.5</v>
@@ -12094,25 +12094,25 @@
         <v>15</v>
       </c>
       <c r="AB64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE64" t="n">
         <v>15</v>
       </c>
       <c r="AF64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG64" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI64" t="n">
         <v>21</v>
@@ -12124,10 +12124,10 @@
         <v>41</v>
       </c>
       <c r="AL64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN64" t="n">
         <v>4</v>
@@ -12145,10 +12145,10 @@
         <v>51</v>
       </c>
       <c r="AS64" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT64" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU64" t="n">
         <v>8</v>
@@ -12163,22 +12163,22 @@
         <v>81</v>
       </c>
       <c r="AY64" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AZ64" t="n">
         <v>21</v>
       </c>
       <c r="BA64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB64" t="n">
         <v>67</v>
       </c>
       <c r="BC64" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65">
@@ -12607,10 +12607,10 @@
         <v>2.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R67" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S67" t="n">
         <v>1.57</v>
@@ -12759,13 +12759,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H68" t="n">
         <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J68" t="n">
         <v>3.2</v>
@@ -12780,7 +12780,7 @@
         <v>1.07</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O68" t="n">
         <v>1.33</v>
@@ -12807,10 +12807,10 @@
         <v>1.83</v>
       </c>
       <c r="W68" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y68" t="n">
         <v>10</v>
@@ -12825,7 +12825,7 @@
         <v>34</v>
       </c>
       <c r="AC68" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD68" t="n">
         <v>6</v>
@@ -12837,13 +12837,13 @@
         <v>51</v>
       </c>
       <c r="AG68" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH68" t="n">
         <v>8.5</v>
       </c>
       <c r="AI68" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ68" t="n">
         <v>11</v>
@@ -12852,19 +12852,19 @@
         <v>29</v>
       </c>
       <c r="AL68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM68" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN68" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO68" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP68" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ68" t="n">
         <v>51</v>
@@ -12879,7 +12879,7 @@
         <v>2.63</v>
       </c>
       <c r="AU68" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV68" t="n">
         <v>51</v>
@@ -12897,7 +12897,7 @@
         <v>17</v>
       </c>
       <c r="BA68" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB68" t="n">
         <v>51</v>
@@ -12941,22 +12941,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="H69" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K69" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L69" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M69" t="n">
         <v>1.07</v>
@@ -13046,7 +13046,7 @@
         <v>13</v>
       </c>
       <c r="AP69" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ69" t="n">
         <v>41</v>
@@ -13055,7 +13055,7 @@
         <v>67</v>
       </c>
       <c r="AS69" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT69" t="n">
         <v>2.63</v>
@@ -13073,13 +13073,13 @@
         <v>51</v>
       </c>
       <c r="AY69" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ69" t="n">
         <v>17</v>
       </c>
       <c r="BA69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB69" t="n">
         <v>51</v>
@@ -13153,10 +13153,10 @@
         <v>3.4</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S70" t="n">
         <v>1.4</v>
@@ -13305,22 +13305,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I71" t="n">
         <v>3.2</v>
       </c>
-      <c r="I71" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J71" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
       </c>
       <c r="L71" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -13329,16 +13329,16 @@
         <v>7.5</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R71" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13347,34 +13347,34 @@
         <v>2.63</v>
       </c>
       <c r="U71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W71" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X71" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB71" t="n">
         <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD71" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13383,31 +13383,31 @@
         <v>51</v>
       </c>
       <c r="AG71" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK71" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL71" t="n">
         <v>29</v>
       </c>
-      <c r="AL71" t="n">
-        <v>23</v>
-      </c>
       <c r="AM71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN71" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO71" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP71" t="n">
         <v>23</v>
@@ -13425,7 +13425,7 @@
         <v>2.63</v>
       </c>
       <c r="AU71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV71" t="n">
         <v>51</v>
@@ -13437,19 +13437,19 @@
         <v>81</v>
       </c>
       <c r="AY71" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AZ71" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB71" t="n">
         <v>51</v>
       </c>
       <c r="BC71" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BD71" t="n">
         <v>151</v>
@@ -13487,13 +13487,13 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>3.7</v>
       </c>
       <c r="I72" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J72" t="n">
         <v>4.33</v>
@@ -13502,7 +13502,7 @@
         <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M72" t="n">
         <v>1.05</v>
@@ -13511,16 +13511,16 @@
         <v>8.5</v>
       </c>
       <c r="O72" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P72" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q72" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R72" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S72" t="n">
         <v>1.36</v>
@@ -13529,10 +13529,10 @@
         <v>3</v>
       </c>
       <c r="U72" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V72" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W72" t="n">
         <v>12</v>
@@ -13547,31 +13547,31 @@
         <v>41</v>
       </c>
       <c r="AA72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB72" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD72" t="n">
         <v>7.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF72" t="n">
         <v>51</v>
       </c>
       <c r="AG72" t="n">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="AH72" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ72" t="n">
         <v>9</v>
@@ -13625,7 +13625,7 @@
         <v>9.5</v>
       </c>
       <c r="BA72" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB72" t="n">
         <v>29</v>
@@ -13669,22 +13669,22 @@
         </is>
       </c>
       <c r="G73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H73" t="n">
         <v>3.4</v>
       </c>
-      <c r="H73" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="J73" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K73" t="n">
         <v>2.1</v>
       </c>
       <c r="L73" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M73" t="n">
         <v>1.05</v>
@@ -13699,10 +13699,10 @@
         <v>3.5</v>
       </c>
       <c r="Q73" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R73" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S73" t="n">
         <v>1.4</v>
@@ -13717,10 +13717,10 @@
         <v>1.91</v>
       </c>
       <c r="W73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X73" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y73" t="n">
         <v>12</v>
@@ -13729,7 +13729,7 @@
         <v>34</v>
       </c>
       <c r="AA73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB73" t="n">
         <v>34</v>
@@ -13738,7 +13738,7 @@
         <v>10</v>
       </c>
       <c r="AD73" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE73" t="n">
         <v>15</v>
@@ -13753,25 +13753,25 @@
         <v>8</v>
       </c>
       <c r="AI73" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ73" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK73" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO73" t="n">
         <v>17</v>
-      </c>
-      <c r="AL73" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM73" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN73" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO73" t="n">
-        <v>19</v>
       </c>
       <c r="AP73" t="n">
         <v>26</v>
@@ -13801,16 +13801,16 @@
         <v>81</v>
       </c>
       <c r="AY73" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AZ73" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA73" t="n">
         <v>21</v>
       </c>
       <c r="BB73" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BC73" t="n">
         <v>51</v>
@@ -13851,22 +13851,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H74" t="n">
         <v>3.2</v>
       </c>
       <c r="I74" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="J74" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K74" t="n">
         <v>2.07</v>
       </c>
       <c r="L74" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="M74" t="n">
         <v>1.06</v>
@@ -13902,13 +13902,13 @@
         <v>8.5</v>
       </c>
       <c r="X74" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y74" t="n">
         <v>9.25</v>
       </c>
       <c r="Z74" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AA74" t="n">
         <v>19.5</v>
@@ -13950,16 +13950,16 @@
         <v>27</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="AO74" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP74" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ74" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR74" t="n">
         <v>90</v>
@@ -13983,7 +13983,7 @@
         <v>51</v>
       </c>
       <c r="AY74" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AZ74" t="n">
         <v>15</v>
@@ -14215,19 +14215,19 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H76" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I76" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J76" t="n">
         <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L76" t="n">
         <v>3.6</v>
@@ -14257,10 +14257,10 @@
         <v>2.1</v>
       </c>
       <c r="U76" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V76" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W76" t="n">
         <v>6.5</v>
@@ -14281,7 +14281,7 @@
         <v>51</v>
       </c>
       <c r="AC76" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD76" t="n">
         <v>5.5</v>
@@ -14311,7 +14311,7 @@
         <v>29</v>
       </c>
       <c r="AM76" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN76" t="n">
         <v>4.75</v>
@@ -14320,7 +14320,7 @@
         <v>19</v>
       </c>
       <c r="AP76" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ76" t="n">
         <v>67</v>
@@ -14335,7 +14335,7 @@
         <v>2.1</v>
       </c>
       <c r="AU76" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV76" t="n">
         <v>81</v>
@@ -14356,7 +14356,7 @@
         <v>34</v>
       </c>
       <c r="BB76" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC76" t="n">
         <v>101</v>
@@ -14427,10 +14427,10 @@
         <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S77" t="n">
         <v>1.33</v>
@@ -14585,16 +14585,16 @@
         <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J78" t="n">
         <v>2.37</v>
       </c>
       <c r="K78" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L78" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
@@ -14606,7 +14606,7 @@
         <v>1.21</v>
       </c>
       <c r="P78" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="Q78" t="n">
         <v>1.65</v>
@@ -14615,7 +14615,7 @@
         <v>2.15</v>
       </c>
       <c r="S78" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T78" t="n">
         <v>3.15</v>
@@ -14627,10 +14627,10 @@
         <v>2.2</v>
       </c>
       <c r="W78" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X78" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Y78" t="n">
         <v>8.25</v>
@@ -14660,10 +14660,10 @@
         <v>300</v>
       </c>
       <c r="AH78" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI78" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ78" t="n">
         <v>12.5</v>
@@ -14675,7 +14675,7 @@
         <v>29</v>
       </c>
       <c r="AM78" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN78" t="n">
         <v>3.95</v>
@@ -14684,13 +14684,13 @@
         <v>9</v>
       </c>
       <c r="AP78" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR78" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS78" t="n">
         <v>175</v>
@@ -14699,7 +14699,7 @@
         <v>3.15</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV78" t="n">
         <v>50</v>
@@ -14761,7 +14761,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="H79" t="n">
         <v>3.25</v>
@@ -14770,7 +14770,7 @@
         <v>2.07</v>
       </c>
       <c r="J79" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
@@ -14779,10 +14779,10 @@
         <v>2.7</v>
       </c>
       <c r="M79" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N79" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O79" t="n">
         <v>1.26</v>
@@ -14791,7 +14791,7 @@
         <v>3.5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R79" t="n">
         <v>1.95</v>
@@ -14800,22 +14800,22 @@
         <v>1.39</v>
       </c>
       <c r="T79" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U79" t="n">
         <v>1.62</v>
       </c>
       <c r="V79" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="W79" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X79" t="n">
         <v>21</v>
       </c>
       <c r="Y79" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Z79" t="n">
         <v>50</v>
@@ -14827,10 +14827,10 @@
         <v>29</v>
       </c>
       <c r="AC79" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD79" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE79" t="n">
         <v>12</v>
@@ -14848,7 +14848,7 @@
         <v>10.5</v>
       </c>
       <c r="AJ79" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK79" t="n">
         <v>20</v>
@@ -14857,13 +14857,13 @@
         <v>16</v>
       </c>
       <c r="AM79" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN79" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AP79" t="n">
         <v>22</v>
@@ -14878,7 +14878,7 @@
         <v>250</v>
       </c>
       <c r="AT79" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU79" t="n">
         <v>6.5</v>
@@ -14902,7 +14902,7 @@
         <v>18</v>
       </c>
       <c r="BB79" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BC79" t="n">
         <v>70</v>
@@ -14943,22 +14943,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H80" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J80" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K80" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L80" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
@@ -14979,10 +14979,10 @@
         <v>2.15</v>
       </c>
       <c r="S80" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="T80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="U80" t="n">
         <v>1.6</v>
@@ -15000,10 +15000,10 @@
         <v>8.5</v>
       </c>
       <c r="Z80" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA80" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AB80" t="n">
         <v>22</v>
@@ -15012,13 +15012,13 @@
         <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE80" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF80" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG80" t="n">
         <v>300</v>
@@ -15030,28 +15030,28 @@
         <v>19.5</v>
       </c>
       <c r="AJ80" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AK80" t="n">
         <v>45</v>
       </c>
       <c r="AL80" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM80" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN80" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AO80" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP80" t="n">
         <v>16.5</v>
       </c>
       <c r="AQ80" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR80" t="n">
         <v>60</v>
@@ -15060,13 +15060,13 @@
         <v>175</v>
       </c>
       <c r="AT80" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="AU80" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV80" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW80" t="n">
         <v>51</v>
@@ -15078,16 +15078,16 @@
         <v>5.4</v>
       </c>
       <c r="AZ80" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA80" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB80" t="n">
         <v>80</v>
       </c>
       <c r="BC80" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD80" t="n">
         <v>250</v>
@@ -15680,19 +15680,19 @@
         <v>2.92</v>
       </c>
       <c r="J84" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K84" t="n">
         <v>1.88</v>
       </c>
       <c r="L84" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M84" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N84" t="n">
-        <v>7.45</v>
+        <v>6.5</v>
       </c>
       <c r="O84" t="n">
         <v>1.45</v>
@@ -15713,16 +15713,16 @@
         <v>2.27</v>
       </c>
       <c r="U84" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="V84" t="n">
         <v>1.72</v>
       </c>
       <c r="W84" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X84" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y84" t="n">
         <v>10</v>
@@ -15731,19 +15731,19 @@
         <v>30</v>
       </c>
       <c r="AA84" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB84" t="n">
         <v>40</v>
       </c>
       <c r="AC84" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD84" t="n">
         <v>5.4</v>
       </c>
       <c r="AE84" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF84" t="n">
         <v>90</v>
@@ -15752,43 +15752,43 @@
         <v>900</v>
       </c>
       <c r="AH84" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AI84" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ84" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AK84" t="n">
         <v>40</v>
       </c>
       <c r="AL84" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM84" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AN84" t="n">
         <v>4.35</v>
       </c>
       <c r="AO84" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ84" t="n">
         <v>70</v>
       </c>
       <c r="AR84" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS84" t="n">
         <v>350</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU84" t="n">
         <v>7</v>
@@ -15806,13 +15806,13 @@
         <v>4.65</v>
       </c>
       <c r="AZ84" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="BA84" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BB84" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC84" t="n">
         <v>120</v>
@@ -15856,16 +15856,16 @@
         <v>1.72</v>
       </c>
       <c r="H85" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I85" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="J85" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="K85" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L85" t="n">
         <v>5.1</v>
@@ -15892,31 +15892,31 @@
         <v>1.42</v>
       </c>
       <c r="T85" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U85" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V85" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W85" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X85" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
       </c>
       <c r="Z85" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA85" t="n">
         <v>14.5</v>
       </c>
       <c r="AB85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC85" t="n">
         <v>8.25</v>
@@ -15931,7 +15931,7 @@
         <v>80</v>
       </c>
       <c r="AG85" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH85" t="n">
         <v>12</v>
@@ -15943,7 +15943,7 @@
         <v>15.5</v>
       </c>
       <c r="AK85" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL85" t="n">
         <v>55</v>
@@ -15955,10 +15955,10 @@
         <v>3.5</v>
       </c>
       <c r="AO85" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP85" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ85" t="n">
         <v>30</v>
@@ -15970,7 +15970,7 @@
         <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU85" t="n">
         <v>7.4</v>
@@ -15988,19 +15988,19 @@
         <v>6.4</v>
       </c>
       <c r="AZ85" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA85" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB85" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC85" t="n">
         <v>200</v>
       </c>
-      <c r="BC85" t="n">
-        <v>250</v>
-      </c>
       <c r="BD85" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86">
@@ -16035,16 +16035,16 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H86" t="n">
         <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J86" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K86" t="n">
         <v>2.2</v>
@@ -16095,7 +16095,7 @@
         <v>29</v>
       </c>
       <c r="AA86" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB86" t="n">
         <v>29</v>
@@ -16122,7 +16122,7 @@
         <v>12</v>
       </c>
       <c r="AJ86" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK86" t="n">
         <v>23</v>
@@ -16134,7 +16134,7 @@
         <v>29</v>
       </c>
       <c r="AN86" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO86" t="n">
         <v>15</v>
@@ -16229,43 +16229,43 @@
         <v>2.27</v>
       </c>
       <c r="K87" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L87" t="n">
         <v>4.7</v>
       </c>
       <c r="M87" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N87" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O87" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P87" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U87" t="n">
         <v>1.85</v>
-      </c>
-      <c r="R87" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S87" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T87" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U87" t="n">
-        <v>1.83</v>
       </c>
       <c r="V87" t="n">
         <v>1.87</v>
       </c>
       <c r="W87" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X87" t="n">
         <v>7.8</v>
@@ -16283,10 +16283,10 @@
         <v>27</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AE87" t="n">
         <v>16.5</v>
@@ -16298,10 +16298,10 @@
         <v>600</v>
       </c>
       <c r="AH87" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ87" t="n">
         <v>14.5</v>
@@ -16319,13 +16319,13 @@
         <v>3.55</v>
       </c>
       <c r="AO87" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AP87" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR87" t="n">
         <v>65</v>
@@ -16334,7 +16334,7 @@
         <v>250</v>
       </c>
       <c r="AT87" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU87" t="n">
         <v>7.8</v>
@@ -16399,22 +16399,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>3.15</v>
       </c>
       <c r="I88" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="J88" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K88" t="n">
         <v>2.1</v>
       </c>
       <c r="L88" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
@@ -16429,10 +16429,10 @@
         <v>2.92</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R88" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S88" t="n">
         <v>1.39</v>
@@ -16444,19 +16444,19 @@
         <v>1.7</v>
       </c>
       <c r="V88" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W88" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="X88" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Y88" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Z88" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AA88" t="n">
         <v>32</v>
@@ -16474,22 +16474,22 @@
         <v>13.5</v>
       </c>
       <c r="AF88" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG88" t="n">
         <v>500</v>
       </c>
       <c r="AH88" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AI88" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AJ88" t="n">
         <v>8.5</v>
       </c>
       <c r="AK88" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL88" t="n">
         <v>16.5</v>
@@ -16498,10 +16498,10 @@
         <v>26</v>
       </c>
       <c r="AN88" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="AO88" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AP88" t="n">
         <v>24</v>
@@ -16531,10 +16531,10 @@
         <v>51</v>
       </c>
       <c r="AY88" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AZ88" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="BA88" t="n">
         <v>17</v>
@@ -16590,13 +16590,13 @@
         <v>2.27</v>
       </c>
       <c r="J89" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
         <v>1.88</v>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
@@ -16629,10 +16629,10 @@
         <v>1.78</v>
       </c>
       <c r="W89" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X89" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y89" t="n">
         <v>11.5</v>
@@ -16662,7 +16662,7 @@
         <v>700</v>
       </c>
       <c r="AH89" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AI89" t="n">
         <v>10.5</v>
@@ -16674,7 +16674,7 @@
         <v>23</v>
       </c>
       <c r="AL89" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM89" t="n">
         <v>32</v>
@@ -16683,10 +16683,10 @@
         <v>4.9</v>
       </c>
       <c r="AO89" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AP89" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AQ89" t="n">
         <v>110</v>
@@ -16719,13 +16719,13 @@
         <v>12.5</v>
       </c>
       <c r="BA89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB89" t="n">
         <v>55</v>
       </c>
       <c r="BC89" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="BD89" t="n">
         <v>350</v>
@@ -16763,28 +16763,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H90" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="I90" t="n">
-        <v>2.52</v>
+        <v>2.35</v>
       </c>
       <c r="J90" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K90" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L90" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M90" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N90" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O90" t="n">
         <v>1.57</v>
@@ -16793,10 +16793,10 @@
         <v>2.3</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="R90" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S90" t="n">
         <v>1.6</v>
@@ -16811,70 +16811,70 @@
         <v>1.62</v>
       </c>
       <c r="W90" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="X90" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y90" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z90" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA90" t="n">
         <v>37</v>
       </c>
-      <c r="AA90" t="n">
-        <v>35</v>
-      </c>
       <c r="AB90" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AC90" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD90" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AE90" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF90" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG90" t="n">
         <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AI90" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ90" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK90" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AL90" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM90" t="n">
         <v>50</v>
       </c>
       <c r="AN90" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="AO90" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP90" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AQ90" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AR90" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS90" t="n">
         <v>500</v>
@@ -16886,7 +16886,7 @@
         <v>8.25</v>
       </c>
       <c r="AV90" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW90" t="n">
         <v>51</v>
@@ -16895,19 +16895,19 @@
         <v>51</v>
       </c>
       <c r="AY90" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="AZ90" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="BA90" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB90" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BC90" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BD90" t="n">
         <v>500</v>
@@ -16945,115 +16945,115 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I91" t="n">
-        <v>9.75</v>
+        <v>7.6</v>
       </c>
       <c r="J91" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="n">
         <v>2.7</v>
       </c>
       <c r="L91" t="n">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="M91" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N91" t="n">
         <v>9.75</v>
       </c>
       <c r="O91" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P91" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="R91" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="S91" t="n">
         <v>1.24</v>
       </c>
       <c r="T91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="U91" t="n">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="V91" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="W91" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X91" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="Y91" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z91" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AA91" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB91" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC91" t="n">
         <v>9.75</v>
       </c>
       <c r="AD91" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE91" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF91" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG91" t="n">
         <v>450</v>
       </c>
       <c r="AH91" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="AI91" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ91" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AK91" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AL91" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AN91" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO91" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AP91" t="n">
         <v>13.5</v>
       </c>
       <c r="AQ91" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AR91" t="n">
         <v>32</v>
@@ -17062,10 +17062,10 @@
         <v>150</v>
       </c>
       <c r="AT91" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AU91" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV91" t="n">
         <v>60</v>
@@ -17077,19 +17077,19 @@
         <v>51</v>
       </c>
       <c r="AY91" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="AZ91" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="BA91" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BB91" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="BC91" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD91" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S2" t="n">
         <v>1.25</v>
@@ -789,16 +789,16 @@
         <v>3.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9.5</v>
@@ -813,22 +813,22 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
         <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI2" t="n">
         <v>51</v>
@@ -894,7 +894,7 @@
         <v>201</v>
       </c>
       <c r="BD2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
@@ -1058,7 +1058,7 @@
         <v>301</v>
       </c>
       <c r="AX3" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
@@ -1114,16 +1114,16 @@
         <v>1.5</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I4" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J4" t="n">
         <v>2.05</v>
       </c>
       <c r="K4" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1135,16 +1135,16 @@
         <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1174,13 +1174,13 @@
         <v>12</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
@@ -1216,10 +1216,10 @@
         <v>7.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>41</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1341,7 +1341,7 @@
         <v>1.91</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
         <v>12</v>
@@ -1350,7 +1350,7 @@
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1422,7 +1422,7 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY5" t="n">
         <v>4.75</v>
@@ -1666,10 +1666,10 @@
         <v>2.75</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L7" t="n">
         <v>3.6</v>
@@ -1681,16 +1681,16 @@
         <v>5.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
         <v>1.67</v>
@@ -1699,13 +1699,13 @@
         <v>2.1</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X7" t="n">
         <v>12</v>
@@ -1732,7 +1732,7 @@
         <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>201</v>
@@ -1753,7 +1753,7 @@
         <v>29</v>
       </c>
       <c r="AM7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="n">
         <v>4.75</v>
@@ -1777,7 +1777,7 @@
         <v>2.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
@@ -1839,130 +1839,130 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="I8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J8" t="n">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>4.05</v>
+        <v>4.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>2.22</v>
+        <v>2.37</v>
       </c>
       <c r="S8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="T8" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="W8" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="X8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK8" t="n">
         <v>45</v>
       </c>
       <c r="AL8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM8" t="n">
         <v>26</v>
       </c>
-      <c r="AM8" t="n">
-        <v>28</v>
-      </c>
       <c r="AN8" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AO8" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AP8" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AS8" t="n">
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW8" t="n">
         <v>81</v>
@@ -1971,22 +1971,22 @@
         <v>81</v>
       </c>
       <c r="AY8" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AZ8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC8" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BD8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -2024,31 +2024,31 @@
         <v>1.72</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="I9" t="n">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="K9" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P9" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="Q9" t="n">
         <v>1.65</v>
@@ -2057,10 +2057,10 @@
         <v>2.15</v>
       </c>
       <c r="S9" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U9" t="n">
         <v>1.62</v>
@@ -2069,16 +2069,16 @@
         <v>2.15</v>
       </c>
       <c r="W9" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="X9" t="n">
         <v>9.25</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
         <v>12.5</v>
@@ -2087,10 +2087,10 @@
         <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="AE9" t="n">
         <v>13.5</v>
@@ -2105,31 +2105,31 @@
         <v>14.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AM9" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP9" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>50</v>
@@ -2138,10 +2138,10 @@
         <v>175</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU9" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV9" t="n">
         <v>55</v>
@@ -2153,13 +2153,13 @@
         <v>81</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB9" t="n">
         <v>120</v>
@@ -2206,19 +2206,19 @@
         <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I10" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K10" t="n">
         <v>2.52</v>
       </c>
       <c r="L10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
@@ -2227,34 +2227,34 @@
         <v>10</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P10" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R10" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
         <v>1.23</v>
       </c>
       <c r="T10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="U10" t="n">
         <v>1.44</v>
       </c>
       <c r="V10" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
         <v>8.5</v>
@@ -2263,7 +2263,7 @@
         <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AB10" t="n">
         <v>16.5</v>
@@ -2278,13 +2278,13 @@
         <v>12</v>
       </c>
       <c r="AF10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>30</v>
@@ -2296,10 +2296,10 @@
         <v>65</v>
       </c>
       <c r="AL10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN10" t="n">
         <v>4.1</v>
@@ -2308,19 +2308,19 @@
         <v>8</v>
       </c>
       <c r="AP10" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS10" t="n">
         <v>110</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AU10" t="n">
         <v>6.5</v>
@@ -2338,10 +2338,10 @@
         <v>6.5</v>
       </c>
       <c r="AZ10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BB10" t="n">
         <v>90</v>
@@ -2350,7 +2350,7 @@
         <v>90</v>
       </c>
       <c r="BD10" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
@@ -2385,46 +2385,46 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>4.05</v>
       </c>
       <c r="I11" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J11" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L11" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="U11" t="n">
         <v>1.72</v>
@@ -2433,40 +2433,40 @@
         <v>2</v>
       </c>
       <c r="W11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X11" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
         <v>15.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15</v>
-      </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
@@ -2475,37 +2475,37 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AM11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN11" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ11" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AR11" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS11" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV11" t="n">
         <v>60</v>
@@ -2517,22 +2517,22 @@
         <v>81</v>
       </c>
       <c r="AY11" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="BA11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="BB11" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="BC11" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BD11" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12">
@@ -2573,7 +2573,7 @@
         <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J12" t="n">
         <v>2.45</v>
@@ -2582,31 +2582,31 @@
         <v>2.37</v>
       </c>
       <c r="L12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>4.4</v>
+        <v>4.35</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="R12" t="n">
         <v>2.32</v>
       </c>
       <c r="S12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="U12" t="n">
         <v>1.52</v>
@@ -2618,28 +2618,28 @@
         <v>10.5</v>
       </c>
       <c r="X12" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y12" t="n">
         <v>8.75</v>
       </c>
       <c r="Z12" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
         <v>19.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AE12" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>40</v>
@@ -2657,7 +2657,7 @@
         <v>11.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AL12" t="n">
         <v>24</v>
@@ -2675,7 +2675,7 @@
         <v>15</v>
       </c>
       <c r="AQ12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR12" t="n">
         <v>50</v>
@@ -2684,7 +2684,7 @@
         <v>150</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AU12" t="n">
         <v>6.6</v>
@@ -2752,7 +2752,7 @@
         <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I13" t="n">
         <v>7.5</v>
@@ -2773,52 +2773,52 @@
         <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V13" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="n">
         <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2830,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
@@ -2842,22 +2842,22 @@
         <v>81</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
         <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>
       </c>
       <c r="AP13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>15</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>17</v>
       </c>
       <c r="AR13" t="n">
         <v>34</v>
@@ -2866,7 +2866,7 @@
         <v>81</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
@@ -2875,22 +2875,22 @@
         <v>41</v>
       </c>
       <c r="AW13" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX13" t="n">
         <v>151</v>
       </c>
       <c r="AY13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ13" t="n">
         <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
         <v>101</v>
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K14" t="n">
         <v>2.2</v>
@@ -2973,19 +2973,19 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
         <v>17</v>
@@ -2994,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC14" t="n">
         <v>11</v>
@@ -3009,13 +3009,13 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
         <v>12</v>
       </c>
       <c r="AI14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ14" t="n">
         <v>13</v>
@@ -3033,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3051,7 +3051,7 @@
         <v>3</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3066,13 +3066,13 @@
         <v>5.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA14" t="n">
         <v>26</v>
       </c>
       <c r="BB14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3122,7 +3122,7 @@
         <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
@@ -3227,7 +3227,7 @@
         <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
         <v>3.25</v>
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3495,22 +3495,22 @@
         <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
         <v>1.57</v>
@@ -4205,28 +4205,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J21" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
         <v>1.91</v>
       </c>
       <c r="L21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.62</v>
@@ -4253,16 +4253,16 @@
         <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y21" t="n">
         <v>10</v>
       </c>
       <c r="Z21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4271,7 +4271,7 @@
         <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -4280,22 +4280,22 @@
         <v>26</v>
       </c>
       <c r="AF21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG21" t="n">
         <v>201</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
         <v>19</v>
       </c>
       <c r="AK21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
         <v>51</v>
@@ -4304,10 +4304,10 @@
         <v>67</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
         <v>29</v>
@@ -4325,7 +4325,7 @@
         <v>2.2</v>
       </c>
       <c r="AU21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>101</v>
@@ -4337,19 +4337,19 @@
         <v>51</v>
       </c>
       <c r="AY21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ21" t="n">
         <v>34</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC21" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
         <v>501</v>
@@ -4751,40 +4751,40 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J24" t="n">
         <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
         <v>2.88</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4799,10 +4799,10 @@
         <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
@@ -4823,25 +4823,25 @@
         <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH24" t="n">
         <v>7</v>
       </c>
       <c r="AI24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>19</v>
@@ -4850,7 +4850,7 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO24" t="n">
         <v>19</v>
@@ -4883,7 +4883,7 @@
         <v>81</v>
       </c>
       <c r="AY24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AZ24" t="n">
         <v>12</v>
@@ -4898,7 +4898,7 @@
         <v>67</v>
       </c>
       <c r="BD24" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25">
@@ -4933,13 +4933,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -4948,7 +4948,7 @@
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
@@ -4957,10 +4957,10 @@
         <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q25" t="n">
         <v>1.7</v>
@@ -4981,10 +4981,10 @@
         <v>2.2</v>
       </c>
       <c r="W25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -5068,7 +5068,7 @@
         <v>4.75</v>
       </c>
       <c r="AZ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA25" t="n">
         <v>21</v>
@@ -5115,19 +5115,19 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
         <v>4.5</v>
@@ -5136,58 +5136,58 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S26" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE26" t="n">
         <v>13</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>41</v>
@@ -5196,16 +5196,16 @@
         <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL26" t="n">
         <v>34</v>
@@ -5217,13 +5217,13 @@
         <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
       </c>
       <c r="AQ26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR26" t="n">
         <v>41</v>
@@ -5232,13 +5232,13 @@
         <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU26" t="n">
         <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW26" t="n">
         <v>126</v>
@@ -5250,7 +5250,7 @@
         <v>6.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA26" t="n">
         <v>26</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="H27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K27" t="n">
         <v>2.6</v>
       </c>
       <c r="L27" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M27" t="n">
         <v>1.02</v>
@@ -5363,31 +5363,31 @@
         <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="n">
         <v>13</v>
       </c>
       <c r="AI27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL27" t="n">
         <v>13</v>
@@ -5399,13 +5399,13 @@
         <v>6</v>
       </c>
       <c r="AO27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP27" t="n">
         <v>19</v>
       </c>
       <c r="AQ27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR27" t="n">
         <v>51</v>
@@ -5417,7 +5417,7 @@
         <v>4</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV27" t="n">
         <v>34</v>
@@ -5429,16 +5429,16 @@
         <v>151</v>
       </c>
       <c r="AY27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AZ27" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="BA27" t="n">
         <v>15</v>
       </c>
       <c r="BB27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BC27" t="n">
         <v>41</v>
@@ -5479,13 +5479,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
         <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
@@ -5494,7 +5494,7 @@
         <v>2.5</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5509,10 +5509,10 @@
         <v>5.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S28" t="n">
         <v>1.25</v>
@@ -5521,22 +5521,22 @@
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W28" t="n">
         <v>9.5</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
@@ -5575,7 +5575,7 @@
         <v>41</v>
       </c>
       <c r="AM28" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN28" t="n">
         <v>3.75</v>
@@ -5599,7 +5599,7 @@
         <v>3.75</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV28" t="n">
         <v>41</v>
@@ -5614,7 +5614,7 @@
         <v>7.5</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA28" t="n">
         <v>29</v>
@@ -5623,7 +5623,7 @@
         <v>81</v>
       </c>
       <c r="BC28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5739,7 +5739,7 @@
         <v>81</v>
       </c>
       <c r="AG29" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
         <v>12</v>
@@ -5843,13 +5843,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
         <v>3.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -5861,10 +5861,10 @@
         <v>3.2</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -5873,10 +5873,10 @@
         <v>3.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R30" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -5891,10 +5891,10 @@
         <v>1.83</v>
       </c>
       <c r="W30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
@@ -5903,7 +5903,7 @@
         <v>29</v>
       </c>
       <c r="AA30" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB30" t="n">
         <v>34</v>
@@ -5927,7 +5927,7 @@
         <v>7.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ30" t="n">
         <v>10</v>
@@ -5972,16 +5972,16 @@
         <v>126</v>
       </c>
       <c r="AX30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA30" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB30" t="n">
         <v>51</v>
@@ -6025,22 +6025,22 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H31" t="n">
         <v>3.9</v>
       </c>
-      <c r="H31" t="n">
-        <v>3.75</v>
-      </c>
       <c r="I31" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J31" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K31" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L31" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -6055,16 +6055,16 @@
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R31" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U31" t="n">
         <v>1.53</v>
@@ -6076,16 +6076,16 @@
         <v>17</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB31" t="n">
         <v>29</v>
@@ -6118,13 +6118,13 @@
         <v>15</v>
       </c>
       <c r="AL31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM31" t="n">
         <v>19</v>
       </c>
       <c r="AN31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO31" t="n">
         <v>21</v>
@@ -6142,10 +6142,10 @@
         <v>126</v>
       </c>
       <c r="AT31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV31" t="n">
         <v>41</v>
@@ -6160,13 +6160,13 @@
         <v>4</v>
       </c>
       <c r="AZ31" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BC31" t="n">
         <v>41</v>
@@ -6183,12 +6183,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>04/10/2024</t>
+          <t>05/10/2024</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6207,7 +6207,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H32" t="n">
         <v>3.1</v>
@@ -6222,7 +6222,7 @@
         <v>1.91</v>
       </c>
       <c r="L32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.11</v>
@@ -6243,16 +6243,16 @@
         <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U32" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W32" t="n">
         <v>4.33</v>
@@ -6306,7 +6306,7 @@
         <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO32" t="n">
         <v>11</v>
@@ -6324,7 +6324,7 @@
         <v>301</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU32" t="n">
         <v>10</v>
@@ -6395,7 +6395,7 @@
         <v>3.4</v>
       </c>
       <c r="I33" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J33" t="n">
         <v>2.75</v>
@@ -6437,7 +6437,7 @@
         <v>2</v>
       </c>
       <c r="W33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X33" t="n">
         <v>10</v>
@@ -6473,10 +6473,10 @@
         <v>11</v>
       </c>
       <c r="AI33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK33" t="n">
         <v>41</v>
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7135,10 +7135,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7147,10 +7147,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7168,10 +7168,10 @@
         <v>9</v>
       </c>
       <c r="X37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
         <v>23</v>
@@ -7183,7 +7183,7 @@
         <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
@@ -7231,7 +7231,7 @@
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
         <v>3</v>
@@ -7249,7 +7249,7 @@
         <v>81</v>
       </c>
       <c r="AY37" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AZ37" t="n">
         <v>15</v>
@@ -7299,22 +7299,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K38" t="n">
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.03</v>
@@ -7329,25 +7329,25 @@
         <v>5.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V38" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
@@ -7359,16 +7359,16 @@
         <v>15</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB38" t="n">
         <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE38" t="n">
         <v>12</v>
@@ -7383,7 +7383,7 @@
         <v>19</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
@@ -7395,7 +7395,7 @@
         <v>34</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN38" t="n">
         <v>4</v>
@@ -7407,7 +7407,7 @@
         <v>15</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
@@ -7416,7 +7416,7 @@
         <v>81</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
@@ -7425,7 +7425,7 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX38" t="n">
         <v>81</v>
@@ -7481,76 +7481,76 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I39" t="n">
         <v>7</v>
       </c>
       <c r="J39" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="K39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L39" t="n">
         <v>6</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N39" t="n">
+        <v>23</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W39" t="n">
+        <v>11</v>
+      </c>
+      <c r="X39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB39" t="n">
         <v>19</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2</v>
-      </c>
-      <c r="W39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA39" t="n">
+      <c r="AC39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD39" t="n">
         <v>11</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>9.5</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7559,16 +7559,16 @@
         <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI39" t="n">
         <v>41</v>
       </c>
       <c r="AJ39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK39" t="n">
         <v>67</v>
@@ -7580,34 +7580,34 @@
         <v>41</v>
       </c>
       <c r="AN39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO39" t="n">
         <v>6.5</v>
       </c>
       <c r="AP39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ39" t="n">
         <v>17</v>
       </c>
       <c r="AR39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS39" t="n">
         <v>81</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU39" t="n">
         <v>8</v>
       </c>
       <c r="AV39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX39" t="n">
         <v>81</v>
@@ -7616,10 +7616,10 @@
         <v>8.5</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7666,16 +7666,16 @@
         <v>4.5</v>
       </c>
       <c r="H40" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J40" t="n">
         <v>4.5</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
         <v>2.25</v>
@@ -7711,7 +7711,7 @@
         <v>2.2</v>
       </c>
       <c r="W40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X40" t="n">
         <v>26</v>
@@ -7729,7 +7729,7 @@
         <v>34</v>
       </c>
       <c r="AC40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD40" t="n">
         <v>7.5</v>
@@ -7753,7 +7753,7 @@
         <v>8.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL40" t="n">
         <v>13</v>
@@ -8027,22 +8027,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J42" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K42" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L42" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.05</v>
@@ -8051,106 +8051,106 @@
         <v>11</v>
       </c>
       <c r="O42" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P42" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R42" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S42" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W42" t="n">
         <v>6</v>
       </c>
       <c r="X42" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA42" t="n">
         <v>13</v>
       </c>
       <c r="AB42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG42" t="n">
         <v>501</v>
       </c>
       <c r="AH42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
         <v>41</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK42" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO42" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP42" t="n">
         <v>21</v>
       </c>
       <c r="AQ42" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR42" t="n">
         <v>51</v>
       </c>
       <c r="AS42" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW42" t="n">
         <v>81</v>
@@ -8159,22 +8159,22 @@
         <v>81</v>
       </c>
       <c r="AY42" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB42" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC42" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD42" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43">
@@ -8209,16 +8209,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H43" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I43" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K43" t="n">
         <v>2</v>
@@ -8227,10 +8227,10 @@
         <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O43" t="n">
         <v>1.44</v>
@@ -8260,7 +8260,7 @@
         <v>5.5</v>
       </c>
       <c r="X43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
         <v>9</v>
@@ -8269,7 +8269,7 @@
         <v>15</v>
       </c>
       <c r="AA43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB43" t="n">
         <v>34</v>
@@ -8278,7 +8278,7 @@
         <v>7</v>
       </c>
       <c r="AD43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE43" t="n">
         <v>19</v>
@@ -8296,7 +8296,7 @@
         <v>21</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="n">
         <v>51</v>
@@ -8308,10 +8308,10 @@
         <v>51</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP43" t="n">
         <v>26</v>
@@ -8353,7 +8353,7 @@
         <v>101</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD43" t="n">
         <v>351</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="H45" t="n">
         <v>4.55</v>
       </c>
       <c r="I45" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="J45" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="K45" t="n">
         <v>2.5</v>
@@ -8594,13 +8594,13 @@
         <v>1.01</v>
       </c>
       <c r="N45" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="P45" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>1.62</v>
@@ -8609,37 +8609,37 @@
         <v>2.02</v>
       </c>
       <c r="S45" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="T45" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="U45" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="V45" t="n">
-        <v>2.13</v>
+        <v>2.02</v>
       </c>
       <c r="W45" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="X45" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z45" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA45" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AB45" t="n">
         <v>40</v>
       </c>
       <c r="AC45" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD45" t="n">
         <v>8.25</v>
@@ -8657,7 +8657,7 @@
         <v>7.8</v>
       </c>
       <c r="AI45" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AJ45" t="n">
         <v>7.2</v>
@@ -8672,7 +8672,7 @@
         <v>17</v>
       </c>
       <c r="AN45" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AO45" t="n">
         <v>35</v>
@@ -8755,7 +8755,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H46" t="n">
         <v>4.2</v>
@@ -8767,7 +8767,7 @@
         <v>2.1</v>
       </c>
       <c r="K46" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L46" t="n">
         <v>6</v>
@@ -8785,10 +8785,10 @@
         <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S46" t="n">
         <v>1.33</v>
@@ -8824,7 +8824,7 @@
         <v>12</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE46" t="n">
         <v>17</v>
@@ -8836,10 +8836,10 @@
         <v>251</v>
       </c>
       <c r="AH46" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI46" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ46" t="n">
         <v>19</v>
@@ -9122,10 +9122,10 @@
         <v>1.39</v>
       </c>
       <c r="H48" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I48" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="J48" t="n">
         <v>1.87</v>
@@ -9161,10 +9161,10 @@
         <v>3.4</v>
       </c>
       <c r="U48" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V48" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W48" t="n">
         <v>7.7</v>
@@ -9176,7 +9176,7 @@
         <v>8.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AA48" t="n">
         <v>11</v>
@@ -9194,7 +9194,7 @@
         <v>17.5</v>
       </c>
       <c r="AF48" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG48" t="n">
         <v>500</v>
@@ -9218,7 +9218,7 @@
         <v>60</v>
       </c>
       <c r="AN48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO48" t="n">
         <v>6.3</v>
@@ -9233,13 +9233,13 @@
         <v>40</v>
       </c>
       <c r="AS48" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT48" t="n">
         <v>3.15</v>
       </c>
       <c r="AU48" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV48" t="n">
         <v>65</v>
@@ -9266,7 +9266,7 @@
         <v>250</v>
       </c>
       <c r="BD48" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
@@ -9301,28 +9301,28 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>2.9</v>
       </c>
       <c r="I49" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="n">
         <v>1.95</v>
       </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O49" t="n">
         <v>1.5</v>
@@ -9343,22 +9343,22 @@
         <v>2.25</v>
       </c>
       <c r="U49" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V49" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y49" t="n">
         <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA49" t="n">
         <v>19</v>
@@ -9367,13 +9367,13 @@
         <v>41</v>
       </c>
       <c r="AC49" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD49" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD49" t="n">
-        <v>6</v>
-      </c>
       <c r="AE49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF49" t="n">
         <v>81</v>
@@ -9382,7 +9382,7 @@
         <v>101</v>
       </c>
       <c r="AH49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI49" t="n">
         <v>21</v>
@@ -9406,7 +9406,7 @@
         <v>11</v>
       </c>
       <c r="AP49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ49" t="n">
         <v>41</v>
@@ -9436,7 +9436,7 @@
         <v>6</v>
       </c>
       <c r="AZ49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA49" t="n">
         <v>41</v>
@@ -9486,10 +9486,10 @@
         <v>5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I50" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J50" t="n">
         <v>6.5</v>
@@ -9513,10 +9513,10 @@
         <v>2.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R50" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S50" t="n">
         <v>1.57</v>
@@ -9531,7 +9531,7 @@
         <v>1.5</v>
       </c>
       <c r="W50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X50" t="n">
         <v>26</v>
@@ -9549,7 +9549,7 @@
         <v>67</v>
       </c>
       <c r="AC50" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD50" t="n">
         <v>7</v>
@@ -9573,7 +9573,7 @@
         <v>9.5</v>
       </c>
       <c r="AK50" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL50" t="n">
         <v>19</v>
@@ -9621,7 +9621,7 @@
         <v>9.5</v>
       </c>
       <c r="BA50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB50" t="n">
         <v>34</v>
@@ -9665,34 +9665,34 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I51" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J51" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K51" t="n">
         <v>2.5</v>
       </c>
       <c r="L51" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M51" t="n">
         <v>1.02</v>
       </c>
       <c r="N51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P51" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q51" t="n">
         <v>1.48</v>
@@ -9719,25 +9719,25 @@
         <v>13</v>
       </c>
       <c r="Y51" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z51" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB51" t="n">
         <v>19</v>
       </c>
       <c r="AC51" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD51" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF51" t="n">
         <v>29</v>
@@ -9752,28 +9752,28 @@
         <v>21</v>
       </c>
       <c r="AJ51" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK51" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL51" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM51" t="n">
         <v>23</v>
       </c>
       <c r="AN51" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ51" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR51" t="n">
         <v>41</v>
@@ -9800,13 +9800,13 @@
         <v>5.5</v>
       </c>
       <c r="AZ51" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA51" t="n">
         <v>19</v>
       </c>
       <c r="BB51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC51" t="n">
         <v>51</v>
@@ -9868,7 +9868,7 @@
         <v>1.01</v>
       </c>
       <c r="N52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O52" t="n">
         <v>1.07</v>
@@ -10217,13 +10217,13 @@
         <v>5</v>
       </c>
       <c r="I54" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J54" t="n">
         <v>1.91</v>
       </c>
       <c r="K54" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L54" t="n">
         <v>5.5</v>
@@ -10301,7 +10301,7 @@
         <v>17</v>
       </c>
       <c r="AK54" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL54" t="n">
         <v>41</v>
@@ -10310,7 +10310,7 @@
         <v>34</v>
       </c>
       <c r="AN54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO54" t="n">
         <v>7</v>
@@ -10575,13 +10575,13 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>3.6</v>
       </c>
       <c r="I56" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J56" t="n">
         <v>3.75</v>
@@ -10590,7 +10590,7 @@
         <v>2.25</v>
       </c>
       <c r="L56" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M56" t="n">
         <v>1.04</v>
@@ -10632,10 +10632,10 @@
         <v>12</v>
       </c>
       <c r="Z56" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA56" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB56" t="n">
         <v>29</v>
@@ -10677,7 +10677,7 @@
         <v>5.5</v>
       </c>
       <c r="AO56" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP56" t="n">
         <v>23</v>
@@ -10698,7 +10698,7 @@
         <v>7.5</v>
       </c>
       <c r="AV56" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW56" t="n">
         <v>126</v>
@@ -11068,7 +11068,7 @@
         <v>351</v>
       </c>
       <c r="AX58" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AY58" t="n">
         <v>4.5</v>
@@ -11145,10 +11145,10 @@
         <v>13</v>
       </c>
       <c r="O59" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P59" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q59" t="n">
         <v>1.7</v>
@@ -11667,22 +11667,22 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I62" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J62" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K62" t="n">
         <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M62" t="n">
         <v>1.07</v>
@@ -11691,22 +11691,22 @@
         <v>9</v>
       </c>
       <c r="O62" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R62" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T62" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U62" t="n">
         <v>2</v>
@@ -11715,7 +11715,7 @@
         <v>1.73</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X62" t="n">
         <v>21</v>
@@ -11724,7 +11724,7 @@
         <v>15</v>
       </c>
       <c r="Z62" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA62" t="n">
         <v>41</v>
@@ -11745,7 +11745,7 @@
         <v>67</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH62" t="n">
         <v>6</v>
@@ -11769,13 +11769,13 @@
         <v>6</v>
       </c>
       <c r="AO62" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP62" t="n">
         <v>34</v>
       </c>
       <c r="AQ62" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR62" t="n">
         <v>126</v>
@@ -11784,10 +11784,10 @@
         <v>301</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU62" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV62" t="n">
         <v>67</v>
@@ -11802,16 +11802,16 @@
         <v>3.75</v>
       </c>
       <c r="AZ62" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA62" t="n">
         <v>23</v>
       </c>
       <c r="BB62" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BC62" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BD62" t="n">
         <v>201</v>
@@ -11849,106 +11849,106 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="J63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N63" t="n">
+        <v>10</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P63" t="n">
         <v>3.5</v>
       </c>
-      <c r="K63" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M63" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N63" t="n">
-        <v>9</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P63" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S63" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U63" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V63" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W63" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X63" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z63" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA63" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB63" t="n">
         <v>34</v>
       </c>
       <c r="AC63" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD63" t="n">
         <v>6</v>
       </c>
       <c r="AE63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH63" t="n">
         <v>8</v>
       </c>
       <c r="AI63" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ63" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL63" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM63" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AN63" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO63" t="n">
         <v>17</v>
@@ -11963,10 +11963,10 @@
         <v>81</v>
       </c>
       <c r="AS63" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU63" t="n">
         <v>8</v>
@@ -11981,22 +11981,22 @@
         <v>81</v>
       </c>
       <c r="AY63" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ63" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA63" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BB63" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC63" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BD63" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64">
@@ -12213,28 +12213,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H65" t="n">
         <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J65" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K65" t="n">
         <v>2.05</v>
       </c>
       <c r="L65" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M65" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N65" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O65" t="n">
         <v>1.36</v>
@@ -12243,10 +12243,10 @@
         <v>3</v>
       </c>
       <c r="Q65" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R65" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S65" t="n">
         <v>1.44</v>
@@ -12273,7 +12273,7 @@
         <v>34</v>
       </c>
       <c r="AA65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB65" t="n">
         <v>41</v>
@@ -12294,10 +12294,10 @@
         <v>301</v>
       </c>
       <c r="AH65" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ65" t="n">
         <v>9.5</v>
@@ -12315,13 +12315,13 @@
         <v>5</v>
       </c>
       <c r="AO65" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP65" t="n">
         <v>29</v>
       </c>
       <c r="AQ65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR65" t="n">
         <v>81</v>
@@ -12333,7 +12333,7 @@
         <v>2.63</v>
       </c>
       <c r="AU65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV65" t="n">
         <v>51</v>
@@ -12577,13 +12577,13 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="J67" t="n">
         <v>3.75</v>
@@ -12607,10 +12607,10 @@
         <v>2.5</v>
       </c>
       <c r="Q67" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R67" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S67" t="n">
         <v>1.57</v>
@@ -12619,13 +12619,13 @@
         <v>2.25</v>
       </c>
       <c r="U67" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V67" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W67" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X67" t="n">
         <v>13</v>
@@ -12634,7 +12634,7 @@
         <v>12</v>
       </c>
       <c r="Z67" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA67" t="n">
         <v>29</v>
@@ -12649,7 +12649,7 @@
         <v>6</v>
       </c>
       <c r="AE67" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF67" t="n">
         <v>67</v>
@@ -12670,7 +12670,7 @@
         <v>26</v>
       </c>
       <c r="AL67" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM67" t="n">
         <v>41</v>
@@ -12709,10 +12709,10 @@
         <v>126</v>
       </c>
       <c r="AY67" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AZ67" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BA67" t="n">
         <v>29</v>
@@ -12724,7 +12724,7 @@
         <v>81</v>
       </c>
       <c r="BD67" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
     </row>
     <row r="68">
@@ -12941,16 +12941,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J69" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3.1</v>
       </c>
       <c r="K69" t="n">
         <v>2.05</v>
@@ -12959,10 +12959,10 @@
         <v>3.6</v>
       </c>
       <c r="M69" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N69" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O69" t="n">
         <v>1.36</v>
@@ -12971,16 +12971,16 @@
         <v>3</v>
       </c>
       <c r="Q69" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R69" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S69" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T69" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U69" t="n">
         <v>1.83</v>
@@ -13040,16 +13040,16 @@
         <v>34</v>
       </c>
       <c r="AN69" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP69" t="n">
         <v>26</v>
       </c>
       <c r="AQ69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR69" t="n">
         <v>67</v>
@@ -13058,10 +13058,10 @@
         <v>201</v>
       </c>
       <c r="AT69" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU69" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV69" t="n">
         <v>51</v>
@@ -13144,25 +13144,25 @@
         <v>1.06</v>
       </c>
       <c r="N70" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O70" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P70" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q70" t="n">
         <v>2.05</v>
       </c>
       <c r="R70" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S70" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U70" t="n">
         <v>1.83</v>
@@ -13174,7 +13174,7 @@
         <v>7</v>
       </c>
       <c r="X70" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y70" t="n">
         <v>9</v>
@@ -13240,10 +13240,10 @@
         <v>151</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU70" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV70" t="n">
         <v>51</v>
@@ -13270,7 +13270,7 @@
         <v>101</v>
       </c>
       <c r="BD70" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71">
@@ -13305,22 +13305,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="H71" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="J71" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -13335,10 +13335,10 @@
         <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="n">
         <v>1.44</v>
@@ -13356,25 +13356,25 @@
         <v>7.5</v>
       </c>
       <c r="X71" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y71" t="n">
         <v>10</v>
       </c>
-      <c r="Y71" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z71" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA71" t="n">
         <v>21</v>
       </c>
-      <c r="AA71" t="n">
-        <v>19</v>
-      </c>
       <c r="AB71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD71" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE71" t="n">
         <v>15</v>
@@ -13386,7 +13386,7 @@
         <v>700</v>
       </c>
       <c r="AH71" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI71" t="n">
         <v>15</v>
@@ -13395,10 +13395,10 @@
         <v>12</v>
       </c>
       <c r="AK71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL71" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM71" t="n">
         <v>41</v>
@@ -13407,10 +13407,10 @@
         <v>4.33</v>
       </c>
       <c r="AO71" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ71" t="n">
         <v>41</v>
@@ -13437,10 +13437,10 @@
         <v>81</v>
       </c>
       <c r="AY71" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ71" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA71" t="n">
         <v>29</v>
@@ -13487,22 +13487,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H72" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I72" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="J72" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
         <v>2.2</v>
       </c>
       <c r="L72" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="n">
         <v>1.05</v>
@@ -13535,10 +13535,10 @@
         <v>1.91</v>
       </c>
       <c r="W72" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y72" t="n">
         <v>13</v>
@@ -13547,10 +13547,10 @@
         <v>41</v>
       </c>
       <c r="AA72" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB72" t="n">
         <v>34</v>
-      </c>
-      <c r="AB72" t="n">
-        <v>41</v>
       </c>
       <c r="AC72" t="n">
         <v>11</v>
@@ -13559,19 +13559,19 @@
         <v>7.5</v>
       </c>
       <c r="AE72" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF72" t="n">
         <v>51</v>
       </c>
       <c r="AG72" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH72" t="n">
         <v>7.5</v>
       </c>
       <c r="AI72" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ72" t="n">
         <v>9</v>
@@ -13622,13 +13622,13 @@
         <v>4</v>
       </c>
       <c r="AZ72" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="BA72" t="n">
         <v>21</v>
       </c>
       <c r="BB72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BC72" t="n">
         <v>51</v>
@@ -13851,76 +13851,76 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="H74" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I74" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="J74" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="L74" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="M74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N74" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="O74" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="P74" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="R74" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="S74" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T74" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="U74" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V74" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W74" t="n">
-        <v>8.5</v>
+        <v>9.75</v>
       </c>
       <c r="X74" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Y74" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z74" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA74" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB74" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC74" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AD74" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE74" t="n">
         <v>12</v>
@@ -13929,76 +13929,76 @@
         <v>50</v>
       </c>
       <c r="AG74" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AH74" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AI74" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ74" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK74" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="AL74" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AM74" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AN74" t="n">
-        <v>4.4</v>
+        <v>4.65</v>
       </c>
       <c r="AO74" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ74" t="n">
         <v>55</v>
       </c>
       <c r="AR74" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS74" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT74" t="n">
-        <v>2.72</v>
+        <v>2.9</v>
       </c>
       <c r="AU74" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AV74" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB74" t="n">
         <v>55</v>
       </c>
-      <c r="AW74" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX74" t="n">
-        <v>51</v>
-      </c>
-      <c r="AY74" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AZ74" t="n">
-        <v>15</v>
-      </c>
-      <c r="BA74" t="n">
-        <v>21</v>
-      </c>
-      <c r="BB74" t="n">
-        <v>65</v>
-      </c>
       <c r="BC74" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BD74" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -14215,13 +14215,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I76" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J76" t="n">
         <v>4</v>
@@ -14257,10 +14257,10 @@
         <v>2.1</v>
       </c>
       <c r="U76" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V76" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W76" t="n">
         <v>6.5</v>
@@ -14281,7 +14281,7 @@
         <v>51</v>
       </c>
       <c r="AC76" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD76" t="n">
         <v>5.5</v>
@@ -14311,7 +14311,7 @@
         <v>29</v>
       </c>
       <c r="AM76" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN76" t="n">
         <v>4.75</v>
@@ -14335,7 +14335,7 @@
         <v>2.1</v>
       </c>
       <c r="AU76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV76" t="n">
         <v>81</v>
@@ -14397,22 +14397,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H77" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I77" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K77" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L77" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M77" t="n">
         <v>1.03</v>
@@ -14433,10 +14433,10 @@
         <v>2.15</v>
       </c>
       <c r="S77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U77" t="n">
         <v>2.1</v>
@@ -14454,16 +14454,16 @@
         <v>9</v>
       </c>
       <c r="Z77" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB77" t="n">
         <v>29</v>
       </c>
       <c r="AC77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD77" t="n">
         <v>10</v>
@@ -14472,25 +14472,25 @@
         <v>23</v>
       </c>
       <c r="AF77" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG77" t="n">
         <v>501</v>
       </c>
       <c r="AH77" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI77" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ77" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK77" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL77" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="n">
         <v>67</v>
@@ -14505,7 +14505,7 @@
         <v>19</v>
       </c>
       <c r="AQ77" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AR77" t="n">
         <v>41</v>
@@ -14514,7 +14514,7 @@
         <v>151</v>
       </c>
       <c r="AT77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU77" t="n">
         <v>10</v>
@@ -14538,10 +14538,10 @@
         <v>41</v>
       </c>
       <c r="BB77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC77" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD77" t="n">
         <v>401</v>
@@ -14579,40 +14579,40 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="H78" t="n">
         <v>3.8</v>
       </c>
       <c r="I78" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J78" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="K78" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L78" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="M78" t="n">
         <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="O78" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R78" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S78" t="n">
         <v>1.31</v>
@@ -14621,22 +14621,22 @@
         <v>3.15</v>
       </c>
       <c r="U78" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W78" t="n">
         <v>9.25</v>
       </c>
       <c r="X78" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Y78" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z78" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA78" t="n">
         <v>13.5</v>
@@ -14645,7 +14645,7 @@
         <v>21</v>
       </c>
       <c r="AC78" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AD78" t="n">
         <v>7.5</v>
@@ -14654,7 +14654,7 @@
         <v>13</v>
       </c>
       <c r="AF78" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG78" t="n">
         <v>300</v>
@@ -14666,31 +14666,31 @@
         <v>21</v>
       </c>
       <c r="AJ78" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK78" t="n">
         <v>50</v>
       </c>
       <c r="AL78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM78" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO78" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP78" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ78" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AR78" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS78" t="n">
         <v>175</v>
@@ -14699,7 +14699,7 @@
         <v>3.15</v>
       </c>
       <c r="AU78" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV78" t="n">
         <v>50</v>
@@ -14711,13 +14711,13 @@
         <v>51</v>
       </c>
       <c r="AY78" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AZ78" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="BA78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB78" t="n">
         <v>90</v>
@@ -14761,22 +14761,22 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H79" t="n">
         <v>3.25</v>
       </c>
       <c r="I79" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="J79" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K79" t="n">
         <v>2.1</v>
       </c>
       <c r="L79" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="M79" t="n">
         <v>1.05</v>
@@ -14794,7 +14794,7 @@
         <v>1.78</v>
       </c>
       <c r="R79" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S79" t="n">
         <v>1.39</v>
@@ -14809,7 +14809,7 @@
         <v>2.18</v>
       </c>
       <c r="W79" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="X79" t="n">
         <v>21</v>
@@ -14821,10 +14821,10 @@
         <v>50</v>
       </c>
       <c r="AA79" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB79" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC79" t="n">
         <v>7.6</v>
@@ -14836,16 +14836,16 @@
         <v>12</v>
       </c>
       <c r="AF79" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="n">
         <v>300</v>
       </c>
       <c r="AH79" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI79" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ79" t="n">
         <v>8.25</v>
@@ -14854,37 +14854,37 @@
         <v>20</v>
       </c>
       <c r="AL79" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AM79" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN79" t="n">
         <v>5.5</v>
       </c>
       <c r="AO79" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AP79" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AQ79" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR79" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS79" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT79" t="n">
         <v>2.77</v>
       </c>
       <c r="AU79" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV79" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW79" t="n">
         <v>51</v>
@@ -14893,19 +14893,19 @@
         <v>51</v>
       </c>
       <c r="AY79" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AZ79" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="BA79" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="BB79" t="n">
         <v>40</v>
       </c>
       <c r="BC79" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BD79" t="n">
         <v>200</v>
@@ -14943,22 +14943,22 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>3.65</v>
       </c>
       <c r="I80" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="J80" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="K80" t="n">
         <v>2.27</v>
       </c>
       <c r="L80" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="M80" t="n">
         <v>1.04</v>
@@ -14967,10 +14967,10 @@
         <v>8.5</v>
       </c>
       <c r="O80" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P80" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q80" t="n">
         <v>1.65</v>
@@ -14988,31 +14988,31 @@
         <v>1.6</v>
       </c>
       <c r="V80" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W80" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X80" t="n">
         <v>10.5</v>
       </c>
       <c r="Y80" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z80" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AA80" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AB80" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC80" t="n">
         <v>8.5</v>
       </c>
       <c r="AD80" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE80" t="n">
         <v>12.5</v>
@@ -15024,37 +15024,37 @@
         <v>300</v>
       </c>
       <c r="AH80" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI80" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AJ80" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AK80" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL80" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM80" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN80" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="AO80" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AP80" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ80" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR80" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS80" t="n">
         <v>175</v>
@@ -15075,19 +15075,19 @@
         <v>51</v>
       </c>
       <c r="AY80" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="AZ80" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA80" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB80" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC80" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BD80" t="n">
         <v>250</v>
@@ -15125,22 +15125,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I81" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K81" t="n">
         <v>2.3</v>
       </c>
       <c r="L81" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M81" t="n">
         <v>1.04</v>
@@ -15167,16 +15167,16 @@
         <v>3.25</v>
       </c>
       <c r="U81" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W81" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y81" t="n">
         <v>8.5</v>
@@ -15194,40 +15194,40 @@
         <v>13</v>
       </c>
       <c r="AD81" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF81" t="n">
         <v>41</v>
       </c>
       <c r="AG81" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH81" t="n">
         <v>13</v>
       </c>
       <c r="AI81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ81" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK81" t="n">
         <v>41</v>
       </c>
       <c r="AL81" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM81" t="n">
         <v>34</v>
       </c>
       <c r="AN81" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO81" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP81" t="n">
         <v>19</v>
@@ -15245,25 +15245,25 @@
         <v>3.25</v>
       </c>
       <c r="AU81" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV81" t="n">
         <v>51</v>
       </c>
       <c r="AW81" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="AX81" t="n">
         <v>301</v>
       </c>
       <c r="AY81" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB81" t="n">
         <v>67</v>
@@ -15307,40 +15307,40 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H82" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I82" t="n">
         <v>3.1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K82" t="n">
         <v>2.1</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N82" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O82" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P82" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R82" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S82" t="n">
         <v>1.4</v>
@@ -15349,10 +15349,10 @@
         <v>2.75</v>
       </c>
       <c r="U82" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V82" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W82" t="n">
         <v>7.5</v>
@@ -15376,7 +15376,7 @@
         <v>10</v>
       </c>
       <c r="AD82" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE82" t="n">
         <v>15</v>
@@ -15400,13 +15400,13 @@
         <v>34</v>
       </c>
       <c r="AL82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM82" t="n">
         <v>34</v>
       </c>
       <c r="AN82" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO82" t="n">
         <v>12</v>
@@ -15439,16 +15439,16 @@
         <v>126</v>
       </c>
       <c r="AY82" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AZ82" t="n">
         <v>19</v>
       </c>
       <c r="BA82" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB82" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC82" t="n">
         <v>81</v>
@@ -15489,34 +15489,34 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>3.1</v>
       </c>
       <c r="I83" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K83" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L83" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M83" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P83" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q83" t="n">
         <v>2.35</v>
@@ -15546,7 +15546,7 @@
         <v>9</v>
       </c>
       <c r="Z83" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA83" t="n">
         <v>17</v>
@@ -15570,10 +15570,10 @@
         <v>351</v>
       </c>
       <c r="AH83" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI83" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ83" t="n">
         <v>17</v>
@@ -15594,10 +15594,10 @@
         <v>10</v>
       </c>
       <c r="AP83" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ83" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR83" t="n">
         <v>67</v>
@@ -15621,10 +15621,10 @@
         <v>126</v>
       </c>
       <c r="AY83" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ83" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA83" t="n">
         <v>41</v>
@@ -15856,10 +15856,10 @@
         <v>1.72</v>
       </c>
       <c r="H85" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I85" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="J85" t="n">
         <v>2.3</v>
@@ -15871,10 +15871,10 @@
         <v>5.1</v>
       </c>
       <c r="M85" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N85" t="n">
-        <v>9.65</v>
+        <v>8</v>
       </c>
       <c r="O85" t="n">
         <v>1.33</v>
@@ -15895,22 +15895,22 @@
         <v>2.47</v>
       </c>
       <c r="U85" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V85" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W85" t="n">
         <v>6.1</v>
       </c>
       <c r="X85" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
       </c>
       <c r="Z85" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA85" t="n">
         <v>14.5</v>
@@ -15931,19 +15931,19 @@
         <v>80</v>
       </c>
       <c r="AG85" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH85" t="n">
         <v>12</v>
       </c>
       <c r="AI85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ85" t="n">
         <v>15.5</v>
       </c>
       <c r="AK85" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL85" t="n">
         <v>55</v>
@@ -15970,10 +15970,10 @@
         <v>250</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="AU85" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV85" t="n">
         <v>70</v>
@@ -15985,10 +15985,10 @@
         <v>81</v>
       </c>
       <c r="AY85" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA85" t="n">
         <v>32</v>
@@ -16035,22 +16035,22 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H86" t="n">
         <v>3.25</v>
       </c>
       <c r="I86" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J86" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K86" t="n">
         <v>2.2</v>
       </c>
       <c r="L86" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M86" t="n">
         <v>1.06</v>
@@ -16095,7 +16095,7 @@
         <v>29</v>
       </c>
       <c r="AA86" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB86" t="n">
         <v>29</v>
@@ -16122,7 +16122,7 @@
         <v>12</v>
       </c>
       <c r="AJ86" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK86" t="n">
         <v>23</v>
@@ -16134,10 +16134,10 @@
         <v>29</v>
       </c>
       <c r="AN86" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP86" t="n">
         <v>23</v>
@@ -16217,49 +16217,49 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H87" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I87" t="n">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="J87" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="K87" t="n">
         <v>2.18</v>
       </c>
       <c r="L87" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="M87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N87" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="O87" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P87" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R87" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T87" t="n">
         <v>2.75</v>
       </c>
       <c r="U87" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V87" t="n">
         <v>1.87</v>
@@ -16274,7 +16274,7 @@
         <v>8.25</v>
       </c>
       <c r="Z87" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AA87" t="n">
         <v>13.5</v>
@@ -16283,13 +16283,13 @@
         <v>27</v>
       </c>
       <c r="AC87" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD87" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE87" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF87" t="n">
         <v>75</v>
@@ -16301,31 +16301,31 @@
         <v>12.5</v>
       </c>
       <c r="AI87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ87" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK87" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL87" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AM87" t="n">
         <v>45</v>
       </c>
       <c r="AN87" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO87" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AP87" t="n">
         <v>18.5</v>
       </c>
       <c r="AQ87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR87" t="n">
         <v>65</v>
@@ -16337,7 +16337,7 @@
         <v>2.75</v>
       </c>
       <c r="AU87" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV87" t="n">
         <v>75</v>
@@ -16349,10 +16349,10 @@
         <v>51</v>
       </c>
       <c r="AY87" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AZ87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA87" t="n">
         <v>32</v>
@@ -16399,22 +16399,22 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I88" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J88" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K88" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L88" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M88" t="n">
         <v>1.01</v>
@@ -16429,10 +16429,10 @@
         <v>2.92</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R88" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S88" t="n">
         <v>1.39</v>
@@ -16447,76 +16447,76 @@
         <v>1.93</v>
       </c>
       <c r="W88" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="X88" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z88" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA88" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB88" t="n">
         <v>32</v>
       </c>
-      <c r="AB88" t="n">
-        <v>37</v>
-      </c>
       <c r="AC88" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD88" t="n">
         <v>6.1</v>
       </c>
       <c r="AE88" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF88" t="n">
         <v>60</v>
       </c>
       <c r="AG88" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH88" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AI88" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AJ88" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AK88" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL88" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AM88" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AN88" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AO88" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AP88" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ88" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR88" t="n">
         <v>100</v>
       </c>
-      <c r="AR88" t="n">
-        <v>120</v>
-      </c>
       <c r="AS88" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AU88" t="n">
         <v>6.6</v>
@@ -16531,22 +16531,22 @@
         <v>51</v>
       </c>
       <c r="AY88" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AZ88" t="n">
-        <v>10.5</v>
+        <v>11.25</v>
       </c>
       <c r="BA88" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="BB88" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BC88" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BD88" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89">
@@ -16763,28 +16763,28 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H90" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="I90" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="J90" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K90" t="n">
         <v>1.88</v>
       </c>
       <c r="L90" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="M90" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N90" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O90" t="n">
         <v>1.57</v>
@@ -16793,10 +16793,10 @@
         <v>2.3</v>
       </c>
       <c r="Q90" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R90" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S90" t="n">
         <v>1.6</v>
@@ -16814,7 +16814,7 @@
         <v>6.7</v>
       </c>
       <c r="X90" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y90" t="n">
         <v>12</v>
@@ -16823,16 +16823,16 @@
         <v>40</v>
       </c>
       <c r="AA90" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AB90" t="n">
         <v>60</v>
       </c>
       <c r="AC90" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AD90" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE90" t="n">
         <v>19.5</v>
@@ -16844,34 +16844,34 @@
         <v>1000</v>
       </c>
       <c r="AH90" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AI90" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AJ90" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AK90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM90" t="n">
         <v>50</v>
       </c>
       <c r="AN90" t="n">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AO90" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AP90" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ90" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR90" t="n">
         <v>200</v>
@@ -16880,13 +16880,13 @@
         <v>500</v>
       </c>
       <c r="AT90" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AU90" t="n">
         <v>8.25</v>
       </c>
       <c r="AV90" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AW90" t="n">
         <v>51</v>
@@ -16895,10 +16895,10 @@
         <v>51</v>
       </c>
       <c r="AY90" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AZ90" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="BA90" t="n">
         <v>28</v>
@@ -16907,7 +16907,7 @@
         <v>65</v>
       </c>
       <c r="BC90" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BD90" t="n">
         <v>500</v>
@@ -17127,22 +17127,22 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H92" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I92" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J92" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="K92" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="L92" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="M92" t="n">
         <v>1.05</v>
@@ -17163,10 +17163,10 @@
         <v>2.05</v>
       </c>
       <c r="S92" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T92" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="U92" t="n">
         <v>1.65</v>
@@ -17187,7 +17187,7 @@
         <v>16.5</v>
       </c>
       <c r="AA92" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB92" t="n">
         <v>23</v>
@@ -17196,7 +17196,7 @@
         <v>8</v>
       </c>
       <c r="AD92" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AE92" t="n">
         <v>13</v>
@@ -17208,7 +17208,7 @@
         <v>350</v>
       </c>
       <c r="AH92" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI92" t="n">
         <v>22</v>
@@ -17229,25 +17229,25 @@
         <v>3.9</v>
       </c>
       <c r="AO92" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AP92" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ92" t="n">
         <v>35</v>
       </c>
       <c r="AR92" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS92" t="n">
         <v>200</v>
       </c>
       <c r="AT92" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU92" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV92" t="n">
         <v>55</v>
@@ -17268,7 +17268,7 @@
         <v>24</v>
       </c>
       <c r="BB92" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BC92" t="n">
         <v>120</v>
@@ -17309,22 +17309,22 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="H93" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="K93" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L93" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M93" t="n">
         <v>1.05</v>
@@ -17339,49 +17339,49 @@
         <v>3.45</v>
       </c>
       <c r="Q93" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R93" t="n">
         <v>1.93</v>
       </c>
       <c r="S93" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="T93" t="n">
         <v>2.87</v>
       </c>
       <c r="U93" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V93" t="n">
         <v>1.8</v>
       </c>
       <c r="W93" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X93" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="Y93" t="n">
         <v>8.25</v>
       </c>
       <c r="Z93" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA93" t="n">
         <v>12.5</v>
       </c>
       <c r="AB93" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC93" t="n">
         <v>7.8</v>
       </c>
       <c r="AD93" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE93" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF93" t="n">
         <v>90</v>
@@ -17390,13 +17390,13 @@
         <v>700</v>
       </c>
       <c r="AH93" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AI93" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AJ93" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK93" t="n">
         <v>100</v>
@@ -17405,19 +17405,19 @@
         <v>55</v>
       </c>
       <c r="AM93" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN93" t="n">
         <v>3.35</v>
       </c>
       <c r="AO93" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AP93" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ93" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR93" t="n">
         <v>55</v>
@@ -17432,7 +17432,7 @@
         <v>8</v>
       </c>
       <c r="AV93" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW93" t="n">
         <v>51</v>
@@ -17441,13 +17441,13 @@
         <v>51</v>
       </c>
       <c r="AY93" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AZ93" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BA93" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB93" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -3313,10 +3313,10 @@
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.44</v>
@@ -3477,19 +3477,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
         <v>4.2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>5</v>
@@ -3513,25 +3513,25 @@
         <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W17" t="n">
         <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
@@ -3540,19 +3540,19 @@
         <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
         <v>201</v>
@@ -3561,13 +3561,13 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
       </c>
       <c r="AK17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="n">
         <v>41</v>
@@ -3591,16 +3591,16 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="n">
         <v>81</v>
@@ -3621,10 +3621,10 @@
         <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18">
@@ -3671,7 +3671,7 @@
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
@@ -3701,10 +3701,10 @@
         <v>2.1</v>
       </c>
       <c r="U18" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
         <v>5.5</v>
@@ -3722,7 +3722,7 @@
         <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC18" t="n">
         <v>5.5</v>
@@ -3850,13 +3850,13 @@
         <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K19" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.11</v>
@@ -3877,25 +3877,25 @@
         <v>1.44</v>
       </c>
       <c r="S19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V19" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X19" t="n">
         <v>6.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z19" t="n">
         <v>13</v>
@@ -3907,13 +3907,13 @@
         <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
         <v>101</v>
@@ -3922,7 +3922,7 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -3943,10 +3943,10 @@
         <v>3.4</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ19" t="n">
         <v>34</v>
@@ -3955,16 +3955,16 @@
         <v>67</v>
       </c>
       <c r="AS19" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW19" t="n">
         <v>81</v>
@@ -3985,7 +3985,7 @@
         <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD19" t="n">
         <v>501</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H23" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I23" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -4611,25 +4611,25 @@
         <v>2.25</v>
       </c>
       <c r="U23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>7.5</v>
       </c>
       <c r="X23" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y23" t="n">
         <v>13</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>12</v>
       </c>
       <c r="Z23" t="n">
         <v>34</v>
       </c>
       <c r="AA23" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
@@ -4641,7 +4641,7 @@
         <v>5.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
@@ -4650,28 +4650,28 @@
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>34</v>
@@ -4683,7 +4683,7 @@
         <v>101</v>
       </c>
       <c r="AS23" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT23" t="n">
         <v>2.25</v>
@@ -4692,7 +4692,7 @@
         <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="n">
         <v>126</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J29" t="n">
         <v>2.6</v>
@@ -5691,10 +5691,10 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R29" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S29" t="n">
         <v>1.5</v>
@@ -5724,13 +5724,13 @@
         <v>15</v>
       </c>
       <c r="AB29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC29" t="n">
         <v>7.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -8591,16 +8591,16 @@
         <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O45" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q45" t="n">
         <v>1.7</v>
@@ -8755,22 +8755,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H46" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="I46" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="J46" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L46" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="M46" t="n">
         <v>10.4</v>
@@ -8797,76 +8797,76 @@
         <v>3.04</v>
       </c>
       <c r="U46" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="V46" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="W46" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X46" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="Y46" t="n">
         <v>8.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA46" t="n">
         <v>12</v>
       </c>
       <c r="AB46" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC46" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP46" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF46" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS46" t="n">
         <v>250</v>
@@ -8875,10 +8875,10 @@
         <v>2.82</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW46" t="n">
         <v>51</v>
@@ -8887,16 +8887,16 @@
         <v>51</v>
       </c>
       <c r="AY46" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AZ46" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA46" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC46" t="n">
         <v>250</v>
@@ -8937,22 +8937,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="H47" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="J47" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="K47" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L47" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -8976,43 +8976,43 @@
         <v>1.29</v>
       </c>
       <c r="T47" t="n">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="U47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W47" t="n">
         <v>7.7</v>
       </c>
       <c r="X47" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AA47" t="n">
         <v>10.75</v>
       </c>
       <c r="AB47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC47" t="n">
         <v>14</v>
       </c>
       <c r="AD47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE47" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG47" t="n">
         <v>500</v>
@@ -9033,19 +9033,19 @@
         <v>75</v>
       </c>
       <c r="AM47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
         <v>3.25</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AP47" t="n">
         <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AR47" t="n">
         <v>40</v>
@@ -9054,10 +9054,10 @@
         <v>175</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AV47" t="n">
         <v>65</v>
@@ -9072,7 +9072,7 @@
         <v>8.25</v>
       </c>
       <c r="AZ47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BA47" t="n">
         <v>37</v>
@@ -11303,34 +11303,34 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H60" t="n">
         <v>3</v>
       </c>
       <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
         <v>3.25</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L60" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M60" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O60" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P60" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q60" t="n">
         <v>2.35</v>
@@ -11339,10 +11339,10 @@
         <v>1.57</v>
       </c>
       <c r="S60" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U60" t="n">
         <v>2</v>
@@ -11354,19 +11354,19 @@
         <v>6.5</v>
       </c>
       <c r="X60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y60" t="n">
         <v>10</v>
       </c>
       <c r="Z60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB60" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC60" t="n">
         <v>7</v>
@@ -11378,19 +11378,19 @@
         <v>17</v>
       </c>
       <c r="AF60" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG60" t="n">
         <v>351</v>
       </c>
       <c r="AH60" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI60" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ60" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK60" t="n">
         <v>34</v>
@@ -11405,22 +11405,22 @@
         <v>4.33</v>
       </c>
       <c r="AO60" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP60" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ60" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR60" t="n">
         <v>81</v>
       </c>
       <c r="AS60" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU60" t="n">
         <v>8.5</v>
@@ -11435,16 +11435,16 @@
         <v>51</v>
       </c>
       <c r="AY60" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ60" t="n">
         <v>19</v>
       </c>
       <c r="BA60" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BB60" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC60" t="n">
         <v>101</v>
@@ -11485,13 +11485,13 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H61" t="n">
         <v>3.3</v>
       </c>
       <c r="I61" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="J61" t="n">
         <v>5</v>
@@ -11521,25 +11521,25 @@
         <v>1.62</v>
       </c>
       <c r="S61" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T61" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V61" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W61" t="n">
         <v>11</v>
       </c>
       <c r="X61" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y61" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z61" t="n">
         <v>51</v>
@@ -11548,7 +11548,7 @@
         <v>41</v>
       </c>
       <c r="AB61" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC61" t="n">
         <v>8</v>
@@ -11557,7 +11557,7 @@
         <v>6.5</v>
       </c>
       <c r="AE61" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF61" t="n">
         <v>67</v>
@@ -11569,13 +11569,13 @@
         <v>6</v>
       </c>
       <c r="AI61" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ61" t="n">
         <v>9</v>
       </c>
       <c r="AK61" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL61" t="n">
         <v>17</v>
@@ -11584,13 +11584,13 @@
         <v>34</v>
       </c>
       <c r="AN61" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO61" t="n">
         <v>26</v>
       </c>
       <c r="AP61" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ61" t="n">
         <v>101</v>
@@ -11599,10 +11599,10 @@
         <v>126</v>
       </c>
       <c r="AS61" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU61" t="n">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>51</v>
       </c>
       <c r="AY61" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AZ61" t="n">
         <v>10</v>
@@ -16217,28 +16217,28 @@
         </is>
       </c>
       <c r="G87" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H87" t="n">
         <v>3.3</v>
       </c>
-      <c r="H87" t="n">
-        <v>3.15</v>
-      </c>
       <c r="I87" t="n">
-        <v>2.12</v>
+        <v>1.9</v>
       </c>
       <c r="J87" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="K87" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L87" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="M87" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N87" t="n">
-        <v>8</v>
+        <v>11.9</v>
       </c>
       <c r="O87" t="n">
         <v>1.3</v>
@@ -16247,10 +16247,10 @@
         <v>2.92</v>
       </c>
       <c r="Q87" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R87" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S87" t="n">
         <v>1.39</v>
@@ -16259,79 +16259,79 @@
         <v>2.57</v>
       </c>
       <c r="U87" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V87" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W87" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X87" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Y87" t="n">
-        <v>11.25</v>
+        <v>13</v>
       </c>
       <c r="Z87" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB87" t="n">
         <v>45</v>
-      </c>
-      <c r="AA87" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB87" t="n">
-        <v>35</v>
       </c>
       <c r="AC87" t="n">
         <v>9.25</v>
       </c>
       <c r="AD87" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AE87" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF87" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG87" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH87" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AI87" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AJ87" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="AK87" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AL87" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM87" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN87" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="AO87" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AP87" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ87" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR87" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS87" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT87" t="n">
         <v>2.57</v>
@@ -16349,10 +16349,10 @@
         <v>51</v>
       </c>
       <c r="AY87" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="AZ87" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="BA87" t="n">
         <v>18</v>
@@ -16399,28 +16399,28 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H88" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="I88" t="n">
         <v>2.27</v>
       </c>
       <c r="J88" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="K88" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L88" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>6.9</v>
+        <v>6.95</v>
       </c>
       <c r="O88" t="n">
         <v>1.39</v>
@@ -16438,37 +16438,37 @@
         <v>1.52</v>
       </c>
       <c r="T88" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U88" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V88" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="W88" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X88" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y88" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Z88" t="n">
         <v>45</v>
       </c>
       <c r="AA88" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AB88" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC88" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AD88" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE88" t="n">
         <v>15</v>
@@ -16477,46 +16477,46 @@
         <v>80</v>
       </c>
       <c r="AG88" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="AI88" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ88" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AK88" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL88" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AM88" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AN88" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO88" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AP88" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AQ88" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AR88" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AS88" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AU88" t="n">
         <v>7.5</v>
@@ -16534,19 +16534,19 @@
         <v>4</v>
       </c>
       <c r="AZ88" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="BA88" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BB88" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BC88" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="BD88" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89">

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -3298,43 +3298,43 @@
         <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
         <v>4.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -3343,10 +3343,10 @@
         <v>1.67</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3355,13 +3355,13 @@
         <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3382,7 +3382,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>51</v>
@@ -3397,13 +3397,13 @@
         <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3412,7 +3412,7 @@
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3433,16 +3433,16 @@
         <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB16" t="n">
         <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
@@ -3519,10 +3519,10 @@
         <v>2.38</v>
       </c>
       <c r="U17" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
         <v>5.5</v>
@@ -3531,7 +3531,7 @@
         <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>15</v>
@@ -3543,16 +3543,16 @@
         <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD17" t="n">
         <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
         <v>201</v>
@@ -3561,7 +3561,7 @@
         <v>9</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
         <v>15</v>
@@ -3591,7 +3591,7 @@
         <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT17" t="n">
         <v>2.38</v>
@@ -3621,7 +3621,7 @@
         <v>101</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
         <v>351</v>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
         <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
@@ -3707,19 +3707,19 @@
         <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3740,37 +3740,37 @@
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS18" t="n">
         <v>351</v>
@@ -3791,13 +3791,13 @@
         <v>81</v>
       </c>
       <c r="AY18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB18" t="n">
         <v>67</v>
@@ -3841,28 +3841,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K19" t="n">
         <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
         <v>1.57</v>
@@ -3871,10 +3871,10 @@
         <v>2.25</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R19" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S19" t="n">
         <v>1.62</v>
@@ -3883,16 +3883,16 @@
         <v>2.2</v>
       </c>
       <c r="U19" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V19" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W19" t="n">
         <v>4.75</v>
       </c>
       <c r="X19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
@@ -3901,7 +3901,7 @@
         <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
         <v>41</v>
@@ -3922,16 +3922,16 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>19</v>
       </c>
       <c r="AK19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
         <v>51</v>
@@ -3940,7 +3940,7 @@
         <v>67</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3949,10 +3949,10 @@
         <v>29</v>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS19" t="n">
         <v>301</v>
@@ -3961,10 +3961,10 @@
         <v>2.2</v>
       </c>
       <c r="AU19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW19" t="n">
         <v>81</v>
@@ -3973,7 +3973,7 @@
         <v>81</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ19" t="n">
         <v>34</v>
@@ -3985,7 +3985,7 @@
         <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD19" t="n">
         <v>501</v>
@@ -4569,28 +4569,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.53</v>
@@ -4605,19 +4605,19 @@
         <v>1.44</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U23" t="n">
         <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X23" t="n">
         <v>15</v>
@@ -4626,13 +4626,13 @@
         <v>13</v>
       </c>
       <c r="Z23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="n">
         <v>34</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC23" t="n">
         <v>6</v>
@@ -4644,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
@@ -4653,13 +4653,13 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>10</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>23</v>
@@ -4677,19 +4677,19 @@
         <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR23" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS23" t="n">
         <v>351</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV23" t="n">
         <v>81</v>
@@ -4701,7 +4701,7 @@
         <v>126</v>
       </c>
       <c r="AY23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -5661,13 +5661,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H29" t="n">
         <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>2.6</v>
@@ -5691,10 +5691,10 @@
         <v>2.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S29" t="n">
         <v>1.5</v>
@@ -5727,13 +5727,13 @@
         <v>34</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>81</v>
@@ -5742,7 +5742,7 @@
         <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI29" t="n">
         <v>29</v>
@@ -8573,28 +8573,28 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H45" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L45" t="n">
         <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O45" t="n">
         <v>1.2</v>
@@ -8603,22 +8603,22 @@
         <v>4.33</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R45" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S45" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="V45" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="W45" t="n">
         <v>7.5</v>
@@ -8627,10 +8627,10 @@
         <v>7.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA45" t="n">
         <v>12</v>
@@ -8639,10 +8639,10 @@
         <v>23</v>
       </c>
       <c r="AC45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE45" t="n">
         <v>17</v>
@@ -8654,13 +8654,13 @@
         <v>251</v>
       </c>
       <c r="AH45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI45" t="n">
         <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK45" t="n">
         <v>67</v>
@@ -8675,7 +8675,7 @@
         <v>3.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
@@ -8690,7 +8690,7 @@
         <v>126</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU45" t="n">
         <v>8.5</v>
@@ -8720,7 +8720,7 @@
         <v>126</v>
       </c>
       <c r="BD45" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46">
@@ -8755,28 +8755,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="H46" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="J46" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="K46" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="M46" t="n">
-        <v>10.4</v>
+        <v>1.01</v>
       </c>
       <c r="N46" t="n">
-        <v>1.04</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
         <v>1.24</v>
@@ -8791,82 +8791,82 @@
         <v>1.93</v>
       </c>
       <c r="S46" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="T46" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="U46" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="V46" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="W46" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X46" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="Y46" t="n">
         <v>8.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA46" t="n">
         <v>12</v>
       </c>
       <c r="AB46" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AC46" t="n">
         <v>11.25</v>
       </c>
       <c r="AD46" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AE46" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG46" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI46" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ46" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AK46" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO46" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AP46" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ46" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR46" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS46" t="n">
         <v>250</v>
@@ -8875,10 +8875,10 @@
         <v>2.82</v>
       </c>
       <c r="AU46" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AV46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW46" t="n">
         <v>51</v>
@@ -8887,16 +8887,16 @@
         <v>51</v>
       </c>
       <c r="AY46" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AZ46" t="n">
+        <v>30</v>
+      </c>
+      <c r="BA46" t="n">
         <v>35</v>
       </c>
-      <c r="BA46" t="n">
-        <v>37</v>
-      </c>
       <c r="BB46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC46" t="n">
         <v>250</v>
@@ -8940,19 +8940,19 @@
         <v>1.37</v>
       </c>
       <c r="H47" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I47" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
         <v>1.83</v>
       </c>
       <c r="K47" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="L47" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
@@ -8967,10 +8967,10 @@
         <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R47" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S47" t="n">
         <v>1.29</v>
@@ -8982,13 +8982,13 @@
         <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W47" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X47" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -9003,7 +9003,7 @@
         <v>24</v>
       </c>
       <c r="AC47" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD47" t="n">
         <v>9.25</v>
@@ -9015,10 +9015,10 @@
         <v>75</v>
       </c>
       <c r="AG47" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH47" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI47" t="n">
         <v>50</v>
@@ -9027,13 +9027,13 @@
         <v>22</v>
       </c>
       <c r="AK47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL47" t="n">
         <v>75</v>
       </c>
       <c r="AM47" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN47" t="n">
         <v>3.25</v>
@@ -9042,7 +9042,7 @@
         <v>6.1</v>
       </c>
       <c r="AP47" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
         <v>16.5</v>
@@ -9051,16 +9051,16 @@
         <v>40</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT47" t="n">
         <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AV47" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW47" t="n">
         <v>51</v>
@@ -9069,10 +9069,10 @@
         <v>51</v>
       </c>
       <c r="AY47" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AZ47" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA47" t="n">
         <v>37</v>
@@ -11509,16 +11509,16 @@
         <v>9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P61" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S61" t="n">
         <v>1.5</v>
@@ -11563,7 +11563,7 @@
         <v>67</v>
       </c>
       <c r="AG61" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AH61" t="n">
         <v>6</v>
@@ -16056,7 +16056,7 @@
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O86" t="n">
         <v>1.28</v>
@@ -16068,22 +16068,22 @@
         <v>1.85</v>
       </c>
       <c r="R86" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S86" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T86" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U86" t="n">
         <v>1.85</v>
       </c>
       <c r="V86" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W86" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X86" t="n">
         <v>7.7</v>
@@ -16101,7 +16101,7 @@
         <v>27</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD86" t="n">
         <v>7.4</v>
@@ -16143,22 +16143,22 @@
         <v>18.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR86" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS86" t="n">
         <v>250</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU86" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV86" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW86" t="n">
         <v>51</v>
@@ -16399,28 +16399,28 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H88" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="I88" t="n">
         <v>2.27</v>
       </c>
       <c r="J88" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="K88" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="L88" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M88" t="n">
         <v>1.03</v>
       </c>
       <c r="N88" t="n">
-        <v>6.95</v>
+        <v>6.9</v>
       </c>
       <c r="O88" t="n">
         <v>1.39</v>
@@ -16447,28 +16447,28 @@
         <v>1.78</v>
       </c>
       <c r="W88" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X88" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y88" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="Z88" t="n">
         <v>45</v>
       </c>
       <c r="AA88" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AB88" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC88" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD88" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE88" t="n">
         <v>15</v>
@@ -16480,40 +16480,40 @@
         <v>700</v>
       </c>
       <c r="AH88" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AI88" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AJ88" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK88" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL88" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AM88" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN88" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO88" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP88" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ88" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AR88" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AS88" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT88" t="n">
         <v>2.18</v>
@@ -16534,19 +16534,19 @@
         <v>4</v>
       </c>
       <c r="AZ88" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="BA88" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB88" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC88" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BD88" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89">

--- a/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-04.xlsx
@@ -3659,13 +3659,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
         <v>2.88</v>
       </c>
       <c r="I18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
         <v>3.75</v>
@@ -3674,7 +3674,7 @@
         <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
         <v>1.14</v>
@@ -3710,7 +3710,7 @@
         <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
         <v>12</v>
@@ -3719,7 +3719,7 @@
         <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
         <v>51</v>
@@ -3743,28 +3743,28 @@
         <v>6</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>51</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ18" t="n">
         <v>67</v>
@@ -3791,13 +3791,13 @@
         <v>81</v>
       </c>
       <c r="AY18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AZ18" t="n">
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
         <v>67</v>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
         <v>3.25</v>
@@ -3850,13 +3850,13 @@
         <v>4.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="K19" t="n">
         <v>1.91</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
@@ -3889,7 +3889,7 @@
         <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X19" t="n">
         <v>7</v>
@@ -3898,7 +3898,7 @@
         <v>10</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA19" t="n">
         <v>21</v>
@@ -3910,10 +3910,10 @@
         <v>6</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
         <v>101</v>
@@ -3922,28 +3922,28 @@
         <v>201</v>
       </c>
       <c r="AH19" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
         <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>29</v>
@@ -3976,13 +3976,13 @@
         <v>6.5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC19" t="n">
         <v>201</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
         <v>2.9</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J23" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
@@ -4593,28 +4593,28 @@
         <v>6.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U23" t="n">
         <v>2.2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W23" t="n">
         <v>8</v>
@@ -4644,7 +4644,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
@@ -4653,7 +4653,7 @@
         <v>6</v>
       </c>
       <c r="AI23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
@@ -4677,7 +4677,7 @@
         <v>34</v>
       </c>
       <c r="AQ23" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR23" t="n">
         <v>126</v>
@@ -4686,7 +4686,7 @@
         <v>351</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU23" t="n">
         <v>9.5</v>
@@ -4701,7 +4701,7 @@
         <v>126</v>
       </c>
       <c r="AY23" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AZ23" t="n">
         <v>15</v>
@@ -8573,16 +8573,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K45" t="n">
         <v>2.4</v>
@@ -8597,22 +8597,22 @@
         <v>13</v>
       </c>
       <c r="O45" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P45" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R45" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S45" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U45" t="n">
         <v>1.8</v>
@@ -8627,10 +8627,10 @@
         <v>7.5</v>
       </c>
       <c r="Y45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
         <v>12</v>
@@ -8642,7 +8642,7 @@
         <v>13</v>
       </c>
       <c r="AD45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE45" t="n">
         <v>17</v>
@@ -8654,13 +8654,13 @@
         <v>251</v>
       </c>
       <c r="AH45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI45" t="n">
         <v>34</v>
       </c>
       <c r="AJ45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="n">
         <v>67</v>
@@ -8675,7 +8675,7 @@
         <v>3.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP45" t="n">
         <v>17</v>
@@ -8690,7 +8690,7 @@
         <v>126</v>
       </c>
       <c r="AT45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU45" t="n">
         <v>8.5</v>
@@ -8708,7 +8708,7 @@
         <v>7.5</v>
       </c>
       <c r="AZ45" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA45" t="n">
         <v>34</v>
@@ -8755,28 +8755,28 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J46" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L46" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="M46" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.24</v>
@@ -8785,34 +8785,34 @@
         <v>3.3</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="S46" t="n">
         <v>1.34</v>
       </c>
       <c r="T46" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="U46" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V46" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="W46" t="n">
         <v>6.8</v>
       </c>
       <c r="X46" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Y46" t="n">
         <v>8.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA46" t="n">
         <v>12</v>
@@ -8821,64 +8821,64 @@
         <v>27</v>
       </c>
       <c r="AC46" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AE46" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG46" t="n">
         <v>700</v>
       </c>
       <c r="AH46" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI46" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM46" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO46" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AP46" t="n">
         <v>17</v>
       </c>
       <c r="AQ46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR46" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS46" t="n">
         <v>250</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="AU46" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AV46" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW46" t="n">
         <v>51</v>
@@ -8887,16 +8887,16 @@
         <v>51</v>
       </c>
       <c r="AY46" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AZ46" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BA46" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC46" t="n">
         <v>250</v>
@@ -8937,28 +8937,28 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="H47" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="J47" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="K47" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="L47" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="M47" t="n">
         <v>1.02</v>
       </c>
       <c r="N47" t="n">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>
@@ -8973,22 +8973,22 @@
         <v>2.15</v>
       </c>
       <c r="S47" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T47" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="U47" t="n">
         <v>1.8</v>
       </c>
       <c r="V47" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="W47" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X47" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -9003,7 +9003,7 @@
         <v>24</v>
       </c>
       <c r="AC47" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD47" t="n">
         <v>9.25</v>
@@ -9018,49 +9018,49 @@
         <v>600</v>
       </c>
       <c r="AH47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ47" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK47" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AL47" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AM47" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO47" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AP47" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ47" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AR47" t="n">
         <v>40</v>
       </c>
       <c r="AS47" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT47" t="n">
         <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV47" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW47" t="n">
         <v>51</v>
@@ -9069,19 +9069,19 @@
         <v>51</v>
       </c>
       <c r="AY47" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AZ47" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="BA47" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD47" t="n">
         <v>450</v>
@@ -16035,40 +16035,40 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H86" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I86" t="n">
-        <v>4.35</v>
+        <v>5.1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.25</v>
+        <v>2.12</v>
       </c>
       <c r="K86" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L86" t="n">
-        <v>4.75</v>
+        <v>5.4</v>
       </c>
       <c r="M86" t="n">
         <v>1.05</v>
       </c>
       <c r="N86" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O86" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P86" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="R86" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S86" t="n">
         <v>1.39</v>
@@ -16077,73 +16077,73 @@
         <v>2.77</v>
       </c>
       <c r="U86" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="V86" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="W86" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X86" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="Y86" t="n">
         <v>8.25</v>
       </c>
       <c r="Z86" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA86" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AA86" t="n">
-        <v>13.5</v>
       </c>
       <c r="AB86" t="n">
         <v>27</v>
       </c>
       <c r="AC86" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD86" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE86" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF86" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AG86" t="n">
         <v>600</v>
       </c>
       <c r="AH86" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AI86" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AJ86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK86" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AL86" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AM86" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN86" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AO86" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AP86" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ86" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR86" t="n">
         <v>60</v>
@@ -16155,10 +16155,10 @@
         <v>2.77</v>
       </c>
       <c r="AU86" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AV86" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW86" t="n">
         <v>51</v>
@@ -16167,22 +16167,22 @@
         <v>51</v>
       </c>
       <c r="AY86" t="n">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="AZ86" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="BA86" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BB86" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="BC86" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD86" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87">
